--- a/Race Dashboard data/df_weekly_with_calcs.xlsx
+++ b/Race Dashboard data/df_weekly_with_calcs.xlsx
@@ -632,7 +632,7 @@
         <v>0.47</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4650093331070766</v>
+        <v>0.4650093331070768</v>
       </c>
       <c r="L2" t="n">
         <v>0.04413994004185758</v>
@@ -659,10 +659,10 @@
         <v>-0.06091107213138458</v>
       </c>
       <c r="X2" t="n">
-        <v>0.09771566029731378</v>
+        <v>0.09764296339203357</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4650093331070766</v>
+        <v>0.4650093331070768</v>
       </c>
       <c r="Z2" t="n">
         <v>0.04413994004185758</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.5459538613148635</v>
+        <v>0.5458811644095835</v>
       </c>
     </row>
     <row r="3">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.4659226868732908</v>
+        <v>0.4659226868732907</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -724,7 +724,7 @@
         <v>0.547</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2082725615314494</v>
+        <v>0.2082725615314493</v>
       </c>
       <c r="L3" t="n">
         <v>0.1342714980249164</v>
@@ -739,7 +739,7 @@
         <v>44301</v>
       </c>
       <c r="T3" t="n">
-        <v>0.08824012561158978</v>
+        <v>0.08824012561158967</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -748,13 +748,13 @@
         <v>0.1342714980249164</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.08824012561158978</v>
+        <v>-0.08824012561158967</v>
       </c>
       <c r="X3" t="n">
-        <v>0.09771566029731378</v>
+        <v>0.09764296339203357</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2082725615314494</v>
+        <v>0.2082725615314493</v>
       </c>
       <c r="Z3" t="n">
         <v>0.1342714980249164</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.3520195942420898</v>
+        <v>0.3519468973368096</v>
       </c>
     </row>
     <row r="4">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5813037037037035</v>
+        <v>0.581303703703704</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -816,7 +816,7 @@
         <v>0.58</v>
       </c>
       <c r="K4" t="n">
-        <v>0.224561111111111</v>
+        <v>0.2245611111111111</v>
       </c>
       <c r="L4" t="n">
         <v>0.07083611111111111</v>
@@ -831,7 +831,7 @@
         <v>44301</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1302723171741174</v>
+        <v>0.1302723171741178</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -840,13 +840,13 @@
         <v>0.07083611111111111</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.1302723171741174</v>
+        <v>-0.1302723171741178</v>
       </c>
       <c r="X4" t="n">
-        <v>0.09771566029731378</v>
+        <v>0.09764296339203357</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.224561111111111</v>
+        <v>0.2245611111111111</v>
       </c>
       <c r="Z4" t="n">
         <v>0.07083611111111111</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.2628405653454185</v>
+        <v>0.262767868440138</v>
       </c>
     </row>
     <row r="5">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.3678968395061729</v>
+        <v>0.3678968395061727</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -911,7 +911,7 @@
         <v>0.3428510802469136</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1849575617283951</v>
+        <v>0.184957561728395</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -923,25 +923,25 @@
         <v>44301</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03524012866279952</v>
+        <v>0.0352401286627993</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1849575617283951</v>
+        <v>0.184957561728395</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.03524012866279952</v>
+        <v>-0.0352401286627993</v>
       </c>
       <c r="X5" t="n">
-        <v>0.09771566029731378</v>
+        <v>0.09764296339203357</v>
       </c>
       <c r="Y5" t="n">
         <v>0.3428510802469136</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1849575617283951</v>
+        <v>0.184957561728395</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.5902841736098229</v>
+        <v>0.5902114767045428</v>
       </c>
     </row>
     <row r="6">
@@ -1027,7 +1027,7 @@
         <v>-0.1129276608445751</v>
       </c>
       <c r="X6" t="n">
-        <v>0.09771566029731378</v>
+        <v>0.09764296339203357</v>
       </c>
       <c r="Y6" t="n">
         <v>0.1635734371620159</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.2235507076508783</v>
+        <v>0.2234780107455981</v>
       </c>
     </row>
     <row r="7">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.3937398291293734</v>
+        <v>0.3937398291293736</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -1092,7 +1092,7 @@
         <v>0.478</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2066178464876593</v>
+        <v>0.2066178464876594</v>
       </c>
       <c r="L7" t="n">
         <v>0.132655275291565</v>
@@ -1107,7 +1107,7 @@
         <v>44301</v>
       </c>
       <c r="T7" t="n">
-        <v>0.04217601828647649</v>
+        <v>0.04217601828647671</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0.132655275291565</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.04217601828647649</v>
+        <v>-0.04217601828647671</v>
       </c>
       <c r="X7" t="n">
-        <v>0.09771566029731378</v>
+        <v>0.09764296339203357</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2066178464876593</v>
+        <v>0.2066178464876594</v>
       </c>
       <c r="Z7" t="n">
         <v>0.132655275291565</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.3948127637900616</v>
+        <v>0.3947400668847813</v>
       </c>
     </row>
     <row r="8">
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.4311863395649224</v>
+        <v>0.4311863395649225</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1199,7 +1199,7 @@
         <v>44301</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0125030820853636</v>
+        <v>0.01250308208536371</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1208,10 +1208,10 @@
         <v>0.2093841719077568</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.0125030820853636</v>
+        <v>-0.01250308208536371</v>
       </c>
       <c r="X8" t="n">
-        <v>0.09771566029731378</v>
+        <v>0.09764296339203357</v>
       </c>
       <c r="Y8" t="n">
         <v>0.2913888888888888</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.5859856390085958</v>
+        <v>0.5859129421033155</v>
       </c>
     </row>
     <row r="9">
@@ -1276,7 +1276,7 @@
         <v>0.65</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4650093331070766</v>
+        <v>0.4650093331070768</v>
       </c>
       <c r="L9" t="n">
         <v>0.7897810218978102</v>
@@ -1301,13 +1301,13 @@
         <v>-0</v>
       </c>
       <c r="X9" t="n">
-        <v>0.09771566029731378</v>
+        <v>0.09764296339203357</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.4650093331070766</v>
+        <v>0.4650093331070768</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.146100904885388</v>
+        <v>0.1460072259917737</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.7088258982897784</v>
+        <v>0.708659522490884</v>
       </c>
     </row>
     <row r="10">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.3718449711723255</v>
+        <v>0.3718449711723254</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1369,7 +1369,7 @@
         <v>0.2292974588938715</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08187059577194107</v>
+        <v>0.08187059577194106</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1381,25 +1381,25 @@
         <v>44301</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.1566729318574179</v>
+        <v>-0.156672931857418</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.08187059577194107</v>
+        <v>0.08187059577194106</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1566729318574179</v>
+        <v>0.156672931857418</v>
       </c>
       <c r="X10" t="n">
-        <v>0.09771566029731378</v>
+        <v>0.09764296339203357</v>
       </c>
       <c r="Y10" t="n">
         <v>0.2292974588938715</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.08187059577194107</v>
+        <v>0.08187059577194106</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.5655566468205443</v>
+        <v>0.5654839499152642</v>
       </c>
     </row>
     <row r="11">
@@ -1485,7 +1485,7 @@
         <v>0.3973984163090297</v>
       </c>
       <c r="X11" t="n">
-        <v>0.09771566029731378</v>
+        <v>0.09764296339203357</v>
       </c>
       <c r="Y11" t="n">
         <v>0.1148175182481752</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.399712616752329</v>
+        <v>1.399639919847049</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.4324316305125077</v>
+        <v>0.4324316305125078</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1550,10 +1550,10 @@
         <v>0.53</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1482674586855532</v>
+        <v>0.1482674586855533</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1788058792171197</v>
+        <v>0.1788058792171198</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -1565,25 +1565,25 @@
         <v>44301</v>
       </c>
       <c r="T12" t="n">
-        <v>0.07941080003188272</v>
+        <v>0.07941080003188283</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1788058792171197</v>
+        <v>0.1788058792171198</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.07941080003188272</v>
+        <v>-0.07941080003188283</v>
       </c>
       <c r="X12" t="n">
-        <v>0.09771566029731378</v>
+        <v>0.09764296339203357</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1482674586855532</v>
+        <v>0.1482674586855533</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.1788058792171197</v>
+        <v>0.1788058792171198</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.3453781981681039</v>
+        <v>0.3453055012628238</v>
       </c>
     </row>
     <row r="13">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.6493356481481484</v>
+        <v>0.6493356481481483</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1645,7 +1645,7 @@
         <v>0.2346345899470901</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03516369047619048</v>
+        <v>0.03516369047619049</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1657,25 +1657,25 @@
         <v>44301</v>
       </c>
       <c r="T13" t="n">
-        <v>0.119267743418071</v>
+        <v>0.1192677434180709</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.03516369047619048</v>
+        <v>0.03516369047619049</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.119267743418071</v>
+        <v>-0.1192677434180709</v>
       </c>
       <c r="X13" t="n">
-        <v>0.09771566029731378</v>
+        <v>0.09764296339203357</v>
       </c>
       <c r="Y13" t="n">
         <v>0.2346345899470901</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.03516369047619048</v>
+        <v>0.03516369047619049</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.2482461973025234</v>
+        <v>0.2481735003972433</v>
       </c>
     </row>
     <row r="14">
@@ -1734,7 +1734,7 @@
         <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4650093331070766</v>
+        <v>0.4650093331070768</v>
       </c>
       <c r="L14" t="n">
         <v>0.7897810218978102</v>
@@ -1759,13 +1759,13 @@
         <v>-0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.09771566029731378</v>
+        <v>0.09764296339203357</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.4650093331070766</v>
+        <v>0.4650093331070768</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.146100904885388</v>
+        <v>0.1460072259917737</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.7088258982897784</v>
+        <v>0.708659522490884</v>
       </c>
     </row>
     <row r="15">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0797433836816767</v>
+        <v>0.07974338368167658</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1841,25 +1841,25 @@
         <v>44301</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.1127741747121485</v>
+        <v>-0.1127741747121484</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.08187059577194107</v>
+        <v>-0.08187059577194106</v>
       </c>
       <c r="V15" t="n">
-        <v>0.04093529788597054</v>
+        <v>0.04093529788597053</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1127741747121485</v>
+        <v>0.1127741747121484</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0797433836816767</v>
+        <v>0.07974338368167658</v>
       </c>
       <c r="Y15" t="n">
         <v>0.2223345975558365</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.04093529788597054</v>
+        <v>0.04093529788597053</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.4557874538356323</v>
+        <v>0.455787453835632</v>
       </c>
     </row>
     <row r="16">
@@ -1924,7 +1924,7 @@
         <v>0.1951586522734708</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03305820371541524</v>
+        <v>0.03305820371541539</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1935,7 +1935,7 @@
         <v>44301</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.0467513600420329</v>
+        <v>-0.04675136004203312</v>
       </c>
       <c r="U16" t="n">
         <v>0.06250337698190578</v>
@@ -1944,10 +1944,10 @@
         <v>0.1639069637825179</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0467513600420329</v>
+        <v>0.04675136004203312</v>
       </c>
       <c r="X16" t="n">
-        <v>0.03305820371541524</v>
+        <v>0.03305820371541539</v>
       </c>
       <c r="Y16" t="n">
         <v>0.2113182859012103</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.4550348134411764</v>
+        <v>0.4550348134411767</v>
       </c>
     </row>
     <row r="17">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.5151866601799033</v>
+        <v>0.5151866601799034</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
@@ -2018,7 +2018,7 @@
         <v>0.3669546365097908</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0574493880231934</v>
+        <v>0.05744938802319328</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -2029,7 +2029,7 @@
         <v>44301</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.08124570369243456</v>
+        <v>-0.08124570369243445</v>
       </c>
       <c r="U17" t="n">
         <v>0.2917653654736671</v>
@@ -2038,10 +2038,10 @@
         <v>0.2210719537729573</v>
       </c>
       <c r="W17" t="n">
-        <v>0.08124570369243456</v>
+        <v>0.08124570369243445</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0574493880231934</v>
+        <v>0.05744938802319328</v>
       </c>
       <c r="Y17" t="n">
         <v>0.1271620626892892</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.4869291081778744</v>
+        <v>0.4869291081778742</v>
       </c>
     </row>
     <row r="18">
@@ -2083,7 +2083,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.3606810185185186</v>
+        <v>0.3606810185185185</v>
       </c>
       <c r="E18" t="n">
         <v>14</v>
@@ -2106,13 +2106,13 @@
         <v>0.45</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3922222222222224</v>
+        <v>0.3922222222222221</v>
       </c>
       <c r="L18" t="n">
         <v>0.1012314814814815</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005102355952198608</v>
+        <v>0.005102355952198471</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -2123,25 +2123,25 @@
         <v>44301</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.007215820987654331</v>
+        <v>-0.007215820987654165</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.08372608024691358</v>
+        <v>-0.0837260802469135</v>
       </c>
       <c r="V18" t="n">
-        <v>0.1430945216049383</v>
+        <v>0.1430945216049382</v>
       </c>
       <c r="W18" t="n">
-        <v>0.007215820987654331</v>
+        <v>0.007215820987654165</v>
       </c>
       <c r="X18" t="n">
-        <v>0.005102355952198608</v>
+        <v>0.005102355952198471</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.3922222222222224</v>
+        <v>0.3922222222222221</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.1430945216049383</v>
+        <v>0.1430945216049382</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.5476349207670137</v>
+        <v>0.547634920767013</v>
       </c>
     </row>
     <row r="19">
@@ -2206,7 +2206,7 @@
         <v>0.1379027219991075</v>
       </c>
       <c r="M19" t="n">
-        <v>0.03890616520399117</v>
+        <v>0.03890616520399109</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -2217,7 +2217,7 @@
         <v>44301</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.05502162649141251</v>
+        <v>-0.0550216264914124</v>
       </c>
       <c r="U19" t="n">
         <v>0.003631223974191106</v>
@@ -2226,10 +2226,10 @@
         <v>0.136087110012012</v>
       </c>
       <c r="W19" t="n">
-        <v>0.05502162649141251</v>
+        <v>0.0550216264914124</v>
       </c>
       <c r="X19" t="n">
-        <v>0.03890616520399117</v>
+        <v>0.03890616520399109</v>
       </c>
       <c r="Y19" t="n">
         <v>0.2653369031682284</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.4953518048756441</v>
+        <v>0.4953518048756438</v>
       </c>
     </row>
     <row r="20">
@@ -2294,10 +2294,10 @@
         <v>0.65</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2403385557356384</v>
+        <v>0.2403385557356385</v>
       </c>
       <c r="L20" t="n">
-        <v>0.09540428597154693</v>
+        <v>0.09540428597154692</v>
       </c>
       <c r="M20" t="n">
         <v>0.2947906451771979</v>
@@ -2326,7 +2326,7 @@
         <v>0.2947906451771979</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2403385557356384</v>
+        <v>0.2403385557356385</v>
       </c>
       <c r="Z20" t="n">
         <v>0.4425926539346786</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.5608249263772067</v>
+        <v>0.5608249263772069</v>
       </c>
     </row>
     <row r="21">
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.5307073274036423</v>
+        <v>0.5307073274036425</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
@@ -2388,13 +2388,13 @@
         <v>0.47</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3940456021459833</v>
+        <v>0.3940456021459835</v>
       </c>
       <c r="L21" t="n">
         <v>0.02371876323591698</v>
       </c>
       <c r="M21" t="n">
-        <v>0.05111914627832542</v>
+        <v>0.05111914627832553</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -2405,7 +2405,7 @@
         <v>44301</v>
       </c>
       <c r="T21" t="n">
-        <v>0.07229338996374196</v>
+        <v>0.07229338996374207</v>
       </c>
       <c r="U21" t="n">
         <v>-0.0204211768059406</v>
@@ -2414,13 +2414,13 @@
         <v>0.03392935163888728</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.07229338996374196</v>
+        <v>-0.07229338996374207</v>
       </c>
       <c r="X21" t="n">
-        <v>0.05111914627832542</v>
+        <v>0.05111914627832553</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.3940456021459833</v>
+        <v>0.3940456021459835</v>
       </c>
       <c r="Z21" t="n">
         <v>0.03392935163888728</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.406800710099454</v>
+        <v>0.4068007100994542</v>
       </c>
     </row>
     <row r="22">
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.5185936459955085</v>
+        <v>0.5185936459955086</v>
       </c>
       <c r="E22" t="n">
         <v>14</v>
@@ -2482,10 +2482,10 @@
         <v>0.53</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1097551524655704</v>
+        <v>0.1097551524655705</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1323024603279525</v>
+        <v>0.1323024603279526</v>
       </c>
       <c r="M22" t="n">
         <v>0.06092574542873014</v>
@@ -2505,7 +2505,7 @@
         <v>-0.0465034188891672</v>
       </c>
       <c r="V22" t="n">
-        <v>0.1555541697725361</v>
+        <v>0.1555541697725362</v>
       </c>
       <c r="W22" t="n">
         <v>-0.08616201548300079</v>
@@ -2514,10 +2514,10 @@
         <v>0.06092574542873014</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1097551524655704</v>
+        <v>0.1097551524655705</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.1555541697725361</v>
+        <v>0.1555541697725362</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.2400730521838358</v>
+        <v>0.240073052183836</v>
       </c>
     </row>
     <row r="23">
@@ -2582,7 +2582,7 @@
         <v>0.1917932489451477</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1044178583481531</v>
+        <v>0.1044178583481534</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2593,7 +2593,7 @@
         <v>44301</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.1476691514299108</v>
+        <v>-0.1476691514299112</v>
       </c>
       <c r="U23" t="n">
         <v>0.1209571378340366</v>
@@ -2602,10 +2602,10 @@
         <v>0.1313146800281294</v>
       </c>
       <c r="W23" t="n">
-        <v>0.1476691514299108</v>
+        <v>0.1476691514299112</v>
       </c>
       <c r="X23" t="n">
-        <v>0.1044178583481531</v>
+        <v>0.1044178583481534</v>
       </c>
       <c r="Y23" t="n">
         <v>0.2640822784810127</v>
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.6474839682872059</v>
+        <v>0.6474839682872068</v>
       </c>
     </row>
     <row r="24">
@@ -2670,13 +2670,13 @@
         <v>0.65</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1244815346574141</v>
+        <v>0.124481534657414</v>
       </c>
       <c r="L24" t="n">
         <v>0.3694703677115738</v>
       </c>
       <c r="M24" t="n">
-        <v>0.156991355784141</v>
+        <v>0.1569913557841409</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2687,7 +2687,7 @@
         <v>44301</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.2220193045252721</v>
+        <v>-0.222019304525272</v>
       </c>
       <c r="U24" t="n">
         <v>0.3343066772353833</v>
@@ -2696,13 +2696,13 @@
         <v>0.2023170290938822</v>
       </c>
       <c r="W24" t="n">
-        <v>0.2220193045252721</v>
+        <v>0.222019304525272</v>
       </c>
       <c r="X24" t="n">
-        <v>0.156991355784141</v>
+        <v>0.1569913557841409</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.1244815346574141</v>
+        <v>0.124481534657414</v>
       </c>
       <c r="Z24" t="n">
         <v>0.2023170290938822</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.7058092240607093</v>
+        <v>0.705809224060709</v>
       </c>
     </row>
     <row r="25">
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.3896904650801059</v>
+        <v>0.3896904650801058</v>
       </c>
       <c r="E25" t="n">
         <v>14</v>
@@ -2764,13 +2764,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3192759371597448</v>
+        <v>0.3192759371597449</v>
       </c>
       <c r="L25" t="n">
         <v>0.1456875097215741</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02934201423947959</v>
+        <v>0.02934201423947974</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2781,7 +2781,7 @@
         <v>44301</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.04149587448481651</v>
+        <v>-0.04149587448481673</v>
       </c>
       <c r="U25" t="n">
         <v>-0.0636966621861827</v>
@@ -2790,13 +2790,13 @@
         <v>0.1775358408146654</v>
       </c>
       <c r="W25" t="n">
-        <v>0.04149587448481651</v>
+        <v>0.04149587448481673</v>
       </c>
       <c r="X25" t="n">
-        <v>0.02934201423947959</v>
+        <v>0.02934201423947974</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.3192759371597448</v>
+        <v>0.3192759371597449</v>
       </c>
       <c r="Z25" t="n">
         <v>0.1775358408146654</v>
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.5676496666987063</v>
+        <v>0.5676496666987068</v>
       </c>
     </row>
     <row r="26">
@@ -2858,7 +2858,7 @@
         <v>0.65</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3940456021459833</v>
+        <v>0.3940456021459835</v>
       </c>
       <c r="L26" t="n">
         <v>0.3694703677115738</v>
@@ -2888,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.3940456021459833</v>
+        <v>0.3940456021459835</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.146100904885388</v>
+        <v>0.1460072259917737</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.5401465070313713</v>
+        <v>0.5400528281377572</v>
       </c>
     </row>
     <row r="27">
@@ -2950,7 +2950,7 @@
         <v>0.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.3940456021459833</v>
+        <v>0.3940456021459835</v>
       </c>
       <c r="L27" t="n">
         <v>0.3694703677115738</v>
@@ -2980,10 +2980,10 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.3940456021459833</v>
+        <v>0.3940456021459835</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.146100904885388</v>
+        <v>0.1460072259917737</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.5401465070313713</v>
+        <v>0.5400528281377572</v>
       </c>
     </row>
     <row r="28">
@@ -3042,13 +3042,13 @@
         <v>0.65</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1456798669686459</v>
+        <v>0.1456798669686458</v>
       </c>
       <c r="L28" t="n">
         <v>0.130089314602599</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07043402708015303</v>
+        <v>0.07043402708015299</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -3059,7 +3059,7 @@
         <v>44329</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1402833166044354</v>
+        <v>0.1402833166044353</v>
       </c>
       <c r="U28" t="n">
         <v>-0.2368653219071918</v>
@@ -3068,13 +3068,13 @@
         <v>0.1907444073828378</v>
       </c>
       <c r="W28" t="n">
-        <v>-0.1402833166044354</v>
+        <v>-0.1402833166044353</v>
       </c>
       <c r="X28" t="n">
-        <v>0.07043402708015303</v>
+        <v>0.07043402708015299</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.1456798669686459</v>
+        <v>0.1456798669686458</v>
       </c>
       <c r="Z28" t="n">
         <v>0.1907444073828378</v>
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.4515154465212876</v>
+        <v>0.4515154465212877</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -3136,13 +3136,13 @@
         <v>0.58</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2387850467289719</v>
+        <v>0.2387850467289718</v>
       </c>
       <c r="L29" t="n">
         <v>0.2126590083073727</v>
       </c>
       <c r="M29" t="n">
-        <v>0.08059248968893751</v>
+        <v>0.08059248968893773</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -3153,7 +3153,7 @@
         <v>44329</v>
       </c>
       <c r="T29" t="n">
-        <v>0.01788089424749484</v>
+        <v>0.01788089424749495</v>
       </c>
       <c r="U29" t="n">
         <v>0.02086575936222498</v>
@@ -3162,13 +3162,13 @@
         <v>0.1584294561212105</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.01788089424749484</v>
+        <v>-0.01788089424749495</v>
       </c>
       <c r="X29" t="n">
-        <v>0.08059248968893751</v>
+        <v>0.08059248968893773</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.2387850467289719</v>
+        <v>0.2387850467289718</v>
       </c>
       <c r="Z29" t="n">
         <v>0.1584294561212105</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.4445773979107314</v>
+        <v>0.4445773979107312</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -3230,13 +3230,13 @@
         <v>0.53</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3947483380816714</v>
+        <v>0.3947483380816715</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0934707793582203</v>
+        <v>0.09347077935822019</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -3247,7 +3247,7 @@
         <v>44329</v>
       </c>
       <c r="T30" t="n">
-        <v>0.1855066014505544</v>
+        <v>0.1855066014505542</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3256,13 +3256,13 @@
         <v>0.02729019859064702</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.1855066014505544</v>
+        <v>-0.1855066014505542</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0934707793582203</v>
+        <v>0.09347077935822019</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.3947483380816714</v>
+        <v>0.3947483380816715</v>
       </c>
       <c r="Z30" t="n">
         <v>0.02729019859064702</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.3300027145799843</v>
+        <v>0.3300027145799845</v>
       </c>
     </row>
     <row r="31">
@@ -3330,7 +3330,7 @@
         <v>0.009041996712001191</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1006342999100724</v>
+        <v>0.1006342999100723</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -3341,25 +3341,25 @@
         <v>44329</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1144431722154241</v>
+        <v>0.114443172215424</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.1232604636159513</v>
+        <v>-0.1232604636159514</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1067167787523578</v>
+        <v>0.1067167787523579</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.1144431722154241</v>
+        <v>-0.114443172215424</v>
       </c>
       <c r="X31" t="n">
-        <v>0.1006342999100724</v>
+        <v>0.1006342999100723</v>
       </c>
       <c r="Y31" t="n">
         <v>0.08877596771782989</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.1067167787523578</v>
+        <v>0.1067167787523579</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.1816838741648359</v>
+        <v>0.1816838741648361</v>
       </c>
     </row>
     <row r="32">
@@ -3395,7 +3395,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.4497453951492872</v>
+        <v>0.4497453951492871</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -3418,13 +3418,13 @@
         <v>0.5</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3149636857570549</v>
+        <v>0.3149636857570547</v>
       </c>
       <c r="L32" t="n">
-        <v>0.08703903514570473</v>
+        <v>0.08703903514570475</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01729025253812523</v>
+        <v>0.01729025253812529</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -3435,25 +3435,25 @@
         <v>44329</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.02994759587172963</v>
+        <v>-0.02994759587172974</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0.08703903514570473</v>
+        <v>0.08703903514570475</v>
       </c>
       <c r="W32" t="n">
-        <v>0.02994759587172963</v>
+        <v>0.02994759587172974</v>
       </c>
       <c r="X32" t="n">
-        <v>0.01729025253812523</v>
+        <v>0.01729025253812529</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.3149636857570549</v>
+        <v>0.3149636857570547</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.08703903514570473</v>
+        <v>0.08703903514570475</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>0.05654706790123457</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01777640362340894</v>
+        <v>0.01777640362340883</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -3529,7 +3529,7 @@
         <v>44329</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.02654089583333336</v>
+        <v>-0.0265408958333333</v>
       </c>
       <c r="U33" t="n">
         <v>-0.04468441358024693</v>
@@ -3538,10 +3538,10 @@
         <v>0.1142453703703704</v>
       </c>
       <c r="W33" t="n">
-        <v>0.02654089583333336</v>
+        <v>0.0265408958333333</v>
       </c>
       <c r="X33" t="n">
-        <v>0.01777640362340894</v>
+        <v>0.01777640362340883</v>
       </c>
       <c r="Y33" t="n">
         <v>0.5160860339506173</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.67464870377773</v>
+        <v>0.6746487037777298</v>
       </c>
     </row>
     <row r="34">
@@ -3583,7 +3583,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.3867231273166106</v>
+        <v>0.3867231273166107</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -3609,7 +3609,7 @@
         <v>0.06967287302818721</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3904167744159987</v>
+        <v>0.3904167744159986</v>
       </c>
       <c r="M34" t="n">
         <v>0.2219731139442445</v>
@@ -3623,16 +3623,16 @@
         <v>44329</v>
       </c>
       <c r="T34" t="n">
-        <v>-0.07629740212693348</v>
+        <v>-0.07629740212693342</v>
       </c>
       <c r="U34" t="n">
-        <v>0.2950124884444518</v>
+        <v>0.2950124884444517</v>
       </c>
       <c r="V34" t="n">
         <v>0.4252006940951186</v>
       </c>
       <c r="W34" t="n">
-        <v>0.07629740212693348</v>
+        <v>0.07629740212693342</v>
       </c>
       <c r="X34" t="n">
         <v>0.2219731139442445</v>
@@ -3703,7 +3703,7 @@
         <v>0.5160860339506173</v>
       </c>
       <c r="L35" t="n">
-        <v>0.4479817351598173</v>
+        <v>0.4479817351598172</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3733,7 +3733,7 @@
         <v>0.5160860339506173</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.146100904885388</v>
+        <v>0.1460072259917737</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.6621869388360053</v>
+        <v>0.662093259942391</v>
       </c>
     </row>
     <row r="36">
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.5205112433862435</v>
+        <v>0.5205112433862437</v>
       </c>
       <c r="E36" t="n">
         <v>15</v>
@@ -3792,13 +3792,13 @@
         <v>0.65</v>
       </c>
       <c r="K36" t="n">
-        <v>0.3178918650793651</v>
+        <v>0.3178918650793652</v>
       </c>
       <c r="L36" t="n">
         <v>0.1007539682539683</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1114851172324873</v>
+        <v>0.1114851172324872</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -3809,7 +3809,7 @@
         <v>44329</v>
       </c>
       <c r="T36" t="n">
-        <v>0.09319489976336726</v>
+        <v>0.09319489976336737</v>
       </c>
       <c r="U36" t="n">
         <v>-0.2687163994576055</v>
@@ -3818,13 +3818,13 @@
         <v>0.1684626754805776</v>
       </c>
       <c r="W36" t="n">
-        <v>-0.09319489976336726</v>
+        <v>-0.09319489976336737</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1114851172324873</v>
+        <v>0.1114851172324872</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.3178918650793651</v>
+        <v>0.3178918650793652</v>
       </c>
       <c r="Z36" t="n">
         <v>0.1684626754805776</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.5046447580290627</v>
+        <v>0.5046447580290626</v>
       </c>
     </row>
     <row r="37">
@@ -3886,13 +3886,13 @@
         <v>0.547</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2261915301755938</v>
+        <v>0.2261915301755939</v>
       </c>
       <c r="L37" t="n">
         <v>0.108713294968275</v>
       </c>
       <c r="M37" t="n">
-        <v>0.03483580463212952</v>
+        <v>0.03483580463212945</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -3915,10 +3915,10 @@
         <v>0.0095035801274575</v>
       </c>
       <c r="X37" t="n">
-        <v>0.03483580463212952</v>
+        <v>0.03483580463212945</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.2261915301755938</v>
+        <v>0.2261915301755939</v>
       </c>
       <c r="Z37" t="n">
         <v>0.126962504997433</v>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.1878452054794521</v>
+        <v>0.187845205479452</v>
       </c>
       <c r="E38" t="n">
         <v>15</v>
@@ -3983,10 +3983,10 @@
         <v>0.1522922374429224</v>
       </c>
       <c r="L38" t="n">
-        <v>0.4479817351598173</v>
+        <v>0.4479817351598172</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1079389210506667</v>
+        <v>0.1079389210506668</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3997,19 +3997,19 @@
         <v>44329</v>
       </c>
       <c r="T38" t="n">
-        <v>-0.1591432636078884</v>
+        <v>-0.1591432636078885</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2528230828863465</v>
+        <v>0.2528230828863464</v>
       </c>
       <c r="V38" t="n">
         <v>0.2585985542416177</v>
       </c>
       <c r="W38" t="n">
-        <v>0.1591432636078884</v>
+        <v>0.1591432636078885</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1079389210506667</v>
+        <v>0.1079389210506668</v>
       </c>
       <c r="Y38" t="n">
         <v>0.1522922374429224</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.6779729763430952</v>
+        <v>0.6779729763430953</v>
       </c>
     </row>
     <row r="39">
@@ -4077,10 +4077,10 @@
         <v>0.1388373804267844</v>
       </c>
       <c r="L39" t="n">
-        <v>0.3628697571743929</v>
+        <v>0.3628697571743928</v>
       </c>
       <c r="M39" t="n">
-        <v>0.03472531024767518</v>
+        <v>0.03472531024767524</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -4091,19 +4091,19 @@
         <v>44329</v>
       </c>
       <c r="T39" t="n">
-        <v>0.06897770829667671</v>
+        <v>0.06897770829667682</v>
       </c>
       <c r="U39" t="n">
-        <v>0.2171822474528188</v>
+        <v>0.2171822474528187</v>
       </c>
       <c r="V39" t="n">
         <v>0.2393138129345746</v>
       </c>
       <c r="W39" t="n">
-        <v>-0.06897770829667671</v>
+        <v>-0.06897770829667682</v>
       </c>
       <c r="X39" t="n">
-        <v>0.03472531024767518</v>
+        <v>0.03472531024767524</v>
       </c>
       <c r="Y39" t="n">
         <v>0.1388373804267844</v>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.3438987953123575</v>
+        <v>0.3438987953123574</v>
       </c>
     </row>
     <row r="40">
@@ -4168,13 +4168,13 @@
         <v>0.47</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4566469622331692</v>
+        <v>0.4566469622331694</v>
       </c>
       <c r="L40" t="n">
         <v>0.05936288998357964</v>
       </c>
       <c r="M40" t="n">
-        <v>0.06043301925529537</v>
+        <v>0.06043301925529542</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -4185,7 +4185,7 @@
         <v>44329</v>
       </c>
       <c r="T40" t="n">
-        <v>-0.1200317280604569</v>
+        <v>-0.120031728060457</v>
       </c>
       <c r="U40" t="n">
         <v>0.03564412674766267</v>
@@ -4194,13 +4194,13 @@
         <v>0.04240719775378474</v>
       </c>
       <c r="W40" t="n">
-        <v>0.1200317280604569</v>
+        <v>0.120031728060457</v>
       </c>
       <c r="X40" t="n">
-        <v>0.06043301925529537</v>
+        <v>0.06043301925529542</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4566469622331692</v>
+        <v>0.4566469622331694</v>
       </c>
       <c r="Z40" t="n">
         <v>0.04240719775378474</v>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.6795189073027061</v>
+        <v>0.6795189073027066</v>
       </c>
     </row>
     <row r="41">
@@ -4262,13 +4262,13 @@
         <v>0.47</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6040061858076565</v>
+        <v>0.6040061858076563</v>
       </c>
       <c r="L41" t="n">
         <v>0.02221346872082166</v>
       </c>
       <c r="M41" t="n">
-        <v>0.06816192674409781</v>
+        <v>0.06816192674409784</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -4291,10 +4291,10 @@
         <v>0.03812517917511837</v>
       </c>
       <c r="X41" t="n">
-        <v>0.06816192674409781</v>
+        <v>0.06816192674409784</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.6040061858076565</v>
+        <v>0.6040061858076563</v>
       </c>
       <c r="Z41" t="n">
         <v>0.03735876549554397</v>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.7476520572224167</v>
+        <v>0.7476520572224165</v>
       </c>
     </row>
     <row r="42">
@@ -4373,16 +4373,16 @@
         <v>44329</v>
       </c>
       <c r="T42" t="n">
-        <v>0.06486704653371306</v>
+        <v>0.06486704653371328</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.02046764894298527</v>
+        <v>0.02046764894298526</v>
       </c>
       <c r="W42" t="n">
-        <v>-0.06486704653371306</v>
+        <v>-0.06486704653371328</v>
       </c>
       <c r="X42" t="n">
         <v>0.1073347691177467</v>
@@ -4391,7 +4391,7 @@
         <v>0.3930268199233717</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.02046764894298527</v>
+        <v>0.02046764894298526</v>
       </c>
       <c r="AA42" t="n">
         <v>0</v>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.4559621914503906</v>
+        <v>0.4559621914503904</v>
       </c>
     </row>
     <row r="43">
@@ -4456,7 +4456,7 @@
         <v>0.2810539523212045</v>
       </c>
       <c r="M43" t="n">
-        <v>0.03629054804234916</v>
+        <v>0.03629054804234921</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -4470,22 +4470,22 @@
         <v>0.01315049520463557</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.0818158048531884</v>
+        <v>-0.08181580485318829</v>
       </c>
       <c r="V43" t="n">
-        <v>0.2497488477812321</v>
+        <v>0.249748847781232</v>
       </c>
       <c r="W43" t="n">
         <v>-0.01315049520463557</v>
       </c>
       <c r="X43" t="n">
-        <v>0.03629054804234916</v>
+        <v>0.03629054804234921</v>
       </c>
       <c r="Y43" t="n">
         <v>0.2006691760769552</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.2497488477812321</v>
+        <v>0.249748847781232</v>
       </c>
       <c r="AA43" t="n">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.7037027116402117</v>
+        <v>0.7037027116402119</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -4638,13 +4638,13 @@
         <v>0.65</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2032490079365079</v>
+        <v>0.203249007936508</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03979828042328043</v>
+        <v>0.03979828042328044</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1249926345315519</v>
+        <v>0.124992634531552</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -4655,7 +4655,7 @@
         <v>44329</v>
       </c>
       <c r="T45" t="n">
-        <v>0.1831914682539681</v>
+        <v>0.1831914682539683</v>
       </c>
       <c r="U45" t="n">
         <v>-0.06095568783068787</v>
@@ -4664,13 +4664,13 @@
         <v>0.1362965767162533</v>
       </c>
       <c r="W45" t="n">
-        <v>-0.1831914682539681</v>
+        <v>-0.1831914682539683</v>
       </c>
       <c r="X45" t="n">
-        <v>0.1249926345315519</v>
+        <v>0.124992634531552</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.2032490079365079</v>
+        <v>0.203249007936508</v>
       </c>
       <c r="Z45" t="n">
         <v>0.1362965767162533</v>
@@ -4709,7 +4709,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.4062189529996178</v>
+        <v>0.4062189529996179</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -4732,13 +4732,13 @@
         <v>0.58</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1801331040631767</v>
+        <v>0.1801331040631766</v>
       </c>
       <c r="L46" t="n">
         <v>0.2391956438670233</v>
       </c>
       <c r="M46" t="n">
-        <v>0.07769006462841184</v>
+        <v>0.07769006462841202</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -4761,10 +4761,10 @@
         <v>0.04529649352166981</v>
       </c>
       <c r="X46" t="n">
-        <v>0.07769006462841184</v>
+        <v>0.07769006462841202</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.1801331040631767</v>
+        <v>0.1801331040631766</v>
       </c>
       <c r="Z46" t="n">
         <v>0.1786210030576637</v>
@@ -4803,7 +4803,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.3095448024691358</v>
+        <v>0.309544802469136</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -4826,13 +4826,13 @@
         <v>0.45</v>
       </c>
       <c r="K47" t="n">
-        <v>0.4866666666666668</v>
+        <v>0.4866666666666667</v>
       </c>
       <c r="L47" t="n">
-        <v>0.08517361111111113</v>
+        <v>0.0851736111111111</v>
       </c>
       <c r="M47" t="n">
-        <v>0.02664708512740338</v>
+        <v>0.0266470851274032</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -4843,25 +4843,25 @@
         <v>44329</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.02459532021604943</v>
+        <v>-0.02459532021604921</v>
       </c>
       <c r="U47" t="n">
-        <v>0.02862654320987656</v>
+        <v>0.02862654320987653</v>
       </c>
       <c r="V47" t="n">
-        <v>0.1069774305555556</v>
+        <v>0.1069774305555555</v>
       </c>
       <c r="W47" t="n">
-        <v>0.02459532021604943</v>
+        <v>0.02459532021604921</v>
       </c>
       <c r="X47" t="n">
-        <v>0.02664708512740338</v>
+        <v>0.0266470851274032</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.4866666666666668</v>
+        <v>0.4866666666666667</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.1069774305555556</v>
+        <v>0.1069774305555555</v>
       </c>
       <c r="AA47" t="n">
         <v>0</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.6448865025656751</v>
+        <v>0.6448865025656746</v>
       </c>
     </row>
     <row r="48">
@@ -4897,7 +4897,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.3575585052843484</v>
+        <v>0.3575585052843483</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -4920,13 +4920,13 @@
         <v>0.547</v>
       </c>
       <c r="K48" t="n">
-        <v>0.239611642341889</v>
+        <v>0.2396116423418889</v>
       </c>
       <c r="L48" t="n">
         <v>0.1731378963261198</v>
       </c>
       <c r="M48" t="n">
-        <v>0.04452647102979709</v>
+        <v>0.04452647102979707</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -4937,7 +4937,7 @@
         <v>44329</v>
       </c>
       <c r="T48" t="n">
-        <v>-0.04383897497007239</v>
+        <v>-0.0438389749700725</v>
       </c>
       <c r="U48" t="n">
         <v>0.06442460135784481</v>
@@ -4946,13 +4946,13 @@
         <v>0.1385063528296047</v>
       </c>
       <c r="W48" t="n">
-        <v>0.04383897497007239</v>
+        <v>0.0438389749700725</v>
       </c>
       <c r="X48" t="n">
-        <v>0.04452647102979709</v>
+        <v>0.04452647102979707</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.239611642341889</v>
+        <v>0.2396116423418889</v>
       </c>
       <c r="Z48" t="n">
         <v>0.1385063528296047</v>
@@ -5014,7 +5014,7 @@
         <v>0.65</v>
       </c>
       <c r="K49" t="n">
-        <v>0.485987996306556</v>
+        <v>0.4859879963065558</v>
       </c>
       <c r="L49" t="n">
         <v>0.03324099722991691</v>
@@ -5031,25 +5031,25 @@
         <v>44329</v>
       </c>
       <c r="T49" t="n">
-        <v>-0.03430322888632431</v>
+        <v>-0.03430322888632437</v>
       </c>
       <c r="U49" t="n">
-        <v>-0.3571757771860818</v>
+        <v>-0.3571757771860817</v>
       </c>
       <c r="V49" t="n">
-        <v>0.3272107698788182</v>
+        <v>0.3272107698788181</v>
       </c>
       <c r="W49" t="n">
-        <v>0.03430322888632431</v>
+        <v>0.03430322888632437</v>
       </c>
       <c r="X49" t="n">
         <v>0.1832255015031758</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.485987996306556</v>
+        <v>0.4859879963065558</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.3272107698788182</v>
+        <v>0.3272107698788181</v>
       </c>
       <c r="AA49" t="n">
         <v>0</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.5011296494288446</v>
+        <v>0.5011296494288445</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -5114,7 +5114,7 @@
         <v>0.03625335284077053</v>
       </c>
       <c r="M50" t="n">
-        <v>0.07238027850879045</v>
+        <v>0.07238027850879043</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -5125,7 +5125,7 @@
         <v>44329</v>
       </c>
       <c r="T50" t="n">
-        <v>-0.1543403273554941</v>
+        <v>-0.1543403273554942</v>
       </c>
       <c r="U50" t="n">
         <v>-0.09383596176182848</v>
@@ -5134,10 +5134,10 @@
         <v>0.152121643747321</v>
       </c>
       <c r="W50" t="n">
-        <v>0.1543403273554941</v>
+        <v>0.1543403273554942</v>
       </c>
       <c r="X50" t="n">
-        <v>0.07238027850879045</v>
+        <v>0.07238027850879043</v>
       </c>
       <c r="Y50" t="n">
         <v>0.2176420385271884</v>
@@ -5179,7 +5179,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.4039736899325941</v>
+        <v>0.403973689932594</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -5205,7 +5205,7 @@
         <v>0.1534753932014206</v>
       </c>
       <c r="L51" t="n">
-        <v>0.07306253170979199</v>
+        <v>0.07306253170979198</v>
       </c>
       <c r="M51" t="n">
         <v>0.1029486438946281</v>
@@ -5219,16 +5219,16 @@
         <v>44329</v>
       </c>
       <c r="T51" t="n">
-        <v>-0.2290631282783385</v>
+        <v>-0.2290631282783386</v>
       </c>
       <c r="U51" t="n">
-        <v>0.0640205349977908</v>
+        <v>0.06402053499779078</v>
       </c>
       <c r="V51" t="n">
-        <v>0.09830321699171635</v>
+        <v>0.09830321699171639</v>
       </c>
       <c r="W51" t="n">
-        <v>0.2290631282783385</v>
+        <v>0.2290631282783386</v>
       </c>
       <c r="X51" t="n">
         <v>0.1029486438946281</v>
@@ -5237,7 +5237,7 @@
         <v>0.1534753932014206</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.09830321699171635</v>
+        <v>0.09830321699171639</v>
       </c>
       <c r="AA51" t="n">
         <v>0</v>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.5837903823661035</v>
+        <v>0.5837903823661036</v>
       </c>
     </row>
     <row r="52">
@@ -5302,7 +5302,7 @@
         <v>0.317042211206249</v>
       </c>
       <c r="M52" t="n">
-        <v>0.08848423745961612</v>
+        <v>0.08848423745961623</v>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -5313,19 +5313,19 @@
         <v>44329</v>
       </c>
       <c r="T52" t="n">
-        <v>0.1058991613524541</v>
+        <v>0.1058991613524542</v>
       </c>
       <c r="U52" t="n">
-        <v>-0.1309395239535683</v>
+        <v>-0.1309395239535682</v>
       </c>
       <c r="V52" t="n">
         <v>0.2732094684827755</v>
       </c>
       <c r="W52" t="n">
-        <v>-0.1058991613524541</v>
+        <v>-0.1058991613524542</v>
       </c>
       <c r="X52" t="n">
-        <v>0.08848423745961612</v>
+        <v>0.08848423745961623</v>
       </c>
       <c r="Y52" t="n">
         <v>0.1336938560913324</v>
@@ -5390,13 +5390,13 @@
         <v>0.5</v>
       </c>
       <c r="K53" t="n">
-        <v>0.135050505050505</v>
+        <v>0.1350505050505051</v>
       </c>
       <c r="L53" t="n">
         <v>0.1227272727272727</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0876153759835601</v>
+        <v>0.08761537598356013</v>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -5407,22 +5407,22 @@
         <v>44329</v>
       </c>
       <c r="T53" t="n">
-        <v>0.1929061200022279</v>
+        <v>0.192906120002228</v>
       </c>
       <c r="U53" t="n">
-        <v>0.03568823758156797</v>
+        <v>0.03568823758156794</v>
       </c>
       <c r="V53" t="n">
         <v>0.1048831539364887</v>
       </c>
       <c r="W53" t="n">
-        <v>-0.1929061200022279</v>
+        <v>-0.192906120002228</v>
       </c>
       <c r="X53" t="n">
-        <v>0.0876153759835601</v>
+        <v>0.08761537598356013</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.135050505050505</v>
+        <v>0.1350505050505051</v>
       </c>
       <c r="Z53" t="n">
         <v>0.1048831539364887</v>
@@ -5461,7 +5461,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.352338512345679</v>
+        <v>0.3523385123456789</v>
       </c>
       <c r="E54" t="n">
         <v>17</v>
@@ -5484,13 +5484,13 @@
         <v>0.45</v>
       </c>
       <c r="K54" t="n">
-        <v>0.4913097993827157</v>
+        <v>0.491309799382716</v>
       </c>
       <c r="L54" t="n">
         <v>0.07282793209876544</v>
       </c>
       <c r="M54" t="n">
-        <v>0.02265013230368238</v>
+        <v>0.02265013230368225</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -5501,25 +5501,25 @@
         <v>44329</v>
       </c>
       <c r="T54" t="n">
-        <v>0.04279370987654318</v>
+        <v>0.04279370987654291</v>
       </c>
       <c r="U54" t="n">
-        <v>-0.01234567901234569</v>
+        <v>-0.01234567901234566</v>
       </c>
       <c r="V54" t="n">
-        <v>0.07894502314814816</v>
+        <v>0.07894502314814815</v>
       </c>
       <c r="W54" t="n">
-        <v>-0.04279370987654318</v>
+        <v>-0.04279370987654291</v>
       </c>
       <c r="X54" t="n">
-        <v>0.02265013230368238</v>
+        <v>0.02265013230368225</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.4913097993827157</v>
+        <v>0.491309799382716</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.07894502314814816</v>
+        <v>0.07894502314814815</v>
       </c>
       <c r="AA54" t="n">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.550111244958003</v>
+        <v>0.5501112449580035</v>
       </c>
     </row>
     <row r="55">
@@ -5555,7 +5555,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.4182284569138276</v>
+        <v>0.4182284569138274</v>
       </c>
       <c r="E55" t="n">
         <v>17</v>
@@ -5578,13 +5578,13 @@
         <v>0.47</v>
       </c>
       <c r="K55" t="n">
-        <v>0.514876419505678</v>
+        <v>0.5148764195056782</v>
       </c>
       <c r="L55" t="n">
         <v>0.01903807615230461</v>
       </c>
       <c r="M55" t="n">
-        <v>0.06811129210082734</v>
+        <v>0.06811129210082739</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -5595,7 +5595,7 @@
         <v>44329</v>
       </c>
       <c r="T55" t="n">
-        <v>0.04567803674576049</v>
+        <v>0.04567803674576026</v>
       </c>
       <c r="U55" t="n">
         <v>-0.003175392568517049</v>
@@ -5604,13 +5604,13 @@
         <v>0.03108329952315572</v>
       </c>
       <c r="W55" t="n">
-        <v>-0.04567803674576049</v>
+        <v>-0.04567803674576026</v>
       </c>
       <c r="X55" t="n">
-        <v>0.06811129210082734</v>
+        <v>0.06811129210082739</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.514876419505678</v>
+        <v>0.5148764195056782</v>
       </c>
       <c r="Z55" t="n">
         <v>0.03108329952315572</v>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.5683929743839006</v>
+        <v>0.568392974383901</v>
       </c>
     </row>
     <row r="56">
@@ -5675,10 +5675,10 @@
         <v>0.2806377204884667</v>
       </c>
       <c r="L56" t="n">
-        <v>0.06326096788783356</v>
+        <v>0.06326096788783357</v>
       </c>
       <c r="M56" t="n">
-        <v>0.08525291378827354</v>
+        <v>0.08525291378827357</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -5692,22 +5692,22 @@
         <v>-0.1368475802804161</v>
       </c>
       <c r="U56" t="n">
-        <v>-0.05946630483943914</v>
+        <v>-0.05946630483943913</v>
       </c>
       <c r="V56" t="n">
-        <v>0.09100909192027033</v>
+        <v>0.09100909192027035</v>
       </c>
       <c r="W56" t="n">
         <v>0.1368475802804161</v>
       </c>
       <c r="X56" t="n">
-        <v>0.08525291378827354</v>
+        <v>0.08525291378827357</v>
       </c>
       <c r="Y56" t="n">
         <v>0.2806377204884667</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.09100909192027033</v>
+        <v>0.09100909192027035</v>
       </c>
       <c r="AA56" t="n">
         <v>0</v>
@@ -5725,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.5937473064774267</v>
+        <v>0.5937473064774268</v>
       </c>
     </row>
     <row r="57">
@@ -5743,7 +5743,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.5215340493885035</v>
+        <v>0.5215340493885036</v>
       </c>
       <c r="E57" t="n">
         <v>17</v>
@@ -5772,7 +5772,7 @@
         <v>0.1585230328015773</v>
       </c>
       <c r="M57" t="n">
-        <v>0.07193365383686227</v>
+        <v>0.0719336538368622</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -5783,7 +5783,7 @@
         <v>44329</v>
       </c>
       <c r="T57" t="n">
-        <v>0.02040439995965881</v>
+        <v>0.02040439995965904</v>
       </c>
       <c r="U57" t="n">
         <v>0.1222696799608068</v>
@@ -5792,10 +5792,10 @@
         <v>0.1729550841886844</v>
       </c>
       <c r="W57" t="n">
-        <v>-0.02040439995965881</v>
+        <v>-0.02040439995965904</v>
       </c>
       <c r="X57" t="n">
-        <v>0.07193365383686227</v>
+        <v>0.0719336538368622</v>
       </c>
       <c r="Y57" t="n">
         <v>0.203961283384119</v>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.4284456214500069</v>
+        <v>0.4284456214500066</v>
       </c>
     </row>
     <row r="58">
@@ -5837,7 +5837,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.4039736899325941</v>
+        <v>0.403973689932594</v>
       </c>
       <c r="E58" t="n">
         <v>17</v>
@@ -5860,7 +5860,7 @@
         <v>0.53</v>
       </c>
       <c r="K58" t="n">
-        <v>0.514876419505678</v>
+        <v>0.5148764195056782</v>
       </c>
       <c r="L58" t="n">
         <v>0.2358893461362597</v>
@@ -5883,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>0.07146899624991522</v>
+        <v>0.07146899624991525</v>
       </c>
       <c r="W58" t="n">
         <v>-0</v>
@@ -5892,10 +5892,10 @@
         <v>0.109663326365964</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.514876419505678</v>
+        <v>0.5148764195056782</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.07146899624991522</v>
+        <v>0.07146899624991525</v>
       </c>
       <c r="AA58" t="n">
         <v>0</v>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="AF58" t="n">
-        <v>0.6960087421215572</v>
+        <v>0.6960087421215574</v>
       </c>
     </row>
     <row r="59">
@@ -5931,7 +5931,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.4800136467329314</v>
+        <v>0.4800136467329315</v>
       </c>
       <c r="E59" t="n">
         <v>17</v>
@@ -5954,13 +5954,13 @@
         <v>0.547</v>
       </c>
       <c r="K59" t="n">
-        <v>0.141735918744229</v>
+        <v>0.1417359187442291</v>
       </c>
       <c r="L59" t="n">
         <v>0.1684373472380643</v>
       </c>
       <c r="M59" t="n">
-        <v>0.05067043421060894</v>
+        <v>0.05067043421060903</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -5971,7 +5971,7 @@
         <v>44329</v>
       </c>
       <c r="T59" t="n">
-        <v>0.122455141448583</v>
+        <v>0.1224551414485832</v>
       </c>
       <c r="U59" t="n">
         <v>-0.004700549088055506</v>
@@ -5980,13 +5980,13 @@
         <v>0.1470478151328917</v>
       </c>
       <c r="W59" t="n">
-        <v>-0.122455141448583</v>
+        <v>-0.1224551414485832</v>
       </c>
       <c r="X59" t="n">
-        <v>0.05067043421060894</v>
+        <v>0.05067043421060903</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.141735918744229</v>
+        <v>0.1417359187442291</v>
       </c>
       <c r="Z59" t="n">
         <v>0.1470478151328917</v>
@@ -6071,7 +6071,7 @@
         <v>-0.08115286506998928</v>
       </c>
       <c r="V60" t="n">
-        <v>0.2990179861939492</v>
+        <v>0.2990179861939491</v>
       </c>
       <c r="W60" t="n">
         <v>-0.1430509006578058</v>
@@ -6083,7 +6083,7 @@
         <v>0.1524096936442616</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.2990179861939492</v>
+        <v>0.2990179861939491</v>
       </c>
       <c r="AA60" t="n">
         <v>0</v>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="AF60" t="n">
-        <v>0.412412470069444</v>
+        <v>0.4124124700694439</v>
       </c>
     </row>
     <row r="61">
@@ -6236,7 +6236,7 @@
         <v>0.65</v>
       </c>
       <c r="K62" t="n">
-        <v>0.514876419505678</v>
+        <v>0.5148764195056782</v>
       </c>
       <c r="L62" t="n">
         <v>0.2358893461362597</v>
@@ -6261,13 +6261,13 @@
         <v>-0</v>
       </c>
       <c r="X62" t="n">
-        <v>0.09771566029731378</v>
+        <v>0.09764296339203357</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.514876419505678</v>
+        <v>0.5148764195056782</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.146100904885388</v>
+        <v>0.1460072259917737</v>
       </c>
       <c r="AA62" t="n">
         <v>0</v>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="AF62" t="n">
-        <v>0.7586929846883799</v>
+        <v>0.7585266088894855</v>
       </c>
     </row>
     <row r="63">
@@ -6332,7 +6332,7 @@
         <v>0.1098765432098766</v>
       </c>
       <c r="M63" t="n">
-        <v>0.07779071197639162</v>
+        <v>0.07779071197639165</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -6355,7 +6355,7 @@
         <v>-0.1061399982661376</v>
       </c>
       <c r="X63" t="n">
-        <v>0.07779071197639162</v>
+        <v>0.07779071197639165</v>
       </c>
       <c r="Y63" t="n">
         <v>0.1798738298738299</v>
@@ -6397,7 +6397,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.7076425264550267</v>
+        <v>0.7076425264550266</v>
       </c>
       <c r="E64" t="n">
         <v>17</v>
@@ -6426,7 +6426,7 @@
         <v>0.04218088624338624</v>
       </c>
       <c r="M64" t="n">
-        <v>0.1391193240332889</v>
+        <v>0.139119324033289</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -6437,19 +6437,19 @@
         <v>44329</v>
       </c>
       <c r="T64" t="n">
-        <v>0.003939814814814979</v>
+        <v>0.003939814814814646</v>
       </c>
       <c r="U64" t="n">
-        <v>0.002382605820105813</v>
+        <v>0.002382605820105806</v>
       </c>
       <c r="V64" t="n">
         <v>0.1380508756580522</v>
       </c>
       <c r="W64" t="n">
-        <v>-0.003939814814814979</v>
+        <v>-0.003939814814814646</v>
       </c>
       <c r="X64" t="n">
-        <v>0.1391193240332889</v>
+        <v>0.139119324033289</v>
       </c>
       <c r="Y64" t="n">
         <v>0.1948181216931218</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="AF64" t="n">
-        <v>0.4680485065696479</v>
+        <v>0.4680485065696484</v>
       </c>
     </row>
     <row r="65">
@@ -6520,7 +6520,7 @@
         <v>0.02918981481481482</v>
       </c>
       <c r="M65" t="n">
-        <v>0.07960372841890268</v>
+        <v>0.0796037284189027</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -6543,7 +6543,7 @@
         <v>-0.1779165764374387</v>
       </c>
       <c r="X65" t="n">
-        <v>0.07960372841890268</v>
+        <v>0.0796037284189027</v>
       </c>
       <c r="Y65" t="n">
         <v>0.3115112433862435</v>
@@ -6585,7 +6585,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.579026191009558</v>
+        <v>0.5790261910095581</v>
       </c>
       <c r="E66" t="n">
         <v>17</v>
@@ -6608,13 +6608,13 @@
         <v>0.65</v>
       </c>
       <c r="K66" t="n">
-        <v>0.1471180555555555</v>
+        <v>0.1471180555555556</v>
       </c>
       <c r="L66" t="n">
-        <v>0.1934375</v>
+        <v>0.1934375000000001</v>
       </c>
       <c r="M66" t="n">
-        <v>0.2965545844912096</v>
+        <v>0.2965545844912097</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -6625,25 +6625,25 @@
         <v>44329</v>
       </c>
       <c r="T66" t="n">
-        <v>0.579026191009558</v>
+        <v>0.5790261910095581</v>
       </c>
       <c r="U66" t="n">
-        <v>-0.8065625</v>
+        <v>-0.8065624999999998</v>
       </c>
       <c r="V66" t="n">
-        <v>0.59671875</v>
+        <v>0.5967187500000001</v>
       </c>
       <c r="W66" t="n">
-        <v>-0.579026191009558</v>
+        <v>-0.5790261910095581</v>
       </c>
       <c r="X66" t="n">
-        <v>0.2965545844912096</v>
+        <v>0.2965545844912097</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.1471180555555555</v>
+        <v>0.1471180555555556</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.59671875</v>
+        <v>0.5967187500000001</v>
       </c>
       <c r="AA66" t="n">
         <v>0</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="AF66" t="n">
-        <v>0.4613651990372071</v>
+        <v>0.4613651990372073</v>
       </c>
     </row>
     <row r="67">
@@ -6729,7 +6729,7 @@
         <v>0.4278544696362875</v>
       </c>
       <c r="X67" t="n">
-        <v>0.09771566029731378</v>
+        <v>0.09764296339203357</v>
       </c>
       <c r="Y67" t="n">
         <v>0</v>
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="AF67" t="n">
-        <v>0.5255701299336013</v>
+        <v>0.5254974330283211</v>
       </c>
     </row>
     <row r="68">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.5331196581196581</v>
+        <v>0.533119658119658</v>
       </c>
       <c r="E68" t="n">
         <v>17</v>
@@ -6797,10 +6797,10 @@
         <v>0.1640400250156347</v>
       </c>
       <c r="L68" t="n">
-        <v>0.1113430268918074</v>
+        <v>0.1113430268918073</v>
       </c>
       <c r="M68" t="n">
-        <v>0.0546072617146971</v>
+        <v>0.05460726171469702</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -6811,19 +6811,19 @@
         <v>44329</v>
       </c>
       <c r="T68" t="n">
-        <v>0.1269007051200403</v>
+        <v>0.1269007051200401</v>
       </c>
       <c r="U68" t="n">
-        <v>-0.1278526169752159</v>
+        <v>-0.127852616975216</v>
       </c>
       <c r="V68" t="n">
         <v>0.1887477320028378</v>
       </c>
       <c r="W68" t="n">
-        <v>-0.1269007051200403</v>
+        <v>-0.1269007051200401</v>
       </c>
       <c r="X68" t="n">
-        <v>0.0546072617146971</v>
+        <v>0.05460726171469702</v>
       </c>
       <c r="Y68" t="n">
         <v>0.1640400250156347</v>
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="AF68" t="n">
-        <v>0.2804943136131293</v>
+        <v>0.2804943136131294</v>
       </c>
     </row>
     <row r="69">
@@ -6865,7 +6865,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.5404589958907046</v>
+        <v>0.5404589958907045</v>
       </c>
       <c r="E69" t="n">
         <v>18</v>
@@ -6888,10 +6888,10 @@
         <v>0.53</v>
       </c>
       <c r="K69" t="n">
-        <v>0.123270921362121</v>
+        <v>0.1232709213621209</v>
       </c>
       <c r="L69" t="n">
-        <v>0.05125571842031555</v>
+        <v>0.05125571842031556</v>
       </c>
       <c r="M69" t="n">
         <v>0.1120888650966392</v>
@@ -6915,7 +6915,7 @@
         <v>44329</v>
       </c>
       <c r="T69" t="n">
-        <v>0.1364853059581105</v>
+        <v>0.1364853059581104</v>
       </c>
       <c r="U69" t="n">
         <v>0</v>
@@ -6924,13 +6924,13 @@
         <v>0.04445341561403624</v>
       </c>
       <c r="W69" t="n">
-        <v>-0.1364853059581105</v>
+        <v>-0.1364853059581104</v>
       </c>
       <c r="X69" t="n">
         <v>0.1120888650966392</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.123270921362121</v>
+        <v>0.1232709213621209</v>
       </c>
       <c r="Z69" t="n">
         <v>0.04445341561403624</v>
@@ -6969,7 +6969,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.4283316651234568</v>
+        <v>0.4283316651234569</v>
       </c>
       <c r="E70" t="n">
         <v>18</v>
@@ -6992,13 +6992,13 @@
         <v>0.45</v>
       </c>
       <c r="K70" t="n">
-        <v>0.3994347993827164</v>
+        <v>0.3994347993827162</v>
       </c>
       <c r="L70" t="n">
         <v>0.1002546296296296</v>
       </c>
       <c r="M70" t="n">
-        <v>0.05125486760870201</v>
+        <v>0.05125486760870197</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>44329</v>
       </c>
       <c r="T70" t="n">
-        <v>0.07599315277777779</v>
+        <v>0.07599315277777796</v>
       </c>
       <c r="U70" t="n">
         <v>0.02742669753086416</v>
@@ -7028,13 +7028,13 @@
         <v>0.07870081018518518</v>
       </c>
       <c r="W70" t="n">
-        <v>-0.07599315277777779</v>
+        <v>-0.07599315277777796</v>
       </c>
       <c r="X70" t="n">
-        <v>0.05125486760870201</v>
+        <v>0.05125486760870197</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.3994347993827164</v>
+        <v>0.3994347993827162</v>
       </c>
       <c r="Z70" t="n">
         <v>0.07870081018518518</v>
@@ -7055,7 +7055,7 @@
         <v>-0</v>
       </c>
       <c r="AF70" t="n">
-        <v>0.4533973243988259</v>
+        <v>0.4533973243988254</v>
       </c>
     </row>
     <row r="71">
@@ -7073,7 +7073,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.5558484282349119</v>
+        <v>0.5558484282349118</v>
       </c>
       <c r="E71" t="n">
         <v>18</v>
@@ -7096,13 +7096,13 @@
         <v>0.65</v>
       </c>
       <c r="K71" t="n">
-        <v>0.1483515194180453</v>
+        <v>0.1483515194180452</v>
       </c>
       <c r="L71" t="n">
         <v>0.1437082013375572</v>
       </c>
       <c r="M71" t="n">
-        <v>0.06847881857329149</v>
+        <v>0.06847881857329144</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -7123,7 +7123,7 @@
         <v>44329</v>
       </c>
       <c r="T71" t="n">
-        <v>0.03431437884640842</v>
+        <v>0.0343143788464082</v>
       </c>
       <c r="U71" t="n">
         <v>-0.0148148314640201</v>
@@ -7132,13 +7132,13 @@
         <v>0.117143475395626</v>
       </c>
       <c r="W71" t="n">
-        <v>-0.03431437884640842</v>
+        <v>-0.0343143788464082</v>
       </c>
       <c r="X71" t="n">
-        <v>0.06847881857329149</v>
+        <v>0.06847881857329144</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.1483515194180453</v>
+        <v>0.1483515194180452</v>
       </c>
       <c r="Z71" t="n">
         <v>0.117143475395626</v>
@@ -7177,7 +7177,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.7358272054388357</v>
+        <v>0.7358272054388361</v>
       </c>
       <c r="E72" t="n">
         <v>18</v>
@@ -7200,13 +7200,13 @@
         <v>0.65</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2612185372941471</v>
+        <v>0.261218537294147</v>
       </c>
       <c r="L72" t="n">
-        <v>0.04231665241367108</v>
+        <v>0.04231665241367109</v>
       </c>
       <c r="M72" t="n">
-        <v>0.101555861331539</v>
+        <v>0.1015558613315392</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -7227,25 +7227,25 @@
         <v>44329</v>
       </c>
       <c r="T72" t="n">
-        <v>0.1436216764335437</v>
+        <v>0.1436216764335441</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
       </c>
       <c r="V72" t="n">
-        <v>0.04231665241367108</v>
+        <v>0.04231665241367109</v>
       </c>
       <c r="W72" t="n">
-        <v>-0.1436216764335437</v>
+        <v>-0.1436216764335441</v>
       </c>
       <c r="X72" t="n">
-        <v>0.101555861331539</v>
+        <v>0.1015558613315392</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.2612185372941471</v>
+        <v>0.261218537294147</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.04231665241367108</v>
+        <v>0.04231665241367109</v>
       </c>
       <c r="AA72" t="n">
         <v>-0</v>
@@ -7263,7 +7263,7 @@
         <v>-0</v>
       </c>
       <c r="AF72" t="n">
-        <v>0.2614693746058134</v>
+        <v>0.2614693746058132</v>
       </c>
     </row>
     <row r="73">
@@ -7310,7 +7310,7 @@
         <v>0.1443676395289298</v>
       </c>
       <c r="M73" t="n">
-        <v>0.06386743590384907</v>
+        <v>0.06386743590384913</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>44329</v>
       </c>
       <c r="T73" t="n">
-        <v>0.01076176289328468</v>
+        <v>0.01076176289328457</v>
       </c>
       <c r="U73" t="n">
         <v>-0.0240697077091345</v>
@@ -7340,10 +7340,10 @@
         <v>0.1486640445153472</v>
       </c>
       <c r="W73" t="n">
-        <v>-0.01076176289328468</v>
+        <v>-0.01076176289328457</v>
       </c>
       <c r="X73" t="n">
-        <v>0.06386743590384907</v>
+        <v>0.06386743590384913</v>
       </c>
       <c r="Y73" t="n">
         <v>0.143958013312852</v>
@@ -7408,13 +7408,13 @@
         <v>0.53</v>
       </c>
       <c r="K74" t="n">
-        <v>0.4485042735042736</v>
+        <v>0.4485042735042734</v>
       </c>
       <c r="L74" t="n">
         <v>0.005538461538461539</v>
       </c>
       <c r="M74" t="n">
-        <v>0.03777559161887001</v>
+        <v>0.03777559161887017</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -7447,10 +7447,10 @@
         <v>-0.02682807741428439</v>
       </c>
       <c r="X74" t="n">
-        <v>0.03777559161887001</v>
+        <v>0.03777559161887017</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.4485042735042736</v>
+        <v>0.4485042735042734</v>
       </c>
       <c r="Z74" t="n">
         <v>0.001384615384615385</v>
@@ -7593,7 +7593,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.3560172143974962</v>
+        <v>0.3560172143974961</v>
       </c>
       <c r="E76" t="n">
         <v>18</v>
@@ -7619,7 +7619,7 @@
         <v>0.1076056338028169</v>
       </c>
       <c r="L76" t="n">
-        <v>0.3413615023474179</v>
+        <v>0.3413615023474178</v>
       </c>
       <c r="M76" t="n">
         <v>0.1050155353260894</v>
@@ -7643,16 +7643,16 @@
         <v>44329</v>
       </c>
       <c r="T76" t="n">
-        <v>-0.08077805309221581</v>
+        <v>-0.08077805309221586</v>
       </c>
       <c r="U76" t="n">
-        <v>0.1054721562111582</v>
+        <v>0.1054721562111581</v>
       </c>
       <c r="V76" t="n">
-        <v>0.335568698712436</v>
+        <v>0.3355686987124359</v>
       </c>
       <c r="W76" t="n">
-        <v>0.08077805309221581</v>
+        <v>0.08077805309221586</v>
       </c>
       <c r="X76" t="n">
         <v>0.1050155353260894</v>
@@ -7661,7 +7661,7 @@
         <v>0.1076056338028169</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.335568698712436</v>
+        <v>0.3355686987124359</v>
       </c>
       <c r="AA76" t="n">
         <v>-0</v>
@@ -7720,13 +7720,13 @@
         <v>0.65</v>
       </c>
       <c r="K77" t="n">
-        <v>0.2771329365079367</v>
+        <v>0.2771329365079365</v>
       </c>
       <c r="L77" t="n">
-        <v>0.06070271164021166</v>
+        <v>0.06070271164021165</v>
       </c>
       <c r="M77" t="n">
-        <v>0.09207770403425693</v>
+        <v>0.09207770403425694</v>
       </c>
       <c r="N77" t="n">
         <v>80</v>
@@ -7747,22 +7747,22 @@
         <v>44329</v>
       </c>
       <c r="T77" t="n">
-        <v>-0.1222356150793651</v>
+        <v>-0.122235615079365</v>
       </c>
       <c r="U77" t="n">
-        <v>0.01852182539682542</v>
+        <v>0.0185218253968254</v>
       </c>
       <c r="V77" t="n">
         <v>0.06085896164021166</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1222356150793651</v>
+        <v>0.122235615079365</v>
       </c>
       <c r="X77" t="n">
-        <v>0.09207770403425693</v>
+        <v>0.09207770403425694</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.2771329365079367</v>
+        <v>0.2771329365079365</v>
       </c>
       <c r="Z77" t="n">
         <v>0.06085896164021166</v>
@@ -7801,7 +7801,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.5077650136607696</v>
+        <v>0.5077650136607699</v>
       </c>
       <c r="E78" t="n">
         <v>18</v>
@@ -7830,7 +7830,7 @@
         <v>0.2235213139656318</v>
       </c>
       <c r="M78" t="n">
-        <v>0.05346232706830841</v>
+        <v>0.05346232706830834</v>
       </c>
       <c r="N78" t="n">
         <v>64</v>
@@ -7851,25 +7851,25 @@
         <v>44329</v>
       </c>
       <c r="T78" t="n">
-        <v>-0.07019365318678616</v>
+        <v>-0.07019365318678594</v>
       </c>
       <c r="U78" t="n">
         <v>0.1136447707557552</v>
       </c>
       <c r="V78" t="n">
-        <v>0.2443303916677765</v>
+        <v>0.2443303916677764</v>
       </c>
       <c r="W78" t="n">
-        <v>0.07019365318678616</v>
+        <v>0.07019365318678594</v>
       </c>
       <c r="X78" t="n">
-        <v>0.05346232706830841</v>
+        <v>0.05346232706830834</v>
       </c>
       <c r="Y78" t="n">
         <v>0.163927655938479</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.2443303916677765</v>
+        <v>0.2443303916677764</v>
       </c>
       <c r="AA78" t="n">
         <v>-6.4</v>
@@ -7905,7 +7905,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.4436114016736403</v>
+        <v>0.4436114016736401</v>
       </c>
       <c r="E79" t="n">
         <v>18</v>
@@ -7928,13 +7928,13 @@
         <v>0.5</v>
       </c>
       <c r="K79" t="n">
-        <v>0.3028823802882381</v>
+        <v>0.3028823802882379</v>
       </c>
       <c r="L79" t="n">
         <v>0.0892933519293352</v>
       </c>
       <c r="M79" t="n">
-        <v>0.09246850593284107</v>
+        <v>0.09246850593284117</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -7955,25 +7955,25 @@
         <v>44329</v>
       </c>
       <c r="T79" t="n">
-        <v>-0.06219253319745865</v>
+        <v>-0.06219253319745888</v>
       </c>
       <c r="U79" t="n">
-        <v>0.02603238404150164</v>
+        <v>0.02603238404150163</v>
       </c>
       <c r="V79" t="n">
-        <v>0.09058015692253654</v>
+        <v>0.09058015692253656</v>
       </c>
       <c r="W79" t="n">
-        <v>0.06219253319745865</v>
+        <v>0.06219253319745888</v>
       </c>
       <c r="X79" t="n">
-        <v>0.09246850593284107</v>
+        <v>0.09246850593284117</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.3028823802882381</v>
+        <v>0.3028823802882379</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.09058015692253654</v>
+        <v>0.09058015692253656</v>
       </c>
       <c r="AA79" t="n">
         <v>-0</v>
@@ -7991,7 +7991,7 @@
         <v>-0</v>
       </c>
       <c r="AF79" t="n">
-        <v>0.5481235763410743</v>
+        <v>0.5481235763410744</v>
       </c>
     </row>
     <row r="80">
@@ -8009,7 +8009,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.5626956018518519</v>
+        <v>0.5626956018518521</v>
       </c>
       <c r="E80" t="n">
         <v>18</v>
@@ -8032,13 +8032,13 @@
         <v>0.65</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2278984788359788</v>
+        <v>0.2278984788359789</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03733134920634921</v>
+        <v>0.03733134920634922</v>
       </c>
       <c r="M80" t="n">
-        <v>0.1039571665081141</v>
+        <v>0.1039571665081142</v>
       </c>
       <c r="N80" t="n">
         <v>80</v>
@@ -8059,22 +8059,22 @@
         <v>44329</v>
       </c>
       <c r="T80" t="n">
-        <v>0.0323591269841268</v>
+        <v>0.03235912698412702</v>
       </c>
       <c r="U80" t="n">
-        <v>0.008141534391534387</v>
+        <v>0.008141534391534401</v>
       </c>
       <c r="V80" t="n">
         <v>0.1225447339167699</v>
       </c>
       <c r="W80" t="n">
-        <v>-0.0323591269841268</v>
+        <v>-0.03235912698412702</v>
       </c>
       <c r="X80" t="n">
-        <v>0.1039571665081141</v>
+        <v>0.1039571665081142</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.2278984788359788</v>
+        <v>0.2278984788359789</v>
       </c>
       <c r="Z80" t="n">
         <v>0.1225447339167699</v>
@@ -8113,7 +8113,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.7691724333355986</v>
+        <v>0.7691724333355987</v>
       </c>
       <c r="E81" t="n">
         <v>18</v>
@@ -8139,7 +8139,7 @@
         <v>0.160798535557628</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04593479086795843</v>
+        <v>0.04593479086795842</v>
       </c>
       <c r="M81" t="n">
         <v>0.3356356911669067</v>
@@ -8166,7 +8166,7 @@
         <v>0.1901462423260406</v>
       </c>
       <c r="U81" t="n">
-        <v>-0.1475027091320416</v>
+        <v>-0.1475027091320417</v>
       </c>
       <c r="V81" t="n">
         <v>0.4131240969559862</v>
@@ -8217,7 +8217,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.5091411000552791</v>
+        <v>0.5091411000552792</v>
       </c>
       <c r="E82" t="n">
         <v>18</v>
@@ -8240,13 +8240,13 @@
         <v>0.58</v>
       </c>
       <c r="K82" t="n">
-        <v>0.1629850746268657</v>
+        <v>0.1629850746268658</v>
       </c>
       <c r="L82" t="n">
         <v>0.1974709784411277</v>
       </c>
       <c r="M82" t="n">
-        <v>0.05723013788099136</v>
+        <v>0.05723013788099131</v>
       </c>
       <c r="N82" t="n">
         <v>64</v>
@@ -8267,22 +8267,22 @@
         <v>44329</v>
       </c>
       <c r="T82" t="n">
-        <v>-0.02397855806437899</v>
+        <v>-0.02397855806437876</v>
       </c>
       <c r="U82" t="n">
-        <v>0.08612795154932031</v>
+        <v>0.0861279515493204</v>
       </c>
       <c r="V82" t="n">
         <v>0.1901671643768328</v>
       </c>
       <c r="W82" t="n">
-        <v>0.02397855806437899</v>
+        <v>0.02397855806437876</v>
       </c>
       <c r="X82" t="n">
-        <v>0.05723013788099136</v>
+        <v>0.05723013788099131</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.1629850746268657</v>
+        <v>0.1629850746268658</v>
       </c>
       <c r="Z82" t="n">
         <v>0.1901671643768328</v>
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.4896932934643317</v>
+        <v>0.4896932934643315</v>
       </c>
       <c r="E83" t="n">
         <v>18</v>
@@ -8344,13 +8344,13 @@
         <v>0.47</v>
       </c>
       <c r="K83" t="n">
-        <v>0.4495087569414781</v>
+        <v>0.4495087569414782</v>
       </c>
       <c r="L83" t="n">
         <v>0.01693364658977645</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0488795540052982</v>
+        <v>0.04887955400529807</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -8383,10 +8383,10 @@
         <v>-0.07146483655050412</v>
       </c>
       <c r="X83" t="n">
-        <v>0.0488795540052982</v>
+        <v>0.04887955400529807</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.4495087569414781</v>
+        <v>0.4495087569414782</v>
       </c>
       <c r="Z83" t="n">
         <v>0.02938702036162059</v>
@@ -8465,16 +8465,16 @@
         <v>44357</v>
       </c>
       <c r="T84" t="n">
-        <v>-0.5404589958907046</v>
+        <v>-0.5404589958907045</v>
       </c>
       <c r="U84" t="n">
-        <v>-0.05125571842031555</v>
+        <v>-0.05125571842031556</v>
       </c>
       <c r="V84" t="n">
-        <v>0.04143941671003585</v>
+        <v>0.04143941671003584</v>
       </c>
       <c r="W84" t="n">
-        <v>0.5404589958907046</v>
+        <v>0.5404589958907045</v>
       </c>
       <c r="X84" t="n">
         <v>0.2337630367201756</v>
@@ -8483,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.04143941671003585</v>
+        <v>0.04143941671003584</v>
       </c>
       <c r="AA84" t="n">
         <v>0</v>
@@ -8501,7 +8501,7 @@
         <v>0</v>
       </c>
       <c r="AF84" t="n">
-        <v>0.815661449320916</v>
+        <v>0.8156614493209159</v>
       </c>
     </row>
     <row r="85">
@@ -8519,7 +8519,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.4792759909999337</v>
+        <v>0.4792759909999338</v>
       </c>
       <c r="E85" t="n">
         <v>19</v>
@@ -8542,13 +8542,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="K85" t="n">
-        <v>0.1969140030441399</v>
+        <v>0.19691400304414</v>
       </c>
       <c r="L85" t="n">
         <v>0.2337709284627092</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0483825850956696</v>
+        <v>0.04838258509566947</v>
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -8559,7 +8559,7 @@
         <v>44357</v>
       </c>
       <c r="T85" t="n">
-        <v>-0.02848902266083597</v>
+        <v>-0.02848902266083608</v>
       </c>
       <c r="U85" t="n">
         <v>0.0102496144970774</v>
@@ -8568,13 +8568,13 @@
         <v>0.2120556844898555</v>
       </c>
       <c r="W85" t="n">
-        <v>0.02848902266083597</v>
+        <v>0.02848902266083608</v>
       </c>
       <c r="X85" t="n">
-        <v>0.0483825850956696</v>
+        <v>0.04838258509566947</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.1969140030441399</v>
+        <v>0.19691400304414</v>
       </c>
       <c r="Z85" t="n">
         <v>0.2120556844898555</v>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="AF85" t="n">
-        <v>0.485841295290501</v>
+        <v>0.4858412952905011</v>
       </c>
     </row>
     <row r="86">
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.3237245179063361</v>
+        <v>0.323724517906336</v>
       </c>
       <c r="E86" t="n">
         <v>19</v>
@@ -8636,7 +8636,7 @@
         <v>0.478</v>
       </c>
       <c r="K86" t="n">
-        <v>0.08951331496786041</v>
+        <v>0.08951331496786039</v>
       </c>
       <c r="L86" t="n">
         <v>0.3888705234159778</v>
@@ -8653,22 +8653,22 @@
         <v>44357</v>
       </c>
       <c r="T86" t="n">
-        <v>-0.03229269649116007</v>
+        <v>-0.03229269649116012</v>
       </c>
       <c r="U86" t="n">
-        <v>0.04750902106855986</v>
+        <v>0.04750902106855998</v>
       </c>
       <c r="V86" t="n">
         <v>0.3207908957764761</v>
       </c>
       <c r="W86" t="n">
-        <v>0.03229269649116007</v>
+        <v>0.03229269649116012</v>
       </c>
       <c r="X86" t="n">
         <v>0.06163953256688427</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.08951331496786041</v>
+        <v>0.08951331496786039</v>
       </c>
       <c r="Z86" t="n">
         <v>0.3207908957764761</v>
@@ -8730,13 +8730,13 @@
         <v>0.47</v>
       </c>
       <c r="K87" t="n">
-        <v>0.4790491883315026</v>
+        <v>0.4790491883315022</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0.048225157949768</v>
+        <v>0.04822515794976791</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -8747,7 +8747,7 @@
         <v>44357</v>
       </c>
       <c r="T87" t="n">
-        <v>-0.06030156882134369</v>
+        <v>-0.06030156882134347</v>
       </c>
       <c r="U87" t="n">
         <v>-0.01693364658977645</v>
@@ -8756,13 +8756,13 @@
         <v>0.01454629786572568</v>
       </c>
       <c r="W87" t="n">
-        <v>0.06030156882134369</v>
+        <v>0.06030156882134347</v>
       </c>
       <c r="X87" t="n">
-        <v>0.048225157949768</v>
+        <v>0.04822515794976791</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.4790491883315026</v>
+        <v>0.4790491883315022</v>
       </c>
       <c r="Z87" t="n">
         <v>0.01454629786572568</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="AF87" t="n">
-        <v>0.60212221296834</v>
+        <v>0.6021222129683392</v>
       </c>
     </row>
     <row r="88">
@@ -8824,13 +8824,13 @@
         <v>0.65</v>
       </c>
       <c r="K88" t="n">
-        <v>0.2321970624235008</v>
+        <v>0.2321970624235006</v>
       </c>
       <c r="L88" t="n">
-        <v>0.02561607507139943</v>
+        <v>0.02561607507139944</v>
       </c>
       <c r="M88" t="n">
-        <v>0.09657674205488476</v>
+        <v>0.09657674205488494</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -8841,25 +8841,25 @@
         <v>44357</v>
       </c>
       <c r="T88" t="n">
-        <v>-0.1836625787558492</v>
+        <v>-0.1836625787558496</v>
       </c>
       <c r="U88" t="n">
         <v>-0.01670057734227165</v>
       </c>
       <c r="V88" t="n">
-        <v>0.03396636374253525</v>
+        <v>0.03396636374253526</v>
       </c>
       <c r="W88" t="n">
-        <v>0.1836625787558492</v>
+        <v>0.1836625787558496</v>
       </c>
       <c r="X88" t="n">
-        <v>0.09657674205488476</v>
+        <v>0.09657674205488494</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.2321970624235008</v>
+        <v>0.2321970624235006</v>
       </c>
       <c r="Z88" t="n">
-        <v>0.03396636374253525</v>
+        <v>0.03396636374253526</v>
       </c>
       <c r="AA88" t="n">
         <v>0</v>
@@ -8877,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="AF88" t="n">
-        <v>0.54640274697677</v>
+        <v>0.5464027469767704</v>
       </c>
     </row>
     <row r="89">
@@ -8918,10 +8918,10 @@
         <v>0.53</v>
       </c>
       <c r="K89" t="n">
-        <v>0.4443447293447296</v>
+        <v>0.4443447293447295</v>
       </c>
       <c r="L89" t="n">
-        <v>0.09401709401709404</v>
+        <v>0.09401709401709403</v>
       </c>
       <c r="M89" t="n">
         <v>0.07971877625578094</v>
@@ -8938,7 +8938,7 @@
         <v>-0.1744453941120608</v>
       </c>
       <c r="U89" t="n">
-        <v>0.08847863247863251</v>
+        <v>0.0884786324786325</v>
       </c>
       <c r="V89" t="n">
         <v>0.02488888888888889</v>
@@ -8950,7 +8950,7 @@
         <v>0.07971877625578094</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.4443447293447296</v>
+        <v>0.4443447293447295</v>
       </c>
       <c r="Z89" t="n">
         <v>0.02488888888888889</v>
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="AF89" t="n">
-        <v>0.7233977886014603</v>
+        <v>0.7233977886014601</v>
       </c>
     </row>
     <row r="90">
@@ -9012,13 +9012,13 @@
         <v>0.65</v>
       </c>
       <c r="K90" t="n">
-        <v>0.07968960863697706</v>
+        <v>0.07968960863697705</v>
       </c>
       <c r="L90" t="n">
-        <v>0.5800269905533064</v>
+        <v>0.5800269905533062</v>
       </c>
       <c r="M90" t="n">
-        <v>0.2042010697858955</v>
+        <v>0.2042010697858956</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -9032,22 +9032,22 @@
         <v>-0.3121558992299126</v>
       </c>
       <c r="U90" t="n">
-        <v>0.5193242789130947</v>
+        <v>0.5193242789130945</v>
       </c>
       <c r="V90" t="n">
-        <v>0.1806772172150462</v>
+        <v>0.1806772172150461</v>
       </c>
       <c r="W90" t="n">
         <v>0.3121558992299126</v>
       </c>
       <c r="X90" t="n">
-        <v>0.2042010697858955</v>
+        <v>0.2042010697858956</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.07968960863697706</v>
+        <v>0.07968960863697705</v>
       </c>
       <c r="Z90" t="n">
-        <v>0.1806772172150462</v>
+        <v>0.1806772172150461</v>
       </c>
       <c r="AA90" t="n">
         <v>0</v>
@@ -9083,7 +9083,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.3725149310062496</v>
+        <v>0.3725149310062495</v>
       </c>
       <c r="E91" t="n">
         <v>19</v>
@@ -9106,13 +9106,13 @@
         <v>0.65</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3375162364020134</v>
+        <v>0.3375162364020133</v>
       </c>
       <c r="L91" t="n">
         <v>0.01656113005358013</v>
       </c>
       <c r="M91" t="n">
-        <v>0.2150715956936131</v>
+        <v>0.215071595693613</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -9123,7 +9123,7 @@
         <v>44357</v>
       </c>
       <c r="T91" t="n">
-        <v>0.3725149310062496</v>
+        <v>0.3725149310062495</v>
       </c>
       <c r="U91" t="n">
         <v>0.01656113005358013</v>
@@ -9132,13 +9132,13 @@
         <v>0.00552037668452671</v>
       </c>
       <c r="W91" t="n">
-        <v>-0.3725149310062496</v>
+        <v>-0.3725149310062495</v>
       </c>
       <c r="X91" t="n">
-        <v>0.2150715956936131</v>
+        <v>0.215071595693613</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.3375162364020134</v>
+        <v>0.3375162364020133</v>
       </c>
       <c r="Z91" t="n">
         <v>0.00552037668452671</v>
@@ -9159,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="AF91" t="n">
-        <v>0.1855932777739036</v>
+        <v>0.1855932777739035</v>
       </c>
     </row>
     <row r="92">
@@ -9200,13 +9200,13 @@
         <v>0.45</v>
       </c>
       <c r="K92" t="n">
-        <v>0.4323306195667173</v>
+        <v>0.4323306195667171</v>
       </c>
       <c r="L92" t="n">
         <v>0.08932431810864265</v>
       </c>
       <c r="M92" t="n">
-        <v>0.05250589403353517</v>
+        <v>0.0525058940335351</v>
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
@@ -9217,25 +9217,25 @@
         <v>44357</v>
       </c>
       <c r="T92" t="n">
-        <v>-0.02783674768635636</v>
+        <v>-0.02783674768635647</v>
       </c>
       <c r="U92" t="n">
         <v>-0.01093031152098695</v>
       </c>
       <c r="V92" t="n">
-        <v>0.0868951227370372</v>
+        <v>0.08689512273703719</v>
       </c>
       <c r="W92" t="n">
-        <v>0.02783674768635636</v>
+        <v>0.02783674768635647</v>
       </c>
       <c r="X92" t="n">
-        <v>0.05250589403353517</v>
+        <v>0.0525058940335351</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.4323306195667173</v>
+        <v>0.4323306195667171</v>
       </c>
       <c r="Z92" t="n">
-        <v>0.0868951227370372</v>
+        <v>0.08689512273703719</v>
       </c>
       <c r="AA92" t="n">
         <v>0</v>
@@ -9253,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="AF92" t="n">
-        <v>0.5995683840236461</v>
+        <v>0.5995683840236458</v>
       </c>
     </row>
     <row r="93">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.5075648298217179</v>
+        <v>0.5075648298217178</v>
       </c>
       <c r="E93" t="n">
         <v>19</v>
@@ -9297,10 +9297,10 @@
         <v>0.2306726094003242</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06057266342517559</v>
+        <v>0.06057266342517558</v>
       </c>
       <c r="M93" t="n">
-        <v>0.08394129519278999</v>
+        <v>0.08394129519279006</v>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -9311,19 +9311,19 @@
         <v>44357</v>
       </c>
       <c r="T93" t="n">
-        <v>0.06395342814807758</v>
+        <v>0.0639534281480777</v>
       </c>
       <c r="U93" t="n">
-        <v>-0.02872068850415961</v>
+        <v>-0.02872068850415962</v>
       </c>
       <c r="V93" t="n">
         <v>0.08396356399240426</v>
       </c>
       <c r="W93" t="n">
-        <v>-0.06395342814807758</v>
+        <v>-0.0639534281480777</v>
       </c>
       <c r="X93" t="n">
-        <v>0.08394129519278999</v>
+        <v>0.08394129519279006</v>
       </c>
       <c r="Y93" t="n">
         <v>0.2306726094003242</v>
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="AF93" t="n">
-        <v>0.3346240404374409</v>
+        <v>0.3346240404374408</v>
       </c>
     </row>
     <row r="94">
@@ -9394,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0.1425778258364292</v>
+        <v>0.1425778258364293</v>
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -9405,19 +9405,19 @@
         <v>44357</v>
       </c>
       <c r="T94" t="n">
-        <v>0.136212216426014</v>
+        <v>0.1362122164260138</v>
       </c>
       <c r="U94" t="n">
-        <v>-0.03733134920634921</v>
+        <v>-0.03733134920634922</v>
       </c>
       <c r="V94" t="n">
         <v>0.02494054031277024</v>
       </c>
       <c r="W94" t="n">
-        <v>-0.136212216426014</v>
+        <v>-0.1362122164260138</v>
       </c>
       <c r="X94" t="n">
-        <v>0.1425778258364292</v>
+        <v>0.1425778258364293</v>
       </c>
       <c r="Y94" t="n">
         <v>0.1080692023243529</v>
@@ -9441,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="AF94" t="n">
-        <v>0.1393753520475384</v>
+        <v>0.1393753520475386</v>
       </c>
     </row>
     <row r="95">
@@ -9459,7 +9459,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.7339940975086571</v>
+        <v>0.7339940975086569</v>
       </c>
       <c r="E95" t="n">
         <v>19</v>
@@ -9499,16 +9499,16 @@
         <v>44357</v>
       </c>
       <c r="T95" t="n">
-        <v>-0.03517833582694152</v>
+        <v>-0.03517833582694185</v>
       </c>
       <c r="U95" t="n">
-        <v>-0.008059777029809423</v>
+        <v>-0.008059777029809409</v>
       </c>
       <c r="V95" t="n">
         <v>0.3193118261765269</v>
       </c>
       <c r="W95" t="n">
-        <v>0.03517833582694152</v>
+        <v>0.03517833582694185</v>
       </c>
       <c r="X95" t="n">
         <v>0.3567273770078689</v>
@@ -9535,7 +9535,7 @@
         <v>0</v>
       </c>
       <c r="AF95" t="n">
-        <v>0.8546610240107838</v>
+        <v>0.8546610240107841</v>
       </c>
     </row>
     <row r="96">
@@ -9553,7 +9553,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.4904918032786885</v>
+        <v>0.4904918032786884</v>
       </c>
       <c r="E96" t="n">
         <v>19</v>
@@ -9576,13 +9576,13 @@
         <v>0.547</v>
       </c>
       <c r="K96" t="n">
-        <v>0.09360655737704919</v>
+        <v>0.09360655737704916</v>
       </c>
       <c r="L96" t="n">
         <v>0.2236520947176684</v>
       </c>
       <c r="M96" t="n">
-        <v>0.06496085662599946</v>
+        <v>0.0649608566259995</v>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -9593,7 +9593,7 @@
         <v>44357</v>
       </c>
       <c r="T96" t="n">
-        <v>-0.0002836063475275541</v>
+        <v>-0.0002836063475276651</v>
       </c>
       <c r="U96" t="n">
         <v>0.07928445518873858</v>
@@ -9602,13 +9602,13 @@
         <v>0.1773987444526956</v>
       </c>
       <c r="W96" t="n">
-        <v>0.0002836063475275541</v>
+        <v>0.0002836063475276651</v>
       </c>
       <c r="X96" t="n">
-        <v>0.06496085662599946</v>
+        <v>0.0649608566259995</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.09360655737704919</v>
+        <v>0.09360655737704916</v>
       </c>
       <c r="Z96" t="n">
         <v>0.1773987444526956</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AF96" t="n">
-        <v>0.3362497648032717</v>
+        <v>0.3362497648032719</v>
       </c>
     </row>
     <row r="97">
@@ -9647,7 +9647,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.5482548054383497</v>
+        <v>0.5482548054383499</v>
       </c>
       <c r="E97" t="n">
         <v>19</v>
@@ -9670,13 +9670,13 @@
         <v>0.58</v>
       </c>
       <c r="K97" t="n">
-        <v>0.1854219409282699</v>
+        <v>0.1854219409282702</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1582630098452883</v>
+        <v>0.1582630098452884</v>
       </c>
       <c r="M97" t="n">
-        <v>0.06403440909158839</v>
+        <v>0.06403440909158843</v>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -9687,22 +9687,22 @@
         <v>44357</v>
       </c>
       <c r="T97" t="n">
-        <v>0.03911370538307057</v>
+        <v>0.03911370538307068</v>
       </c>
       <c r="U97" t="n">
-        <v>-0.03920796859583942</v>
+        <v>-0.0392079685958393</v>
       </c>
       <c r="V97" t="n">
         <v>0.1765681647613117</v>
       </c>
       <c r="W97" t="n">
-        <v>-0.03911370538307057</v>
+        <v>-0.03911370538307068</v>
       </c>
       <c r="X97" t="n">
-        <v>0.06403440909158839</v>
+        <v>0.06403440909158843</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.1854219409282699</v>
+        <v>0.1854219409282702</v>
       </c>
       <c r="Z97" t="n">
         <v>0.1765681647613117</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="AF97" t="n">
-        <v>0.3869108093980994</v>
+        <v>0.3869108093980996</v>
       </c>
     </row>
     <row r="98">
@@ -9741,7 +9741,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.5317026889865736</v>
+        <v>0.5317026889865737</v>
       </c>
       <c r="E98" t="n">
         <v>19</v>
@@ -9770,7 +9770,7 @@
         <v>0.1446460334400569</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02274695875327535</v>
+        <v>0.02274695875327505</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -9781,7 +9781,7 @@
         <v>44357</v>
       </c>
       <c r="T98" t="n">
-        <v>-0.02414573924833829</v>
+        <v>-0.02414573924833807</v>
       </c>
       <c r="U98" t="n">
         <v>0.000937832102499675</v>
@@ -9790,10 +9790,10 @@
         <v>0.1207826551049905</v>
       </c>
       <c r="W98" t="n">
-        <v>0.02414573924833829</v>
+        <v>0.02414573924833807</v>
       </c>
       <c r="X98" t="n">
-        <v>0.02274695875327535</v>
+        <v>0.02274695875327505</v>
       </c>
       <c r="Y98" t="n">
         <v>0.2252134471718249</v>
@@ -9817,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="AF98" t="n">
-        <v>0.392888800278429</v>
+        <v>0.3928888002784285</v>
       </c>
     </row>
     <row r="99">
@@ -9858,13 +9858,13 @@
         <v>0.547</v>
       </c>
       <c r="K99" t="n">
-        <v>0.1961553323029367</v>
+        <v>0.1961553323029366</v>
       </c>
       <c r="L99" t="n">
         <v>0.1148505924781041</v>
       </c>
       <c r="M99" t="n">
-        <v>0.01609506377630349</v>
+        <v>0.01609506377630338</v>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -9875,7 +9875,7 @@
         <v>44357</v>
       </c>
       <c r="T99" t="n">
-        <v>-0.03399064408239794</v>
+        <v>-0.03399064408239783</v>
       </c>
       <c r="U99" t="n">
         <v>-0.1088015022395643</v>
@@ -9884,13 +9884,13 @@
         <v>0.1628269184906917</v>
       </c>
       <c r="W99" t="n">
-        <v>0.03399064408239794</v>
+        <v>0.03399064408239783</v>
       </c>
       <c r="X99" t="n">
-        <v>0.01609506377630349</v>
+        <v>0.01609506377630338</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.1961553323029367</v>
+        <v>0.1961553323029366</v>
       </c>
       <c r="Z99" t="n">
         <v>0.1628269184906917</v>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="AF99" t="n">
-        <v>0.4090679586523298</v>
+        <v>0.4090679586523295</v>
       </c>
     </row>
     <row r="100">
@@ -9955,10 +9955,10 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M100" t="n">
-        <v>0.3074589991893812</v>
+        <v>0.3074589991893813</v>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -9972,7 +9972,7 @@
         <v>-0.6989078182778659</v>
       </c>
       <c r="U100" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="V100" t="n">
         <v>0.266630291005291</v>
@@ -9981,7 +9981,7 @@
         <v>0.6989078182778659</v>
       </c>
       <c r="X100" t="n">
-        <v>0.3074589991893812</v>
+        <v>0.3074589991893813</v>
       </c>
       <c r="Y100" t="n">
         <v>0</v>
@@ -10023,7 +10023,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.4320816459830176</v>
+        <v>0.4320816459830177</v>
       </c>
       <c r="E101" t="n">
         <v>20</v>
@@ -10052,7 +10052,7 @@
         <v>0.1538210320052254</v>
       </c>
       <c r="M101" t="n">
-        <v>0.1252608437397279</v>
+        <v>0.1252608437397281</v>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -10063,7 +10063,7 @@
         <v>44357</v>
       </c>
       <c r="T101" t="n">
-        <v>-0.1200829806999689</v>
+        <v>-0.1200829806999688</v>
       </c>
       <c r="U101" t="n">
         <v>0.128204956933826</v>
@@ -10072,10 +10072,10 @@
         <v>0.07391791983009864</v>
       </c>
       <c r="W101" t="n">
-        <v>0.1200829806999689</v>
+        <v>0.1200829806999688</v>
       </c>
       <c r="X101" t="n">
-        <v>0.1252608437397279</v>
+        <v>0.1252608437397281</v>
       </c>
       <c r="Y101" t="n">
         <v>0.3428543435662965</v>
@@ -10140,13 +10140,13 @@
         <v>0.65</v>
       </c>
       <c r="K102" t="n">
-        <v>0.2030468025949955</v>
+        <v>0.2030468025949954</v>
       </c>
       <c r="L102" t="n">
         <v>0.04015678097003399</v>
       </c>
       <c r="M102" t="n">
-        <v>0.2365741867170149</v>
+        <v>0.2365741867170148</v>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -10157,7 +10157,7 @@
         <v>44357</v>
       </c>
       <c r="T102" t="n">
-        <v>0.06870656134891129</v>
+        <v>0.0687065613489114</v>
       </c>
       <c r="U102" t="n">
         <v>0.02359565091645386</v>
@@ -10166,13 +10166,13 @@
         <v>0.01417947775590353</v>
       </c>
       <c r="W102" t="n">
-        <v>-0.06870656134891129</v>
+        <v>-0.0687065613489114</v>
       </c>
       <c r="X102" t="n">
-        <v>0.2365741867170149</v>
+        <v>0.2365741867170148</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.2030468025949955</v>
+        <v>0.2030468025949954</v>
       </c>
       <c r="Z102" t="n">
         <v>0.01417947775590353</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="AF102" t="n">
-        <v>0.3850939057190026</v>
+        <v>0.3850939057190024</v>
       </c>
     </row>
     <row r="103">
@@ -10240,7 +10240,7 @@
         <v>0.2912820512820513</v>
       </c>
       <c r="M103" t="n">
-        <v>0.04810939055018913</v>
+        <v>0.04810939055018898</v>
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
@@ -10251,7 +10251,7 @@
         <v>44357</v>
       </c>
       <c r="T103" t="n">
-        <v>-0.006388196329838169</v>
+        <v>-0.00638819632983828</v>
       </c>
       <c r="U103" t="n">
         <v>0.05751112281934212</v>
@@ -10260,10 +10260,10 @@
         <v>0.2146127092300672</v>
       </c>
       <c r="W103" t="n">
-        <v>0.006388196329838169</v>
+        <v>0.00638819632983828</v>
       </c>
       <c r="X103" t="n">
-        <v>0.04810939055018913</v>
+        <v>0.04810939055018898</v>
       </c>
       <c r="Y103" t="n">
         <v>0.1933247863247863</v>
@@ -10287,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="AF103" t="n">
-        <v>0.4624350824348809</v>
+        <v>0.4624350824348808</v>
       </c>
     </row>
     <row r="104">
@@ -10328,13 +10328,13 @@
         <v>0.478</v>
       </c>
       <c r="K104" t="n">
-        <v>0.2094472105195965</v>
+        <v>0.2094472105195966</v>
       </c>
       <c r="L104" t="n">
         <v>0.2398059491893272</v>
       </c>
       <c r="M104" t="n">
-        <v>0.04934264337078047</v>
+        <v>0.04934264337078049</v>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -10345,7 +10345,7 @@
         <v>44357</v>
       </c>
       <c r="T104" t="n">
-        <v>0.02212864702524697</v>
+        <v>0.02212864702524708</v>
       </c>
       <c r="U104" t="n">
         <v>-0.1490645742266506</v>
@@ -10354,13 +10354,13 @@
         <v>0.3014818302722456</v>
       </c>
       <c r="W104" t="n">
-        <v>-0.02212864702524697</v>
+        <v>-0.02212864702524708</v>
       </c>
       <c r="X104" t="n">
-        <v>0.04934264337078047</v>
+        <v>0.04934264337078049</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.2094472105195965</v>
+        <v>0.2094472105195966</v>
       </c>
       <c r="Z104" t="n">
         <v>0.3014818302722456</v>
@@ -10399,7 +10399,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.5553964960811433</v>
+        <v>0.5553964960811435</v>
       </c>
       <c r="E105" t="n">
         <v>20</v>
@@ -10422,13 +10422,13 @@
         <v>0.58</v>
       </c>
       <c r="K105" t="n">
-        <v>0.1491055786076532</v>
+        <v>0.1491055786076533</v>
       </c>
       <c r="L105" t="n">
         <v>0.1995850622406639</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0204547239782323</v>
+        <v>0.02045472397823261</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -10442,7 +10442,7 @@
         <v>0.007141690642793574</v>
       </c>
       <c r="U105" t="n">
-        <v>0.04132205239537562</v>
+        <v>0.04132205239537551</v>
       </c>
       <c r="V105" t="n">
         <v>0.1666655193547218</v>
@@ -10451,10 +10451,10 @@
         <v>-0.007141690642793574</v>
       </c>
       <c r="X105" t="n">
-        <v>0.0204547239782323</v>
+        <v>0.02045472397823261</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.1491055786076532</v>
+        <v>0.1491055786076533</v>
       </c>
       <c r="Z105" t="n">
         <v>0.1666655193547218</v>
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="AF105" t="n">
-        <v>0.3290841312978138</v>
+        <v>0.3290841312978142</v>
       </c>
     </row>
     <row r="106">
@@ -10493,7 +10493,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.6981688067111799</v>
+        <v>0.6981688067111798</v>
       </c>
       <c r="E106" t="n">
         <v>20</v>
@@ -10516,13 +10516,13 @@
         <v>0.65</v>
       </c>
       <c r="K106" t="n">
-        <v>0.1087502140044513</v>
+        <v>0.1087502140044514</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07863550761855846</v>
+        <v>0.07863550761855849</v>
       </c>
       <c r="M106" t="n">
-        <v>0.08262772444209616</v>
+        <v>0.08262772444209661</v>
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
@@ -10533,25 +10533,25 @@
         <v>44357</v>
       </c>
       <c r="T106" t="n">
-        <v>-0.03582529079747721</v>
+        <v>-0.03582529079747709</v>
       </c>
       <c r="U106" t="n">
-        <v>0.04076049378040945</v>
+        <v>0.04076049378040948</v>
       </c>
       <c r="V106" t="n">
-        <v>0.08897070308116647</v>
+        <v>0.0889707030811665</v>
       </c>
       <c r="W106" t="n">
-        <v>0.03582529079747721</v>
+        <v>0.03582529079747709</v>
       </c>
       <c r="X106" t="n">
-        <v>0.08262772444209616</v>
+        <v>0.08262772444209661</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.1087502140044513</v>
+        <v>0.1087502140044514</v>
       </c>
       <c r="Z106" t="n">
-        <v>0.08897070308116647</v>
+        <v>0.0889707030811665</v>
       </c>
       <c r="AA106" t="n">
         <v>0</v>
@@ -10569,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="AF106" t="n">
-        <v>0.3161739323251911</v>
+        <v>0.3161739323251916</v>
       </c>
     </row>
     <row r="107">
@@ -10610,13 +10610,13 @@
         <v>0.53</v>
       </c>
       <c r="K107" t="n">
-        <v>0.2692437489032175</v>
+        <v>0.2692437489032176</v>
       </c>
       <c r="L107" t="n">
         <v>0.1025913310325277</v>
       </c>
       <c r="M107" t="n">
-        <v>0.2301684881671553</v>
+        <v>0.2301684881671552</v>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
@@ -10633,19 +10633,19 @@
         <v>0.1025913310325277</v>
       </c>
       <c r="V107" t="n">
-        <v>0.05128234981761442</v>
+        <v>0.05128234981761443</v>
       </c>
       <c r="W107" t="n">
         <v>-0.2790407067745632</v>
       </c>
       <c r="X107" t="n">
-        <v>0.2301684881671553</v>
+        <v>0.2301684881671552</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.2692437489032175</v>
+        <v>0.2692437489032176</v>
       </c>
       <c r="Z107" t="n">
-        <v>0.05128234981761442</v>
+        <v>0.05128234981761443</v>
       </c>
       <c r="AA107" t="n">
         <v>0</v>
@@ -10663,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="AF107" t="n">
-        <v>0.271653880113424</v>
+        <v>0.2716538801134241</v>
       </c>
     </row>
     <row r="108">
@@ -10710,7 +10710,7 @@
         <v>0.196068466828479</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03330143890521554</v>
+        <v>0.03330143890521539</v>
       </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
@@ -10721,7 +10721,7 @@
         <v>44357</v>
       </c>
       <c r="T108" t="n">
-        <v>0.06472188158848224</v>
+        <v>0.06472188158848213</v>
       </c>
       <c r="U108" t="n">
         <v>0.05142243338842212</v>
@@ -10730,10 +10730,10 @@
         <v>0.1607364336019176</v>
       </c>
       <c r="W108" t="n">
-        <v>-0.06472188158848224</v>
+        <v>-0.06472188158848213</v>
       </c>
       <c r="X108" t="n">
-        <v>0.03330143890521554</v>
+        <v>0.03330143890521539</v>
       </c>
       <c r="Y108" t="n">
         <v>0.1696601941747573</v>
@@ -10804,7 +10804,7 @@
         <v>0.04488</v>
       </c>
       <c r="M109" t="n">
-        <v>0.08222208149093579</v>
+        <v>0.08222208149093574</v>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -10818,22 +10818,22 @@
         <v>0.04809052231718891</v>
       </c>
       <c r="U109" t="n">
-        <v>-0.04913709401709404</v>
+        <v>-0.04913709401709403</v>
       </c>
       <c r="V109" t="n">
-        <v>0.0361088888888889</v>
+        <v>0.03610888888888889</v>
       </c>
       <c r="W109" t="n">
         <v>-0.04809052231718891</v>
       </c>
       <c r="X109" t="n">
-        <v>0.08222208149093579</v>
+        <v>0.08222208149093574</v>
       </c>
       <c r="Y109" t="n">
         <v>0.6199555555555556</v>
       </c>
       <c r="Z109" t="n">
-        <v>0.0361088888888889</v>
+        <v>0.03610888888888889</v>
       </c>
       <c r="AA109" t="n">
         <v>0</v>
@@ -10851,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="AF109" t="n">
-        <v>0.6901960036181913</v>
+        <v>0.6901960036181912</v>
       </c>
     </row>
     <row r="110">
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.5075648298217179</v>
+        <v>0.5075648298217178</v>
       </c>
       <c r="E110" t="n">
         <v>20</v>
@@ -10895,10 +10895,10 @@
         <v>0.6199555555555556</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03169410385670326</v>
+        <v>0.0316941038567034</v>
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -10915,19 +10915,19 @@
         <v>0</v>
       </c>
       <c r="V110" t="n">
-        <v>0.07104232774744811</v>
+        <v>0.07104232774744812</v>
       </c>
       <c r="W110" t="n">
         <v>-0</v>
       </c>
       <c r="X110" t="n">
-        <v>0.03169410385670326</v>
+        <v>0.0316941038567034</v>
       </c>
       <c r="Y110" t="n">
         <v>0.6199555555555556</v>
       </c>
       <c r="Z110" t="n">
-        <v>0.07104232774744811</v>
+        <v>0.07104232774744812</v>
       </c>
       <c r="AA110" t="n">
         <v>0</v>
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="AF110" t="n">
-        <v>0.722691987159707</v>
+        <v>0.7226919871597071</v>
       </c>
     </row>
     <row r="111">
@@ -10989,10 +10989,10 @@
         <v>0.2887943672839506</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04257716049382716</v>
+        <v>0.04257716049382717</v>
       </c>
       <c r="M111" t="n">
-        <v>0.06141554607408028</v>
+        <v>0.06141554607408026</v>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
@@ -11006,22 +11006,22 @@
         <v>0.09880022145178846</v>
       </c>
       <c r="U111" t="n">
-        <v>-0.04674715761481549</v>
+        <v>-0.04674715761481548</v>
       </c>
       <c r="V111" t="n">
-        <v>0.07624601008271621</v>
+        <v>0.07624601008271623</v>
       </c>
       <c r="W111" t="n">
         <v>-0.09880022145178846</v>
       </c>
       <c r="X111" t="n">
-        <v>0.06141554607408028</v>
+        <v>0.06141554607408026</v>
       </c>
       <c r="Y111" t="n">
         <v>0.2887943672839506</v>
       </c>
       <c r="Z111" t="n">
-        <v>0.07624601008271621</v>
+        <v>0.07624601008271623</v>
       </c>
       <c r="AA111" t="n">
         <v>0</v>
@@ -11039,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="AF111" t="n">
-        <v>0.3276557019889586</v>
+        <v>0.3276557019889587</v>
       </c>
     </row>
     <row r="112">
@@ -11057,7 +11057,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.530873822975518</v>
+        <v>0.5308738229755181</v>
       </c>
       <c r="E112" t="n">
         <v>20</v>
@@ -11080,10 +11080,10 @@
         <v>0.65</v>
       </c>
       <c r="K112" t="n">
-        <v>0.1888238315356958</v>
+        <v>0.1888238315356959</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1613285396336245</v>
+        <v>0.1613285396336244</v>
       </c>
       <c r="M112" t="n">
         <v>0.1829547721072726</v>
@@ -11097,25 +11097,25 @@
         <v>44357</v>
       </c>
       <c r="T112" t="n">
-        <v>0.257622810829769</v>
+        <v>0.2576228108297691</v>
       </c>
       <c r="U112" t="n">
-        <v>-0.4186984509196819</v>
+        <v>-0.4186984509196818</v>
       </c>
       <c r="V112" t="n">
-        <v>0.2110597820176322</v>
+        <v>0.2110597820176321</v>
       </c>
       <c r="W112" t="n">
-        <v>-0.257622810829769</v>
+        <v>-0.2576228108297691</v>
       </c>
       <c r="X112" t="n">
         <v>0.1829547721072726</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.1888238315356958</v>
+        <v>0.1888238315356959</v>
       </c>
       <c r="Z112" t="n">
-        <v>0.2110597820176322</v>
+        <v>0.2110597820176321</v>
       </c>
       <c r="AA112" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="AF112" t="n">
-        <v>0.3252155748308316</v>
+        <v>0.3252155748308315</v>
       </c>
     </row>
     <row r="113">
@@ -11151,7 +11151,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.3674787797902764</v>
+        <v>0.3674787797902765</v>
       </c>
       <c r="E113" t="n">
         <v>20</v>
@@ -11174,13 +11174,13 @@
         <v>0.47</v>
       </c>
       <c r="K113" t="n">
-        <v>0.5017699396250399</v>
+        <v>0.5017699396250402</v>
       </c>
       <c r="L113" t="n">
         <v>0.02968859231013663</v>
       </c>
       <c r="M113" t="n">
-        <v>0.05017739400779658</v>
+        <v>0.05017739400779644</v>
       </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
@@ -11191,7 +11191,7 @@
         <v>44357</v>
       </c>
       <c r="T113" t="n">
-        <v>-0.06191294485271165</v>
+        <v>-0.06191294485271154</v>
       </c>
       <c r="U113" t="n">
         <v>0.02968859231013663</v>
@@ -11200,13 +11200,13 @@
         <v>0.01641507876305442</v>
       </c>
       <c r="W113" t="n">
-        <v>0.06191294485271165</v>
+        <v>0.06191294485271154</v>
       </c>
       <c r="X113" t="n">
-        <v>0.05017739400779658</v>
+        <v>0.05017739400779644</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.5017699396250399</v>
+        <v>0.5017699396250402</v>
       </c>
       <c r="Z113" t="n">
         <v>0.01641507876305442</v>
@@ -11245,7 +11245,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.3497234342190201</v>
+        <v>0.34972343421902</v>
       </c>
       <c r="E114" t="n">
         <v>21</v>
@@ -11268,13 +11268,13 @@
         <v>0.45</v>
       </c>
       <c r="K114" t="n">
-        <v>0.2866226914886512</v>
+        <v>0.2866226914886513</v>
       </c>
       <c r="L114" t="n">
         <v>0.108364929671868</v>
       </c>
       <c r="M114" t="n">
-        <v>0.06238380879781829</v>
+        <v>0.06238380879781828</v>
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
@@ -11285,25 +11285,25 @@
         <v>44357</v>
       </c>
       <c r="T114" t="n">
-        <v>-0.1495717046698688</v>
+        <v>-0.1495717046698689</v>
       </c>
       <c r="U114" t="n">
-        <v>0.06578776917804084</v>
+        <v>0.06578776917804083</v>
       </c>
       <c r="V114" t="n">
-        <v>0.08513025947599186</v>
+        <v>0.08513025947599184</v>
       </c>
       <c r="W114" t="n">
-        <v>0.1495717046698688</v>
+        <v>0.1495717046698689</v>
       </c>
       <c r="X114" t="n">
-        <v>0.06238380879781829</v>
+        <v>0.06238380879781828</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.2866226914886512</v>
+        <v>0.2866226914886513</v>
       </c>
       <c r="Z114" t="n">
-        <v>0.08513025947599186</v>
+        <v>0.08513025947599184</v>
       </c>
       <c r="AA114" t="n">
         <v>0</v>
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="AF114" t="n">
-        <v>0.5837084644323302</v>
+        <v>0.5837084644323303</v>
       </c>
     </row>
     <row r="115">
@@ -11339,7 +11339,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.6225795670135995</v>
+        <v>0.6225795670135992</v>
       </c>
       <c r="E115" t="n">
         <v>21</v>
@@ -11365,10 +11365,10 @@
         <v>0.2144553390426544</v>
       </c>
       <c r="L115" t="n">
-        <v>0.08040213478962398</v>
+        <v>0.08040213478962395</v>
       </c>
       <c r="M115" t="n">
-        <v>0.1273073640596503</v>
+        <v>0.1273073640596504</v>
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
@@ -11379,25 +11379,25 @@
         <v>44357</v>
       </c>
       <c r="T115" t="n">
-        <v>0.1904979210305819</v>
+        <v>0.1904979210305815</v>
       </c>
       <c r="U115" t="n">
-        <v>-0.07341889721560142</v>
+        <v>-0.07341889721560145</v>
       </c>
       <c r="V115" t="n">
-        <v>0.07553897356997998</v>
+        <v>0.07553897356997996</v>
       </c>
       <c r="W115" t="n">
-        <v>-0.1904979210305819</v>
+        <v>-0.1904979210305815</v>
       </c>
       <c r="X115" t="n">
-        <v>0.1273073640596503</v>
+        <v>0.1273073640596504</v>
       </c>
       <c r="Y115" t="n">
         <v>0.2144553390426544</v>
       </c>
       <c r="Z115" t="n">
-        <v>0.07553897356997998</v>
+        <v>0.07553897356997996</v>
       </c>
       <c r="AA115" t="n">
         <v>0</v>
@@ -11415,7 +11415,7 @@
         <v>0</v>
       </c>
       <c r="AF115" t="n">
-        <v>0.2268037556417029</v>
+        <v>0.2268037556417033</v>
       </c>
     </row>
     <row r="116">
@@ -11433,7 +11433,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.5075648298217179</v>
+        <v>0.5075648298217178</v>
       </c>
       <c r="E116" t="n">
         <v>21</v>
@@ -11456,13 +11456,13 @@
         <v>0.5</v>
       </c>
       <c r="K116" t="n">
-        <v>0.4946997549019608</v>
+        <v>0.4946997549019605</v>
       </c>
       <c r="L116" t="n">
-        <v>0.626590330788804</v>
+        <v>0.6265903307888041</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03197671407403884</v>
+        <v>0.03197671407403896</v>
       </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
@@ -11485,10 +11485,10 @@
         <v>-0</v>
       </c>
       <c r="X116" t="n">
-        <v>0.03197671407403884</v>
+        <v>0.03197671407403896</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.4946997549019608</v>
+        <v>0.4946997549019605</v>
       </c>
       <c r="Z116" t="n">
         <v>0.07493300767725539</v>
@@ -11509,7 +11509,7 @@
         <v>0</v>
       </c>
       <c r="AF116" t="n">
-        <v>0.601609476653255</v>
+        <v>0.6016094766532549</v>
       </c>
     </row>
     <row r="117">
@@ -11550,13 +11550,13 @@
         <v>0.47</v>
       </c>
       <c r="K117" t="n">
-        <v>0.4946997549019608</v>
+        <v>0.4946997549019605</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06328125</v>
+        <v>0.06328125000000001</v>
       </c>
       <c r="M117" t="n">
-        <v>0.06086271520597152</v>
+        <v>0.06086271520597137</v>
       </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
@@ -11567,22 +11567,22 @@
         <v>44357</v>
       </c>
       <c r="T117" t="n">
-        <v>-0.008330075746158683</v>
+        <v>-0.008330075746158794</v>
       </c>
       <c r="U117" t="n">
-        <v>0.03359265768986337</v>
+        <v>0.03359265768986338</v>
       </c>
       <c r="V117" t="n">
         <v>0.02747587222497827</v>
       </c>
       <c r="W117" t="n">
-        <v>0.008330075746158683</v>
+        <v>0.008330075746158794</v>
       </c>
       <c r="X117" t="n">
-        <v>0.06086271520597152</v>
+        <v>0.06086271520597137</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.4946997549019608</v>
+        <v>0.4946997549019605</v>
       </c>
       <c r="Z117" t="n">
         <v>0.02747587222497827</v>
@@ -11603,7 +11603,7 @@
         <v>0</v>
       </c>
       <c r="AF117" t="n">
-        <v>0.5913684180790693</v>
+        <v>0.5913684180790689</v>
       </c>
     </row>
     <row r="118">
@@ -11644,13 +11644,13 @@
         <v>0.65</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08033644331354255</v>
+        <v>0.08033644331354253</v>
       </c>
       <c r="L118" t="n">
-        <v>0.626590330788804</v>
+        <v>0.6265903307888041</v>
       </c>
       <c r="M118" t="n">
-        <v>0.3233875496379996</v>
+        <v>0.3233875496379997</v>
       </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
@@ -11664,7 +11664,7 @@
         <v>0.1919510884930732</v>
       </c>
       <c r="U118" t="n">
-        <v>-0.373409669211196</v>
+        <v>-0.3734096692111957</v>
       </c>
       <c r="V118" t="n">
         <v>0.4159804199987883</v>
@@ -11673,10 +11673,10 @@
         <v>-0.1919510884930732</v>
       </c>
       <c r="X118" t="n">
-        <v>0.3233875496379996</v>
+        <v>0.3233875496379997</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.08033644331354255</v>
+        <v>0.08033644331354253</v>
       </c>
       <c r="Z118" t="n">
         <v>0.4159804199987883</v>
@@ -11715,7 +11715,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.4217670660856936</v>
+        <v>0.4217670660856935</v>
       </c>
       <c r="E119" t="n">
         <v>21</v>
@@ -11738,13 +11738,13 @@
         <v>0.65</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08376361655773423</v>
+        <v>0.08376361655773422</v>
       </c>
       <c r="L119" t="n">
         <v>0.3471259985475672</v>
       </c>
       <c r="M119" t="n">
-        <v>0.1586759308391721</v>
+        <v>0.1586759308391723</v>
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
@@ -11767,10 +11767,10 @@
         <v>0.2764017406254863</v>
       </c>
       <c r="X119" t="n">
-        <v>0.1586759308391721</v>
+        <v>0.1586759308391723</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.08376361655773423</v>
+        <v>0.08376361655773422</v>
       </c>
       <c r="Z119" t="n">
         <v>0.1273928277180583</v>
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="AF119" t="n">
-        <v>0.6462341157404509</v>
+        <v>0.6462341157404511</v>
       </c>
     </row>
     <row r="120">
@@ -11832,13 +11832,13 @@
         <v>0.65</v>
       </c>
       <c r="K120" t="n">
-        <v>0.2514044138721697</v>
+        <v>0.2514044138721696</v>
       </c>
       <c r="L120" t="n">
         <v>0.163872169676125</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03468747780008197</v>
+        <v>0.03468747780008186</v>
       </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
@@ -11861,10 +11861,10 @@
         <v>0.07937438086794446</v>
       </c>
       <c r="X120" t="n">
-        <v>0.03468747780008197</v>
+        <v>0.03468747780008186</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.2514044138721697</v>
+        <v>0.2514044138721696</v>
       </c>
       <c r="Z120" t="n">
         <v>0.1620737178205545</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="AF120" t="n">
-        <v>0.5275399903607507</v>
+        <v>0.5275399903607505</v>
       </c>
     </row>
     <row r="121">
@@ -11903,7 +11903,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.4319269421860885</v>
+        <v>0.4319269421860884</v>
       </c>
       <c r="E121" t="n">
         <v>21</v>
@@ -11926,13 +11926,13 @@
         <v>0.58</v>
       </c>
       <c r="K121" t="n">
-        <v>0.2829200542005421</v>
+        <v>0.2829200542005418</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1753184281842819</v>
+        <v>0.1753184281842818</v>
       </c>
       <c r="M121" t="n">
-        <v>0.05661226018486737</v>
+        <v>0.05661226018486763</v>
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
@@ -11943,25 +11943,25 @@
         <v>44357</v>
       </c>
       <c r="T121" t="n">
-        <v>-0.1234695538950548</v>
+        <v>-0.1234695538950551</v>
       </c>
       <c r="U121" t="n">
-        <v>-0.02426663405638202</v>
+        <v>-0.0242666340563821</v>
       </c>
       <c r="V121" t="n">
-        <v>0.1826593696778404</v>
+        <v>0.1826593696778405</v>
       </c>
       <c r="W121" t="n">
-        <v>0.1234695538950548</v>
+        <v>0.1234695538950551</v>
       </c>
       <c r="X121" t="n">
-        <v>0.05661226018486737</v>
+        <v>0.05661226018486763</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.2829200542005421</v>
+        <v>0.2829200542005418</v>
       </c>
       <c r="Z121" t="n">
-        <v>0.1826593696778404</v>
+        <v>0.1826593696778405</v>
       </c>
       <c r="AA121" t="n">
         <v>0</v>
@@ -11979,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="AF121" t="n">
-        <v>0.6456612379583047</v>
+        <v>0.645661237958305</v>
       </c>
     </row>
     <row r="122">
@@ -12026,7 +12026,7 @@
         <v>0.1016773504273504</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0853624406747522</v>
+        <v>0.08536244067475214</v>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
@@ -12049,7 +12049,7 @@
         <v>-0.1126810826210828</v>
       </c>
       <c r="X122" t="n">
-        <v>0.0853624406747522</v>
+        <v>0.08536244067475214</v>
       </c>
       <c r="Y122" t="n">
         <v>0.3621474358974359</v>
@@ -12073,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="AF122" t="n">
-        <v>0.3963570204468318</v>
+        <v>0.3963570204468317</v>
       </c>
     </row>
     <row r="123">
@@ -12114,10 +12114,10 @@
         <v>0.53</v>
       </c>
       <c r="K123" t="n">
-        <v>0.187658917108836</v>
+        <v>0.1876589171088361</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04212202914959556</v>
+        <v>0.04212202914959558</v>
       </c>
       <c r="M123" t="n">
         <v>0.2344987032602079</v>
@@ -12134,10 +12134,10 @@
         <v>0.1527415561165933</v>
       </c>
       <c r="U123" t="n">
-        <v>-0.06046930188293213</v>
+        <v>-0.06046930188293212</v>
       </c>
       <c r="V123" t="n">
-        <v>0.0489922696506097</v>
+        <v>0.04899226965060971</v>
       </c>
       <c r="W123" t="n">
         <v>-0.1527415561165933</v>
@@ -12146,10 +12146,10 @@
         <v>0.2344987032602079</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.187658917108836</v>
+        <v>0.1876589171088361</v>
       </c>
       <c r="Z123" t="n">
-        <v>0.0489922696506097</v>
+        <v>0.04899226965060971</v>
       </c>
       <c r="AA123" t="n">
         <v>0</v>
@@ -12167,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="AF123" t="n">
-        <v>0.3184083339030603</v>
+        <v>0.3184083339030604</v>
       </c>
     </row>
     <row r="124">
@@ -12185,7 +12185,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.3963103764448744</v>
+        <v>0.3963103764448743</v>
       </c>
       <c r="E124" t="n">
         <v>21</v>
@@ -12214,7 +12214,7 @@
         <v>0.3314133450138705</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04764310391381206</v>
+        <v>0.04764310391381209</v>
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
@@ -12225,7 +12225,7 @@
         <v>44357</v>
       </c>
       <c r="T124" t="n">
-        <v>-0.07657741822522113</v>
+        <v>-0.07657741822522118</v>
       </c>
       <c r="U124" t="n">
         <v>0.04013129373181917</v>
@@ -12234,10 +12234,10 @@
         <v>0.2699969096810657</v>
       </c>
       <c r="W124" t="n">
-        <v>0.07657741822522113</v>
+        <v>0.07657741822522118</v>
       </c>
       <c r="X124" t="n">
-        <v>0.04764310391381206</v>
+        <v>0.04764310391381209</v>
       </c>
       <c r="Y124" t="n">
         <v>0.179267046284129</v>
@@ -12261,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="AF124" t="n">
-        <v>0.5734844781042279</v>
+        <v>0.573484478104228</v>
       </c>
     </row>
     <row r="125">
@@ -12302,13 +12302,13 @@
         <v>0.547</v>
       </c>
       <c r="K125" t="n">
-        <v>0.1876030707989763</v>
+        <v>0.1876030707989765</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1597289356459103</v>
+        <v>0.1597289356459104</v>
       </c>
       <c r="M125" t="n">
-        <v>0.03212219274546637</v>
+        <v>0.03212219274546635</v>
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
@@ -12322,7 +12322,7 @@
         <v>-0.03284818791394767</v>
       </c>
       <c r="U125" t="n">
-        <v>0.04487834316780621</v>
+        <v>0.0448783431678063</v>
       </c>
       <c r="V125" t="n">
         <v>0.1606498155926532</v>
@@ -12331,10 +12331,10 @@
         <v>0.03284818791394767</v>
       </c>
       <c r="X125" t="n">
-        <v>0.03212219274546637</v>
+        <v>0.03212219274546635</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.1876030707989763</v>
+        <v>0.1876030707989765</v>
       </c>
       <c r="Z125" t="n">
         <v>0.1606498155926532</v>
@@ -12355,7 +12355,7 @@
         <v>0</v>
       </c>
       <c r="AF125" t="n">
-        <v>0.4132232670510435</v>
+        <v>0.4132232670510437</v>
       </c>
     </row>
     <row r="126">
@@ -12413,16 +12413,16 @@
         <v>44357</v>
       </c>
       <c r="T126" t="n">
-        <v>0.175317810622366</v>
+        <v>0.1753178106223658</v>
       </c>
       <c r="U126" t="n">
-        <v>-0.1240467936018785</v>
+        <v>-0.1240467936018783</v>
       </c>
       <c r="V126" t="n">
-        <v>0.2098349969647222</v>
+        <v>0.2098349969647221</v>
       </c>
       <c r="W126" t="n">
-        <v>-0.175317810622366</v>
+        <v>-0.1753178106223658</v>
       </c>
       <c r="X126" t="n">
         <v>0.1824708975337812</v>
@@ -12431,7 +12431,7 @@
         <v>0.1425016534391535</v>
       </c>
       <c r="Z126" t="n">
-        <v>0.2098349969647222</v>
+        <v>0.2098349969647221</v>
       </c>
       <c r="AA126" t="n">
         <v>0</v>
@@ -12467,7 +12467,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.3995968799160985</v>
+        <v>0.3995968799160984</v>
       </c>
       <c r="E127" t="n">
         <v>21</v>
@@ -12490,13 +12490,13 @@
         <v>0.478</v>
       </c>
       <c r="K127" t="n">
-        <v>0.2508827128124453</v>
+        <v>0.2508827128124452</v>
       </c>
       <c r="L127" t="n">
         <v>0.1234268484530676</v>
       </c>
       <c r="M127" t="n">
-        <v>0.03185905500713816</v>
+        <v>0.03185905500713811</v>
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
@@ -12507,7 +12507,7 @@
         <v>44357</v>
       </c>
       <c r="T127" t="n">
-        <v>0.05374371498451541</v>
+        <v>0.0537437149845153</v>
       </c>
       <c r="U127" t="n">
         <v>-0.1163791007362596</v>
@@ -12516,13 +12516,13 @@
         <v>0.2733662058514476</v>
       </c>
       <c r="W127" t="n">
-        <v>-0.05374371498451541</v>
+        <v>-0.0537437149845153</v>
       </c>
       <c r="X127" t="n">
-        <v>0.03185905500713816</v>
+        <v>0.03185905500713811</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.2508827128124453</v>
+        <v>0.2508827128124452</v>
       </c>
       <c r="Z127" t="n">
         <v>0.2733662058514476</v>
@@ -12590,7 +12590,7 @@
         <v>0.02448075748320097</v>
       </c>
       <c r="M128" t="n">
-        <v>0.202036559264484</v>
+        <v>0.2020365592644839</v>
       </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
@@ -12613,7 +12613,7 @@
         <v>0.05604705211071087</v>
       </c>
       <c r="X128" t="n">
-        <v>0.202036559264484</v>
+        <v>0.2020365592644839</v>
       </c>
       <c r="Y128" t="n">
         <v>0.281732335573203</v>
@@ -12655,7 +12655,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.6858419312169315</v>
+        <v>0.6858419312169316</v>
       </c>
       <c r="E129" t="n">
         <v>22</v>
@@ -12678,13 +12678,13 @@
         <v>0.65</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1460582010582012</v>
+        <v>0.1460582010582011</v>
       </c>
       <c r="L129" t="n">
         <v>0.03456845238095239</v>
       </c>
       <c r="M129" t="n">
-        <v>0.143577276000544</v>
+        <v>0.1435772760005441</v>
       </c>
       <c r="N129" t="n">
         <v>0</v>
@@ -12705,7 +12705,7 @@
         <v>44357</v>
       </c>
       <c r="T129" t="n">
-        <v>0.2640748651312379</v>
+        <v>0.2640748651312381</v>
       </c>
       <c r="U129" t="n">
         <v>-0.3125575461666148</v>
@@ -12714,13 +12714,13 @@
         <v>0.1245512430963068</v>
       </c>
       <c r="W129" t="n">
-        <v>-0.2640748651312379</v>
+        <v>-0.2640748651312381</v>
       </c>
       <c r="X129" t="n">
-        <v>0.143577276000544</v>
+        <v>0.1435772760005441</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.1460582010582012</v>
+        <v>0.1460582010582011</v>
       </c>
       <c r="Z129" t="n">
         <v>0.1245512430963068</v>
@@ -12782,13 +12782,13 @@
         <v>0.53</v>
       </c>
       <c r="K130" t="n">
-        <v>0.3860256410256409</v>
+        <v>0.386025641025641</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07628205128205127</v>
+        <v>0.07628205128205129</v>
       </c>
       <c r="M130" t="n">
-        <v>0.07948557359876447</v>
+        <v>0.0794855735987644</v>
       </c>
       <c r="N130" t="n">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>-0.006811965811965859</v>
       </c>
       <c r="U130" t="n">
-        <v>-0.02539529914529913</v>
+        <v>-0.02539529914529912</v>
       </c>
       <c r="V130" t="n">
         <v>0.07921412393162393</v>
@@ -12821,10 +12821,10 @@
         <v>0.006811965811965859</v>
       </c>
       <c r="X130" t="n">
-        <v>0.07948557359876447</v>
+        <v>0.0794855735987644</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.3860256410256409</v>
+        <v>0.386025641025641</v>
       </c>
       <c r="Z130" t="n">
         <v>0.07921412393162393</v>
@@ -12913,7 +12913,7 @@
         <v>44357</v>
       </c>
       <c r="T131" t="n">
-        <v>-0.5075648298217179</v>
+        <v>-0.5075648298217178</v>
       </c>
       <c r="U131" t="n">
         <v>0</v>
@@ -12922,7 +12922,7 @@
         <v>0.07473077615703223</v>
       </c>
       <c r="W131" t="n">
-        <v>0.5075648298217179</v>
+        <v>0.5075648298217178</v>
       </c>
       <c r="X131" t="n">
         <v>0.253782414910859</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.5370439814814816</v>
+        <v>0.5370439814814814</v>
       </c>
       <c r="E132" t="n">
         <v>22</v>
@@ -12990,7 +12990,7 @@
         <v>0.65</v>
       </c>
       <c r="K132" t="n">
-        <v>0.2166732804232806</v>
+        <v>0.2166732804232805</v>
       </c>
       <c r="L132" t="n">
         <v>0.03818452380952381</v>
@@ -13017,25 +13017,25 @@
         <v>44357</v>
       </c>
       <c r="T132" t="n">
-        <v>0.3450928929884084</v>
+        <v>0.3450928929884082</v>
       </c>
       <c r="U132" t="n">
-        <v>-0.5884058069792801</v>
+        <v>-0.5884058069792804</v>
       </c>
       <c r="V132" t="n">
-        <v>0.416193713649582</v>
+        <v>0.4161937136495819</v>
       </c>
       <c r="W132" t="n">
-        <v>-0.3450928929884084</v>
+        <v>-0.3450928929884082</v>
       </c>
       <c r="X132" t="n">
         <v>0.3183325998067549</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.2166732804232806</v>
+        <v>0.2166732804232805</v>
       </c>
       <c r="Z132" t="n">
-        <v>0.416193713649582</v>
+        <v>0.4161937136495819</v>
       </c>
       <c r="AA132" t="n">
         <v>-0</v>
@@ -13100,7 +13100,7 @@
         <v>0.04175509608722604</v>
       </c>
       <c r="M133" t="n">
-        <v>0.2059803630843039</v>
+        <v>0.205980363084304</v>
       </c>
       <c r="N133" t="n">
         <v>0</v>
@@ -13127,19 +13127,19 @@
         <v>0.00447335005547999</v>
       </c>
       <c r="V133" t="n">
-        <v>0.2050980930764758</v>
+        <v>0.2050980930764757</v>
       </c>
       <c r="W133" t="n">
         <v>-0.005208468506189168</v>
       </c>
       <c r="X133" t="n">
-        <v>0.2059803630843039</v>
+        <v>0.205980363084304</v>
       </c>
       <c r="Y133" t="n">
         <v>0.1903712212376472</v>
       </c>
       <c r="Z133" t="n">
-        <v>0.2050980930764758</v>
+        <v>0.2050980930764757</v>
       </c>
       <c r="AA133" t="n">
         <v>-0</v>
@@ -13175,7 +13175,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.3148074232656402</v>
+        <v>0.3148074232656403</v>
       </c>
       <c r="E134" t="n">
         <v>22</v>
@@ -13198,13 +13198,13 @@
         <v>0.65</v>
       </c>
       <c r="K134" t="n">
-        <v>0.3120501792114694</v>
+        <v>0.3120501792114695</v>
       </c>
       <c r="L134" t="n">
         <v>0.2058351254480286</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05186867807963304</v>
+        <v>0.05186867807963292</v>
       </c>
       <c r="N134" t="n">
         <v>0</v>
@@ -13225,7 +13225,7 @@
         <v>44357</v>
       </c>
       <c r="T134" t="n">
-        <v>-0.07036701697880982</v>
+        <v>-0.0703670169788097</v>
       </c>
       <c r="U134" t="n">
         <v>0.1813543679648276</v>
@@ -13234,13 +13234,13 @@
         <v>0.07175844848871092</v>
       </c>
       <c r="W134" t="n">
-        <v>0.07036701697880982</v>
+        <v>0.0703670169788097</v>
       </c>
       <c r="X134" t="n">
-        <v>0.05186867807963304</v>
+        <v>0.05186867807963292</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.3120501792114694</v>
+        <v>0.3120501792114695</v>
       </c>
       <c r="Z134" t="n">
         <v>0.07175844848871092</v>
@@ -13261,7 +13261,7 @@
         <v>-0</v>
       </c>
       <c r="AF134" t="n">
-        <v>0.5060443227586232</v>
+        <v>0.506044322758623</v>
       </c>
     </row>
     <row r="135">
@@ -13279,7 +13279,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.476108907021605</v>
+        <v>0.4761089070216047</v>
       </c>
       <c r="E135" t="n">
         <v>22</v>
@@ -13302,13 +13302,13 @@
         <v>0.45</v>
       </c>
       <c r="K135" t="n">
-        <v>0.2717708333333335</v>
+        <v>0.2717708333333333</v>
       </c>
       <c r="L135" t="n">
-        <v>0.08131944444444447</v>
+        <v>0.08131944444444446</v>
       </c>
       <c r="M135" t="n">
-        <v>0.06888352887880062</v>
+        <v>0.06888352887880053</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
@@ -13329,22 +13329,22 @@
         <v>44357</v>
       </c>
       <c r="T135" t="n">
-        <v>0.1263854728025849</v>
+        <v>0.1263854728025847</v>
       </c>
       <c r="U135" t="n">
-        <v>-0.02704548522742353</v>
+        <v>-0.02704548522742355</v>
       </c>
       <c r="V135" t="n">
         <v>0.08039646317969557</v>
       </c>
       <c r="W135" t="n">
-        <v>-0.1263854728025849</v>
+        <v>-0.1263854728025847</v>
       </c>
       <c r="X135" t="n">
-        <v>0.06888352887880062</v>
+        <v>0.06888352887880053</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.2717708333333335</v>
+        <v>0.2717708333333333</v>
       </c>
       <c r="Z135" t="n">
         <v>0.08039646317969557</v>
@@ -13383,7 +13383,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.4835802469135802</v>
+        <v>0.4835802469135801</v>
       </c>
       <c r="E136" t="n">
         <v>22</v>
@@ -13412,7 +13412,7 @@
         <v>0.2249355158730158</v>
       </c>
       <c r="M136" t="n">
-        <v>0.04136936132620944</v>
+        <v>0.04136936132620939</v>
       </c>
       <c r="N136" t="n">
         <v>76</v>
@@ -13433,7 +13433,7 @@
         <v>44357</v>
       </c>
       <c r="T136" t="n">
-        <v>0.08726987046870582</v>
+        <v>0.08726987046870577</v>
       </c>
       <c r="U136" t="n">
         <v>-0.1064778291408547</v>
@@ -13442,10 +13442,10 @@
         <v>0.2703504601579117</v>
       </c>
       <c r="W136" t="n">
-        <v>-0.08726987046870582</v>
+        <v>-0.08726987046870577</v>
       </c>
       <c r="X136" t="n">
-        <v>0.04136936132620944</v>
+        <v>0.04136936132620939</v>
       </c>
       <c r="Y136" t="n">
         <v>0.1805456349206349</v>
@@ -13487,7 +13487,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.5045767950546838</v>
+        <v>0.5045767950546837</v>
       </c>
       <c r="E137" t="n">
         <v>22</v>
@@ -13510,13 +13510,13 @@
         <v>0.58</v>
       </c>
       <c r="K137" t="n">
-        <v>0.2130884450784594</v>
+        <v>0.2130884450784593</v>
       </c>
       <c r="L137" t="n">
         <v>0.1623751783166904</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05671295999625429</v>
+        <v>0.05671295999625454</v>
       </c>
       <c r="N137" t="n">
         <v>0</v>
@@ -13540,22 +13540,22 @@
         <v>0.07264985286859527</v>
       </c>
       <c r="U137" t="n">
-        <v>-0.01294324986759149</v>
+        <v>-0.01294324986759141</v>
       </c>
       <c r="V137" t="n">
-        <v>0.1738854196467312</v>
+        <v>0.1738854196467311</v>
       </c>
       <c r="W137" t="n">
         <v>-0.07264985286859527</v>
       </c>
       <c r="X137" t="n">
-        <v>0.05671295999625429</v>
+        <v>0.05671295999625454</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.2130884450784594</v>
+        <v>0.2130884450784593</v>
       </c>
       <c r="Z137" t="n">
-        <v>0.1738854196467312</v>
+        <v>0.1738854196467311</v>
       </c>
       <c r="AA137" t="n">
         <v>-0</v>
@@ -13614,13 +13614,13 @@
         <v>0.47</v>
       </c>
       <c r="K138" t="n">
-        <v>0.4216538571021918</v>
+        <v>0.4216538571021917</v>
       </c>
       <c r="L138" t="n">
         <v>0.09381440364360945</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0379180179954268</v>
+        <v>0.0379180179954267</v>
       </c>
       <c r="N138" t="n">
         <v>0</v>
@@ -13644,7 +13644,7 @@
         <v>0.06889570244606152</v>
       </c>
       <c r="U138" t="n">
-        <v>0.03053315364360945</v>
+        <v>0.03053315364360944</v>
       </c>
       <c r="V138" t="n">
         <v>0.04669606148843652</v>
@@ -13653,10 +13653,10 @@
         <v>-0.06889570244606152</v>
       </c>
       <c r="X138" t="n">
-        <v>0.0379180179954268</v>
+        <v>0.0379180179954267</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.4216538571021918</v>
+        <v>0.4216538571021917</v>
       </c>
       <c r="Z138" t="n">
         <v>0.04669606148843652</v>
@@ -13677,7 +13677,7 @@
         <v>-0</v>
       </c>
       <c r="AF138" t="n">
-        <v>0.4373722341399936</v>
+        <v>0.4373722341399934</v>
       </c>
     </row>
     <row r="139">
@@ -13695,7 +13695,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.7694932935916542</v>
+        <v>0.7694932935916544</v>
       </c>
       <c r="E139" t="n">
         <v>22</v>
@@ -13718,13 +13718,13 @@
         <v>0.65</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1586338797814208</v>
+        <v>0.1586338797814207</v>
       </c>
       <c r="L139" t="n">
         <v>0.05757741347905282</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1158046434207072</v>
+        <v>0.1158046434207073</v>
       </c>
       <c r="N139" t="n">
         <v>0</v>
@@ -13745,7 +13745,7 @@
         <v>44357</v>
       </c>
       <c r="T139" t="n">
-        <v>0.2524431038845428</v>
+        <v>0.2524431038845431</v>
       </c>
       <c r="U139" t="n">
         <v>-0.1062947561970722</v>
@@ -13754,13 +13754,13 @@
         <v>0.1405410208559284</v>
       </c>
       <c r="W139" t="n">
-        <v>-0.2524431038845428</v>
+        <v>-0.2524431038845431</v>
       </c>
       <c r="X139" t="n">
-        <v>0.1158046434207072</v>
+        <v>0.1158046434207073</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.1586338797814208</v>
+        <v>0.1586338797814207</v>
       </c>
       <c r="Z139" t="n">
         <v>0.1405410208559284</v>
@@ -13781,7 +13781,7 @@
         <v>-0</v>
       </c>
       <c r="AF139" t="n">
-        <v>0.1625364401735135</v>
+        <v>0.1625364401735134</v>
       </c>
     </row>
     <row r="140">
@@ -13799,7 +13799,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.6908550947260622</v>
+        <v>0.6908550947260623</v>
       </c>
       <c r="E140" t="n">
         <v>22</v>
@@ -13849,16 +13849,16 @@
         <v>44357</v>
       </c>
       <c r="T140" t="n">
-        <v>0.0682755277124627</v>
+        <v>0.06827552771246315</v>
       </c>
       <c r="U140" t="n">
-        <v>0.03429792180347162</v>
+        <v>0.03429792180347165</v>
       </c>
       <c r="V140" t="n">
-        <v>0.0936348246148361</v>
+        <v>0.09363482461483609</v>
       </c>
       <c r="W140" t="n">
-        <v>-0.0682755277124627</v>
+        <v>-0.06827552771246315</v>
       </c>
       <c r="X140" t="n">
         <v>0.1105018609863345</v>
@@ -13867,7 +13867,7 @@
         <v>0.2670722505187699</v>
       </c>
       <c r="Z140" t="n">
-        <v>0.0936348246148361</v>
+        <v>0.09363482461483609</v>
       </c>
       <c r="AA140" t="n">
         <v>-0</v>
@@ -13885,7 +13885,7 @@
         <v>-0</v>
       </c>
       <c r="AF140" t="n">
-        <v>0.4029334084074778</v>
+        <v>0.4029334084074774</v>
       </c>
     </row>
     <row r="141">
@@ -13903,7 +13903,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.3793478393666539</v>
+        <v>0.3793478393666541</v>
       </c>
       <c r="E141" t="n">
         <v>22</v>
@@ -13932,7 +13932,7 @@
         <v>0.007079021636876764</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1924286219183876</v>
+        <v>0.1924286219183877</v>
       </c>
       <c r="N141" t="n">
         <v>0</v>
@@ -13953,19 +13953,19 @@
         <v>44357</v>
       </c>
       <c r="T141" t="n">
-        <v>-0.05243442352450262</v>
+        <v>-0.05243442352450239</v>
       </c>
       <c r="U141" t="n">
-        <v>-0.0350430075127188</v>
+        <v>-0.03504300751271881</v>
       </c>
       <c r="V141" t="n">
         <v>0.03794809545475001</v>
       </c>
       <c r="W141" t="n">
-        <v>0.05243442352450262</v>
+        <v>0.05243442352450239</v>
       </c>
       <c r="X141" t="n">
-        <v>0.1924286219183876</v>
+        <v>0.1924286219183877</v>
       </c>
       <c r="Y141" t="n">
         <v>0.216219818124804</v>
@@ -13989,7 +13989,7 @@
         <v>-0</v>
       </c>
       <c r="AF141" t="n">
-        <v>0.4990309590224443</v>
+        <v>0.4990309590224442</v>
       </c>
     </row>
     <row r="142">
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.515833604247941</v>
+        <v>0.5158336042479411</v>
       </c>
       <c r="E142" t="n">
         <v>22</v>
@@ -14036,7 +14036,7 @@
         <v>0.1345434185811299</v>
       </c>
       <c r="M142" t="n">
-        <v>0.04016799285823718</v>
+        <v>0.04016799285823717</v>
       </c>
       <c r="N142" t="n">
         <v>0</v>
@@ -14057,19 +14057,19 @@
         <v>44357</v>
       </c>
       <c r="T142" t="n">
-        <v>0.09218063296559809</v>
+        <v>0.0921806329655982</v>
       </c>
       <c r="U142" t="n">
-        <v>-0.02518551706478042</v>
+        <v>-0.0251855170647805</v>
       </c>
       <c r="V142" t="n">
         <v>0.1581937603557032</v>
       </c>
       <c r="W142" t="n">
-        <v>-0.09218063296559809</v>
+        <v>-0.0921806329655982</v>
       </c>
       <c r="X142" t="n">
-        <v>0.04016799285823718</v>
+        <v>0.04016799285823717</v>
       </c>
       <c r="Y142" t="n">
         <v>0.1432740933391128</v>
@@ -14140,7 +14140,7 @@
         <v>0.308934747521328</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0318589423921632</v>
+        <v>0.03185894239216315</v>
       </c>
       <c r="N143" t="n">
         <v>0</v>
@@ -14161,7 +14161,7 @@
         <v>44357</v>
       </c>
       <c r="T143" t="n">
-        <v>-0.04353912983050662</v>
+        <v>-0.04353912983050651</v>
       </c>
       <c r="U143" t="n">
         <v>0.1855078990682604</v>
@@ -14170,10 +14170,10 @@
         <v>0.2652595171449251</v>
       </c>
       <c r="W143" t="n">
-        <v>0.04353912983050662</v>
+        <v>0.04353912983050651</v>
       </c>
       <c r="X143" t="n">
-        <v>0.0318589423921632</v>
+        <v>0.03185894239216315</v>
       </c>
       <c r="Y143" t="n">
         <v>0.1265775113365614</v>
@@ -14197,7 +14197,7 @@
         <v>-0</v>
       </c>
       <c r="AF143" t="n">
-        <v>0.4672351007041563</v>
+        <v>0.4672351007041562</v>
       </c>
     </row>
     <row r="144">
@@ -14244,7 +14244,7 @@
         <v>0.02533162393162394</v>
       </c>
       <c r="M144" t="n">
-        <v>0.08635099740385072</v>
+        <v>0.08635099740385059</v>
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
@@ -14255,7 +14255,7 @@
         <v>44385</v>
       </c>
       <c r="T144" t="n">
-        <v>0.2038931237813635</v>
+        <v>0.2038931237813634</v>
       </c>
       <c r="U144" t="n">
         <v>-0.1805035015164047</v>
@@ -14264,10 +14264,10 @@
         <v>0.07395107195822187</v>
       </c>
       <c r="W144" t="n">
-        <v>-0.2038931237813635</v>
+        <v>-0.2038931237813634</v>
       </c>
       <c r="X144" t="n">
-        <v>0.08635099740385072</v>
+        <v>0.08635099740385059</v>
       </c>
       <c r="Y144" t="n">
         <v>0.1175042735042736</v>
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="AF144" t="n">
-        <v>0.07391321908498265</v>
+        <v>0.07391321908498263</v>
       </c>
     </row>
     <row r="145">
@@ -14309,7 +14309,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.3793478393666539</v>
+        <v>0.3793478393666541</v>
       </c>
       <c r="E145" t="n">
         <v>23</v>
@@ -14332,13 +14332,13 @@
         <v>0.53</v>
       </c>
       <c r="K145" t="n">
-        <v>0.4347886108714412</v>
+        <v>0.4347886108714411</v>
       </c>
       <c r="L145" t="n">
-        <v>0.262664098173516</v>
+        <v>0.2626640981735159</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06386950381005196</v>
+        <v>0.0638695038100522</v>
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
@@ -14355,19 +14355,19 @@
         <v>0</v>
       </c>
       <c r="V145" t="n">
-        <v>0.05059746060633333</v>
+        <v>0.05059746060633335</v>
       </c>
       <c r="W145" t="n">
         <v>-0</v>
       </c>
       <c r="X145" t="n">
-        <v>0.06386950381005196</v>
+        <v>0.0638695038100522</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.4347886108714412</v>
+        <v>0.4347886108714411</v>
       </c>
       <c r="Z145" t="n">
-        <v>0.05059746060633333</v>
+        <v>0.05059746060633335</v>
       </c>
       <c r="AA145" t="n">
         <v>0</v>
@@ -14385,7 +14385,7 @@
         <v>0</v>
       </c>
       <c r="AF145" t="n">
-        <v>0.5492555752878265</v>
+        <v>0.5492555752878266</v>
       </c>
     </row>
     <row r="146">
@@ -14403,7 +14403,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.6688452965555673</v>
+        <v>0.6688452965555671</v>
       </c>
       <c r="E146" t="n">
         <v>23</v>
@@ -14432,7 +14432,7 @@
         <v>0.04092745446313516</v>
       </c>
       <c r="M146" t="n">
-        <v>0.08445659053087588</v>
+        <v>0.08445659053087592</v>
       </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
@@ -14443,25 +14443,25 @@
         <v>44385</v>
       </c>
       <c r="T146" t="n">
-        <v>-0.04255480554850577</v>
+        <v>-0.04255480554850599</v>
       </c>
       <c r="U146" t="n">
         <v>-0.0008276416240908802</v>
       </c>
       <c r="V146" t="n">
-        <v>0.07032320905393294</v>
+        <v>0.07032320905393291</v>
       </c>
       <c r="W146" t="n">
-        <v>0.04255480554850577</v>
+        <v>0.04255480554850599</v>
       </c>
       <c r="X146" t="n">
-        <v>0.08445659053087588</v>
+        <v>0.08445659053087592</v>
       </c>
       <c r="Y146" t="n">
         <v>0.1312384634137847</v>
       </c>
       <c r="Z146" t="n">
-        <v>0.07032320905393294</v>
+        <v>0.07032320905393291</v>
       </c>
       <c r="AA146" t="n">
         <v>0</v>
@@ -14479,7 +14479,7 @@
         <v>0</v>
       </c>
       <c r="AF146" t="n">
-        <v>0.3285730685470993</v>
+        <v>0.3285730685470995</v>
       </c>
     </row>
     <row r="147">
@@ -14497,7 +14497,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.466222505751778</v>
+        <v>0.4662225057517779</v>
       </c>
       <c r="E147" t="n">
         <v>23</v>
@@ -14523,10 +14523,10 @@
         <v>0.09835303051877164</v>
       </c>
       <c r="L147" t="n">
-        <v>0.2368194978404291</v>
+        <v>0.236819497840429</v>
       </c>
       <c r="M147" t="n">
-        <v>0.03814942388901809</v>
+        <v>0.03814942388901813</v>
       </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
@@ -14537,19 +14537,19 @@
         <v>44385</v>
       </c>
       <c r="T147" t="n">
-        <v>-0.04961109849616302</v>
+        <v>-0.04961109849616319</v>
       </c>
       <c r="U147" t="n">
-        <v>0.1022760792592992</v>
+        <v>0.1022760792592991</v>
       </c>
       <c r="V147" t="n">
         <v>0.1614856111363934</v>
       </c>
       <c r="W147" t="n">
-        <v>0.04961109849616302</v>
+        <v>0.04961109849616319</v>
       </c>
       <c r="X147" t="n">
-        <v>0.03814942388901809</v>
+        <v>0.03814942388901813</v>
       </c>
       <c r="Y147" t="n">
         <v>0.09835303051877164</v>
@@ -14573,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="AF147" t="n">
-        <v>0.3475991640403461</v>
+        <v>0.3475991640403463</v>
       </c>
     </row>
     <row r="148">
@@ -14620,7 +14620,7 @@
         <v>0</v>
       </c>
       <c r="M148" t="n">
-        <v>0.07763790665511107</v>
+        <v>0.07763790665511106</v>
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
@@ -14634,7 +14634,7 @@
         <v>0.08302136752136746</v>
       </c>
       <c r="U148" t="n">
-        <v>-0.07628205128205127</v>
+        <v>-0.07628205128205129</v>
       </c>
       <c r="V148" t="n">
         <v>0.05570985042735042</v>
@@ -14643,7 +14643,7 @@
         <v>-0.08302136752136746</v>
       </c>
       <c r="X148" t="n">
-        <v>0.07763790665511107</v>
+        <v>0.07763790665511106</v>
       </c>
       <c r="Y148" t="n">
         <v>0.3546410256410256</v>
@@ -14685,7 +14685,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.3715977622540458</v>
+        <v>0.3715977622540459</v>
       </c>
       <c r="E149" t="n">
         <v>23</v>
@@ -14708,13 +14708,13 @@
         <v>0.45</v>
       </c>
       <c r="K149" t="n">
-        <v>0.2064646641052509</v>
+        <v>0.2064646641052508</v>
       </c>
       <c r="L149" t="n">
         <v>0.06990918616835484</v>
       </c>
       <c r="M149" t="n">
-        <v>0.0744928797093037</v>
+        <v>0.07449287970930357</v>
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
@@ -14725,25 +14725,25 @@
         <v>44385</v>
       </c>
       <c r="T149" t="n">
-        <v>-0.1045111447675592</v>
+        <v>-0.1045111447675588</v>
       </c>
       <c r="U149" t="n">
-        <v>-0.01141025827608963</v>
+        <v>-0.01141025827608962</v>
       </c>
       <c r="V149" t="n">
-        <v>0.07554268019462362</v>
+        <v>0.07554268019462361</v>
       </c>
       <c r="W149" t="n">
-        <v>0.1045111447675592</v>
+        <v>0.1045111447675588</v>
       </c>
       <c r="X149" t="n">
-        <v>0.0744928797093037</v>
+        <v>0.07449287970930357</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.2064646641052509</v>
+        <v>0.2064646641052508</v>
       </c>
       <c r="Z149" t="n">
-        <v>0.07554268019462362</v>
+        <v>0.07554268019462361</v>
       </c>
       <c r="AA149" t="n">
         <v>0</v>
@@ -14761,7 +14761,7 @@
         <v>0</v>
       </c>
       <c r="AF149" t="n">
-        <v>0.4610113687767374</v>
+        <v>0.4610113687767368</v>
       </c>
     </row>
     <row r="150">
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.3301787234042552</v>
+        <v>0.3301787234042553</v>
       </c>
       <c r="E150" t="n">
         <v>23</v>
@@ -14802,13 +14802,13 @@
         <v>0.5</v>
       </c>
       <c r="K150" t="n">
-        <v>0.333841134751773</v>
+        <v>0.3338411347517729</v>
       </c>
       <c r="L150" t="n">
         <v>0.06061560283687941</v>
       </c>
       <c r="M150" t="n">
-        <v>0.2393034621271802</v>
+        <v>0.2393034621271803</v>
       </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
@@ -14819,7 +14819,7 @@
         <v>44385</v>
       </c>
       <c r="T150" t="n">
-        <v>0.3301787234042552</v>
+        <v>0.3301787234042553</v>
       </c>
       <c r="U150" t="n">
         <v>-0.02827328605200947</v>
@@ -14828,13 +14828,13 @@
         <v>0.07475224586288415</v>
       </c>
       <c r="W150" t="n">
-        <v>-0.3301787234042552</v>
+        <v>-0.3301787234042553</v>
       </c>
       <c r="X150" t="n">
-        <v>0.2393034621271802</v>
+        <v>0.2393034621271803</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.333841134751773</v>
+        <v>0.3338411347517729</v>
       </c>
       <c r="Z150" t="n">
         <v>0.07475224586288415</v>
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="AF150" t="n">
-        <v>0.3177181193375822</v>
+        <v>0.3177181193375821</v>
       </c>
     </row>
     <row r="151">
@@ -14873,7 +14873,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.5999389201062655</v>
+        <v>0.5999389201062654</v>
       </c>
       <c r="E151" t="n">
         <v>23</v>
@@ -14896,13 +14896,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1301499571550986</v>
+        <v>0.1301499571550985</v>
       </c>
       <c r="L151" t="n">
         <v>0.1821036846615253</v>
       </c>
       <c r="M151" t="n">
-        <v>0.08403390828710303</v>
+        <v>0.08403390828710293</v>
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
@@ -14925,10 +14925,10 @@
         <v>-0.1163586731926853</v>
       </c>
       <c r="X151" t="n">
-        <v>0.08403390828710303</v>
+        <v>0.08403390828710293</v>
       </c>
       <c r="Y151" t="n">
-        <v>0.1301499571550986</v>
+        <v>0.1301499571550985</v>
       </c>
       <c r="Z151" t="n">
         <v>0.2574336492076157</v>
@@ -14949,7 +14949,7 @@
         <v>0</v>
       </c>
       <c r="AF151" t="n">
-        <v>0.3552588414571321</v>
+        <v>0.3552588414571319</v>
       </c>
     </row>
     <row r="152">
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.3350709578663347</v>
+        <v>0.3350709578663346</v>
       </c>
       <c r="E152" t="n">
         <v>23</v>
@@ -14990,13 +14990,13 @@
         <v>0.478</v>
       </c>
       <c r="K152" t="n">
-        <v>0.2246147260273973</v>
+        <v>0.2246147260273972</v>
       </c>
       <c r="L152" t="n">
-        <v>0.262664098173516</v>
+        <v>0.2626640981735159</v>
       </c>
       <c r="M152" t="n">
-        <v>0.02829674942775285</v>
+        <v>0.02829674942775278</v>
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
@@ -15007,22 +15007,22 @@
         <v>44385</v>
       </c>
       <c r="T152" t="n">
-        <v>-0.0209867922192572</v>
+        <v>-0.02098679221925726</v>
       </c>
       <c r="U152" t="n">
-        <v>-0.046270649347812</v>
+        <v>-0.04627064934781211</v>
       </c>
       <c r="V152" t="n">
         <v>0.2337079108343097</v>
       </c>
       <c r="W152" t="n">
-        <v>0.0209867922192572</v>
+        <v>0.02098679221925726</v>
       </c>
       <c r="X152" t="n">
-        <v>0.02829674942775285</v>
+        <v>0.02829674942775278</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.2246147260273973</v>
+        <v>0.2246147260273972</v>
       </c>
       <c r="Z152" t="n">
         <v>0.2337079108343097</v>
@@ -15043,7 +15043,7 @@
         <v>0</v>
       </c>
       <c r="AF152" t="n">
-        <v>0.507606178508717</v>
+        <v>0.5076061785087169</v>
       </c>
     </row>
     <row r="153">
@@ -15061,7 +15061,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.5941682970345761</v>
+        <v>0.594168297034576</v>
       </c>
       <c r="E153" t="n">
         <v>23</v>
@@ -15084,13 +15084,13 @@
         <v>0.65</v>
       </c>
       <c r="K153" t="n">
-        <v>0.3349203273040483</v>
+        <v>0.3349203273040484</v>
       </c>
       <c r="L153" t="n">
         <v>0.08255813953488371</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1096746411492204</v>
+        <v>0.1096746411492203</v>
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
@@ -15101,7 +15101,7 @@
         <v>44385</v>
       </c>
       <c r="T153" t="n">
-        <v>-0.09668679769148614</v>
+        <v>-0.09668679769148636</v>
       </c>
       <c r="U153" t="n">
         <v>-0.03214191705821189</v>
@@ -15110,13 +15110,13 @@
         <v>0.1078703407307072</v>
       </c>
       <c r="W153" t="n">
-        <v>0.09668679769148614</v>
+        <v>0.09668679769148636</v>
       </c>
       <c r="X153" t="n">
-        <v>0.1096746411492204</v>
+        <v>0.1096746411492203</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.3349203273040483</v>
+        <v>0.3349203273040484</v>
       </c>
       <c r="Z153" t="n">
         <v>0.1078703407307072</v>
@@ -15137,7 +15137,7 @@
         <v>0</v>
       </c>
       <c r="AF153" t="n">
-        <v>0.649152106875462</v>
+        <v>0.6491521068754622</v>
       </c>
     </row>
     <row r="154">
@@ -15155,7 +15155,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.7006927910052911</v>
+        <v>0.7006927910052912</v>
       </c>
       <c r="E154" t="n">
         <v>23</v>
@@ -15184,7 +15184,7 @@
         <v>0.05380291005291006</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1367210929317492</v>
+        <v>0.1367210929317494</v>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
@@ -15207,7 +15207,7 @@
         <v>-0.01485085978835965</v>
       </c>
       <c r="X154" t="n">
-        <v>0.1367210929317492</v>
+        <v>0.1367210929317494</v>
       </c>
       <c r="Y154" t="n">
         <v>0.104932208994709</v>
@@ -15231,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="AF154" t="n">
-        <v>0.3553356592880955</v>
+        <v>0.3553356592880957</v>
       </c>
     </row>
     <row r="155">
@@ -15249,7 +15249,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.5352009168238284</v>
+        <v>0.5352009168238283</v>
       </c>
       <c r="E155" t="n">
         <v>23</v>
@@ -15272,13 +15272,13 @@
         <v>0.65</v>
       </c>
       <c r="K155" t="n">
-        <v>0.221234420578096</v>
+        <v>0.2212344205780959</v>
       </c>
       <c r="L155" t="n">
         <v>0.1168953858392999</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1150910141325335</v>
+        <v>0.1150910141325337</v>
       </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
@@ -15289,7 +15289,7 @@
         <v>44385</v>
       </c>
       <c r="T155" t="n">
-        <v>-0.2342923767678258</v>
+        <v>-0.2342923767678261</v>
       </c>
       <c r="U155" t="n">
         <v>0.05931797236024708</v>
@@ -15298,13 +15298,13 @@
         <v>0.1336033589557392</v>
       </c>
       <c r="W155" t="n">
-        <v>0.2342923767678258</v>
+        <v>0.2342923767678261</v>
       </c>
       <c r="X155" t="n">
-        <v>0.1150910141325335</v>
+        <v>0.1150910141325337</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.221234420578096</v>
+        <v>0.2212344205780959</v>
       </c>
       <c r="Z155" t="n">
         <v>0.1336033589557392</v>
@@ -15325,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="AF155" t="n">
-        <v>0.7042211704341944</v>
+        <v>0.7042211704341949</v>
       </c>
     </row>
     <row r="156">
@@ -15366,13 +15366,13 @@
         <v>0.47</v>
       </c>
       <c r="K156" t="n">
-        <v>0.4347886108714412</v>
+        <v>0.4347886108714411</v>
       </c>
       <c r="L156" t="n">
-        <v>0.03208800690250215</v>
+        <v>0.03208800690250216</v>
       </c>
       <c r="M156" t="n">
-        <v>0.05139723409502394</v>
+        <v>0.05139723409502388</v>
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
@@ -15386,7 +15386,7 @@
         <v>0.03928374996653627</v>
       </c>
       <c r="U156" t="n">
-        <v>-0.0617263967411073</v>
+        <v>-0.06172639674110729</v>
       </c>
       <c r="V156" t="n">
         <v>0.05471806321406206</v>
@@ -15395,10 +15395,10 @@
         <v>-0.03928374996653627</v>
       </c>
       <c r="X156" t="n">
-        <v>0.05139723409502394</v>
+        <v>0.05139723409502388</v>
       </c>
       <c r="Y156" t="n">
-        <v>0.4347886108714412</v>
+        <v>0.4347886108714411</v>
       </c>
       <c r="Z156" t="n">
         <v>0.05471806321406206</v>
@@ -15419,7 +15419,7 @@
         <v>0</v>
       </c>
       <c r="AF156" t="n">
-        <v>0.501620158213991</v>
+        <v>0.5016201582139908</v>
       </c>
     </row>
     <row r="157">
@@ -15463,10 +15463,10 @@
         <v>0.1882040229885057</v>
       </c>
       <c r="L157" t="n">
-        <v>0.2299521072796935</v>
+        <v>0.2299521072796934</v>
       </c>
       <c r="M157" t="n">
-        <v>0.05145654907388698</v>
+        <v>0.0514565490738872</v>
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
@@ -15477,19 +15477,19 @@
         <v>44385</v>
       </c>
       <c r="T157" t="n">
-        <v>0.01066905424288955</v>
+        <v>0.01066905424288966</v>
       </c>
       <c r="U157" t="n">
-        <v>0.0675769289630031</v>
+        <v>0.06757692896300299</v>
       </c>
       <c r="V157" t="n">
         <v>0.1918076940053324</v>
       </c>
       <c r="W157" t="n">
-        <v>-0.01066905424288955</v>
+        <v>-0.01066905424288966</v>
       </c>
       <c r="X157" t="n">
-        <v>0.05145654907388698</v>
+        <v>0.0514565490738872</v>
       </c>
       <c r="Y157" t="n">
         <v>0.1882040229885057</v>
@@ -15513,7 +15513,7 @@
         <v>0</v>
       </c>
       <c r="AF157" t="n">
-        <v>0.4207992118248355</v>
+        <v>0.4207992118248356</v>
       </c>
     </row>
     <row r="158">
@@ -15554,13 +15554,13 @@
         <v>0.65</v>
       </c>
       <c r="K158" t="n">
-        <v>0.2225756290641789</v>
+        <v>0.2225756290641788</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04059761096974838</v>
+        <v>0.04059761096974839</v>
       </c>
       <c r="M158" t="n">
-        <v>0.2975773340059325</v>
+        <v>0.2975773340059326</v>
       </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
@@ -15571,25 +15571,25 @@
         <v>44385</v>
       </c>
       <c r="T158" t="n">
-        <v>0.1018330682782018</v>
+        <v>0.101833068278202</v>
       </c>
       <c r="U158" t="n">
-        <v>0.002413087160224571</v>
+        <v>0.002413087160224585</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4263431163920191</v>
+        <v>0.426343116392019</v>
       </c>
       <c r="W158" t="n">
-        <v>-0.1018330682782018</v>
+        <v>-0.101833068278202</v>
       </c>
       <c r="X158" t="n">
-        <v>0.2975773340059325</v>
+        <v>0.2975773340059326</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.2225756290641789</v>
+        <v>0.2225756290641788</v>
       </c>
       <c r="Z158" t="n">
-        <v>0.4263431163920191</v>
+        <v>0.426343116392019</v>
       </c>
       <c r="AA158" t="n">
         <v>0</v>
@@ -15607,7 +15607,7 @@
         <v>0</v>
       </c>
       <c r="AF158" t="n">
-        <v>0.8446630111839286</v>
+        <v>0.8446630111839284</v>
       </c>
     </row>
     <row r="159">
@@ -15648,13 +15648,13 @@
         <v>0.5</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1736842105263157</v>
+        <v>0.1736842105263158</v>
       </c>
       <c r="L159" t="n">
         <v>0.04320175438596491</v>
       </c>
       <c r="M159" t="n">
-        <v>0.2302228612868807</v>
+        <v>0.2302228612868809</v>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
@@ -15665,7 +15665,7 @@
         <v>44385</v>
       </c>
       <c r="T159" t="n">
-        <v>0.1363505156308324</v>
+        <v>0.1363505156308323</v>
       </c>
       <c r="U159" t="n">
         <v>-0.0174138484509145</v>
@@ -15674,13 +15674,13 @@
         <v>0.06423541537057774</v>
       </c>
       <c r="W159" t="n">
-        <v>-0.1363505156308324</v>
+        <v>-0.1363505156308323</v>
       </c>
       <c r="X159" t="n">
-        <v>0.2302228612868807</v>
+        <v>0.2302228612868809</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.1736842105263157</v>
+        <v>0.1736842105263158</v>
       </c>
       <c r="Z159" t="n">
         <v>0.06423541537057774</v>
@@ -15701,7 +15701,7 @@
         <v>0</v>
       </c>
       <c r="AF159" t="n">
-        <v>0.3317919715529418</v>
+        <v>0.3317919715529422</v>
       </c>
     </row>
     <row r="160">
@@ -15719,7 +15719,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.6030570029130942</v>
+        <v>0.6030570029130943</v>
       </c>
       <c r="E160" t="n">
         <v>24</v>
@@ -15742,13 +15742,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1251998961578402</v>
+        <v>0.1251998961578401</v>
       </c>
       <c r="L160" t="n">
         <v>0.1972429906542057</v>
       </c>
       <c r="M160" t="n">
-        <v>0.09985345100570849</v>
+        <v>0.09985345100570844</v>
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
@@ -15759,7 +15759,7 @@
         <v>44385</v>
       </c>
       <c r="T160" t="n">
-        <v>0.003118082806828681</v>
+        <v>0.003118082806828903</v>
       </c>
       <c r="U160" t="n">
         <v>0.0151393059926804</v>
@@ -15768,13 +15768,13 @@
         <v>0.2339238840506543</v>
       </c>
       <c r="W160" t="n">
-        <v>-0.003118082806828681</v>
+        <v>-0.003118082806828903</v>
       </c>
       <c r="X160" t="n">
-        <v>0.09985345100570849</v>
+        <v>0.09985345100570844</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.1251998961578402</v>
+        <v>0.1251998961578401</v>
       </c>
       <c r="Z160" t="n">
         <v>0.2339238840506543</v>
@@ -15795,7 +15795,7 @@
         <v>0</v>
       </c>
       <c r="AF160" t="n">
-        <v>0.4558591484073743</v>
+        <v>0.455859148407374</v>
       </c>
     </row>
     <row r="161">
@@ -15836,13 +15836,13 @@
         <v>0.47</v>
       </c>
       <c r="K161" t="n">
-        <v>0.4068645083932854</v>
+        <v>0.4068645083932853</v>
       </c>
       <c r="L161" t="n">
         <v>0.1149310551558753</v>
       </c>
       <c r="M161" t="n">
-        <v>0.04545720435817375</v>
+        <v>0.04545720435817371</v>
       </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
@@ -15856,22 +15856,22 @@
         <v>-0.03276209770371791</v>
       </c>
       <c r="U161" t="n">
-        <v>0.08284304825337316</v>
+        <v>0.08284304825337314</v>
       </c>
       <c r="V161" t="n">
-        <v>0.07602867892549672</v>
+        <v>0.07602867892549674</v>
       </c>
       <c r="W161" t="n">
         <v>0.03276209770371791</v>
       </c>
       <c r="X161" t="n">
-        <v>0.04545720435817375</v>
+        <v>0.04545720435817371</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.4068645083932854</v>
+        <v>0.4068645083932853</v>
       </c>
       <c r="Z161" t="n">
-        <v>0.07602867892549672</v>
+        <v>0.07602867892549674</v>
       </c>
       <c r="AA161" t="n">
         <v>0</v>
@@ -15889,7 +15889,7 @@
         <v>0</v>
       </c>
       <c r="AF161" t="n">
-        <v>0.5611124893806738</v>
+        <v>0.5611124893806736</v>
       </c>
     </row>
     <row r="162">
@@ -15907,7 +15907,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.4731591154261057</v>
+        <v>0.4731591154261059</v>
       </c>
       <c r="E162" t="n">
         <v>24</v>
@@ -15936,7 +15936,7 @@
         <v>0.05673318950017981</v>
       </c>
       <c r="M162" t="n">
-        <v>0.09091127432080873</v>
+        <v>0.0909112743208086</v>
       </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
@@ -15947,25 +15947,25 @@
         <v>44385</v>
       </c>
       <c r="T162" t="n">
-        <v>-0.1210091816084704</v>
+        <v>-0.1210091816084701</v>
       </c>
       <c r="U162" t="n">
         <v>-0.0258249500347039</v>
       </c>
       <c r="V162" t="n">
-        <v>0.08359838010444577</v>
+        <v>0.08359838010444576</v>
       </c>
       <c r="W162" t="n">
-        <v>0.1210091816084704</v>
+        <v>0.1210091816084701</v>
       </c>
       <c r="X162" t="n">
-        <v>0.09091127432080873</v>
+        <v>0.0909112743208086</v>
       </c>
       <c r="Y162" t="n">
         <v>0.2950988852930601</v>
       </c>
       <c r="Z162" t="n">
-        <v>0.08359838010444577</v>
+        <v>0.08359838010444576</v>
       </c>
       <c r="AA162" t="n">
         <v>0</v>
@@ -15983,7 +15983,7 @@
         <v>0</v>
       </c>
       <c r="AF162" t="n">
-        <v>0.5906177213267849</v>
+        <v>0.5906177213267845</v>
       </c>
     </row>
     <row r="163">
@@ -16001,7 +16001,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.5150679148767104</v>
+        <v>0.5150679148767103</v>
       </c>
       <c r="E163" t="n">
         <v>24</v>
@@ -16030,7 +16030,7 @@
         <v>0.03188973868706182</v>
       </c>
       <c r="M163" t="n">
-        <v>0.06408010297033419</v>
+        <v>0.06408010297033423</v>
       </c>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
@@ -16041,25 +16041,25 @@
         <v>44385</v>
       </c>
       <c r="T163" t="n">
-        <v>0.1357200755100565</v>
+        <v>0.1357200755100562</v>
       </c>
       <c r="U163" t="n">
         <v>0</v>
       </c>
       <c r="V163" t="n">
-        <v>0.02703026315784472</v>
+        <v>0.02703026315784473</v>
       </c>
       <c r="W163" t="n">
-        <v>-0.1357200755100565</v>
+        <v>-0.1357200755100562</v>
       </c>
       <c r="X163" t="n">
-        <v>0.06408010297033419</v>
+        <v>0.06408010297033423</v>
       </c>
       <c r="Y163" t="n">
         <v>0.1121414913957935</v>
       </c>
       <c r="Z163" t="n">
-        <v>0.02703026315784472</v>
+        <v>0.02703026315784473</v>
       </c>
       <c r="AA163" t="n">
         <v>0</v>
@@ -16077,7 +16077,7 @@
         <v>0</v>
       </c>
       <c r="AF163" t="n">
-        <v>0.06753178201391587</v>
+        <v>0.06753178201391624</v>
       </c>
     </row>
     <row r="164">
@@ -16095,7 +16095,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.4204143468545242</v>
+        <v>0.4204143468545241</v>
       </c>
       <c r="E164" t="n">
         <v>24</v>
@@ -16124,7 +16124,7 @@
         <v>0.2642048252092565</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1481329473900322</v>
+        <v>0.1481329473900323</v>
       </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
         <v>0.1147865699693042</v>
       </c>
       <c r="X164" t="n">
-        <v>0.1481329473900322</v>
+        <v>0.1481329473900323</v>
       </c>
       <c r="Y164" t="n">
         <v>0.221770884621697</v>
@@ -16171,7 +16171,7 @@
         <v>0</v>
       </c>
       <c r="AF164" t="n">
-        <v>0.6353278505319669</v>
+        <v>0.6353278505319671</v>
       </c>
     </row>
     <row r="165">
@@ -16189,7 +16189,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.4353669830979394</v>
+        <v>0.4353669830979393</v>
       </c>
       <c r="E165" t="n">
         <v>24</v>
@@ -16212,13 +16212,13 @@
         <v>0.45</v>
       </c>
       <c r="K165" t="n">
-        <v>0.290337269429652</v>
+        <v>0.2903372694296518</v>
       </c>
       <c r="L165" t="n">
         <v>0.01968048159296133</v>
       </c>
       <c r="M165" t="n">
-        <v>0.05804853479327843</v>
+        <v>0.05804853479327823</v>
       </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
@@ -16229,25 +16229,25 @@
         <v>44385</v>
       </c>
       <c r="T165" t="n">
-        <v>0.06376922084389364</v>
+        <v>0.06376922084389341</v>
       </c>
       <c r="U165" t="n">
         <v>-0.05022870457539351</v>
       </c>
       <c r="V165" t="n">
-        <v>0.06981851046940717</v>
+        <v>0.06981851046940715</v>
       </c>
       <c r="W165" t="n">
-        <v>-0.06376922084389364</v>
+        <v>-0.06376922084389341</v>
       </c>
       <c r="X165" t="n">
-        <v>0.05804853479327843</v>
+        <v>0.05804853479327823</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.290337269429652</v>
+        <v>0.2903372694296518</v>
       </c>
       <c r="Z165" t="n">
-        <v>0.06981851046940717</v>
+        <v>0.06981851046940715</v>
       </c>
       <c r="AA165" t="n">
         <v>0</v>
@@ -16265,7 +16265,7 @@
         <v>0</v>
       </c>
       <c r="AF165" t="n">
-        <v>0.354435093848444</v>
+        <v>0.3544350938484437</v>
       </c>
     </row>
     <row r="166">
@@ -16283,7 +16283,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.7156246735610573</v>
+        <v>0.7156246735610574</v>
       </c>
       <c r="E166" t="n">
         <v>24</v>
@@ -16306,13 +16306,13 @@
         <v>0.65</v>
       </c>
       <c r="K166" t="n">
-        <v>0.0929558828650023</v>
+        <v>0.09295588286500232</v>
       </c>
       <c r="L166" t="n">
-        <v>0.04072739301507713</v>
+        <v>0.04072739301507715</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1400053298931266</v>
+        <v>0.1400053298931269</v>
       </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
@@ -16326,7 +16326,7 @@
         <v>0.01493188255576616</v>
       </c>
       <c r="U166" t="n">
-        <v>-0.01307551703783293</v>
+        <v>-0.01307551703783291</v>
       </c>
       <c r="V166" t="n">
         <v>0.1190561884991267</v>
@@ -16335,10 +16335,10 @@
         <v>-0.01493188255576616</v>
       </c>
       <c r="X166" t="n">
-        <v>0.1400053298931266</v>
+        <v>0.1400053298931269</v>
       </c>
       <c r="Y166" t="n">
-        <v>0.0929558828650023</v>
+        <v>0.09295588286500232</v>
       </c>
       <c r="Z166" t="n">
         <v>0.1190561884991267</v>
@@ -16359,7 +16359,7 @@
         <v>0</v>
       </c>
       <c r="AF166" t="n">
-        <v>0.3370855187014894</v>
+        <v>0.3370855187014897</v>
       </c>
     </row>
     <row r="167">
@@ -16377,7 +16377,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.5398818133373934</v>
+        <v>0.5398818133373935</v>
       </c>
       <c r="E167" t="n">
         <v>24</v>
@@ -16400,10 +16400,10 @@
         <v>0.547</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08386622005684125</v>
+        <v>0.08386622005684129</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1592595412099066</v>
+        <v>0.1592595412099067</v>
       </c>
       <c r="M167" t="n">
         <v>0.05186830208385068</v>
@@ -16417,22 +16417,22 @@
         <v>44385</v>
       </c>
       <c r="T167" t="n">
-        <v>0.0736593075856154</v>
+        <v>0.07365930758561556</v>
       </c>
       <c r="U167" t="n">
-        <v>-0.07755995663052251</v>
+        <v>-0.07755995663052229</v>
       </c>
       <c r="V167" t="n">
         <v>0.172587848319344</v>
       </c>
       <c r="W167" t="n">
-        <v>-0.0736593075856154</v>
+        <v>-0.07365930758561556</v>
       </c>
       <c r="X167" t="n">
         <v>0.05186830208385068</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.08386622005684125</v>
+        <v>0.08386622005684129</v>
       </c>
       <c r="Z167" t="n">
         <v>0.172587848319344</v>
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="AF167" t="n">
-        <v>0.2346630628744205</v>
+        <v>0.2346630628744204</v>
       </c>
     </row>
     <row r="168">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.3685402419935601</v>
+        <v>0.3685402419935603</v>
       </c>
       <c r="E168" t="n">
         <v>24</v>
@@ -16500,7 +16500,7 @@
         <v>0.02365906084656085</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08663389145099154</v>
+        <v>0.08663389145099142</v>
       </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
@@ -16511,7 +16511,7 @@
         <v>44385</v>
       </c>
       <c r="T168" t="n">
-        <v>-0.1501603050534436</v>
+        <v>-0.1501603050534435</v>
       </c>
       <c r="U168" t="n">
         <v>-0.00167256308506309</v>
@@ -16520,10 +16520,10 @@
         <v>0.06982664192735359</v>
       </c>
       <c r="W168" t="n">
-        <v>0.1501603050534436</v>
+        <v>0.1501603050534435</v>
       </c>
       <c r="X168" t="n">
-        <v>0.08663389145099154</v>
+        <v>0.08663389145099142</v>
       </c>
       <c r="Y168" t="n">
         <v>0.08006117724867724</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="AF168" t="n">
-        <v>0.386682015680466</v>
+        <v>0.3866820156804657</v>
       </c>
     </row>
     <row r="169">
@@ -16565,7 +16565,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.5470665895730943</v>
+        <v>0.5470665895730942</v>
       </c>
       <c r="E169" t="n">
         <v>24</v>
@@ -16594,7 +16594,7 @@
         <v>0.1706649320612894</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0486560639187805</v>
+        <v>0.04865606391878061</v>
       </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
@@ -16605,19 +16605,19 @@
         <v>44385</v>
       </c>
       <c r="T169" t="n">
-        <v>0.03182074027552095</v>
+        <v>0.03182074027552084</v>
       </c>
       <c r="U169" t="n">
-        <v>-0.0592871752184041</v>
+        <v>-0.05928717521840399</v>
       </c>
       <c r="V169" t="n">
         <v>0.1845776614604888</v>
       </c>
       <c r="W169" t="n">
-        <v>-0.03182074027552095</v>
+        <v>-0.03182074027552084</v>
       </c>
       <c r="X169" t="n">
-        <v>0.0486560639187805</v>
+        <v>0.04865606391878061</v>
       </c>
       <c r="Y169" t="n">
         <v>0.1873836368892744</v>
@@ -16641,7 +16641,7 @@
         <v>0</v>
       </c>
       <c r="AF169" t="n">
-        <v>0.3887966219930228</v>
+        <v>0.3887966219930229</v>
       </c>
     </row>
     <row r="170">
@@ -16659,7 +16659,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.3526639372645148</v>
+        <v>0.3526639372645147</v>
       </c>
       <c r="E170" t="n">
         <v>24</v>
@@ -16682,13 +16682,13 @@
         <v>0.478</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1760194127855341</v>
+        <v>0.176019412785534</v>
       </c>
       <c r="L170" t="n">
         <v>0.2892073979658195</v>
       </c>
       <c r="M170" t="n">
-        <v>0.02742174910226429</v>
+        <v>0.02742174910226423</v>
       </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
         <v>0.01759297939818011</v>
       </c>
       <c r="U170" t="n">
-        <v>0.02654329979230352</v>
+        <v>0.02654329979230363</v>
       </c>
       <c r="V170" t="n">
         <v>0.2460582730284328</v>
@@ -16711,10 +16711,10 @@
         <v>-0.01759297939818011</v>
       </c>
       <c r="X170" t="n">
-        <v>0.02742174910226429</v>
+        <v>0.02742174910226423</v>
       </c>
       <c r="Y170" t="n">
-        <v>0.1760194127855341</v>
+        <v>0.176019412785534</v>
       </c>
       <c r="Z170" t="n">
         <v>0.2460582730284328</v>
@@ -16735,7 +16735,7 @@
         <v>0</v>
       </c>
       <c r="AF170" t="n">
-        <v>0.431906455518051</v>
+        <v>0.4319064555180508</v>
       </c>
     </row>
     <row r="171">
@@ -16776,13 +16776,13 @@
         <v>0.65</v>
       </c>
       <c r="K171" t="n">
-        <v>0.2002066798941799</v>
+        <v>0.20020667989418</v>
       </c>
       <c r="L171" t="n">
-        <v>0.03781415343915344</v>
+        <v>0.03781415343915345</v>
       </c>
       <c r="M171" t="n">
-        <v>0.2172070370841312</v>
+        <v>0.2172070370841314</v>
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
@@ -16805,10 +16805,10 @@
         <v>-0.02300175315036967</v>
       </c>
       <c r="X171" t="n">
-        <v>0.2172070370841312</v>
+        <v>0.2172070370841314</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.2002066798941799</v>
+        <v>0.20020667989418</v>
       </c>
       <c r="Z171" t="n">
         <v>0.1857966547518074</v>
@@ -16829,7 +16829,7 @@
         <v>0</v>
       </c>
       <c r="AF171" t="n">
-        <v>0.5802086185797488</v>
+        <v>0.5802086185797491</v>
       </c>
     </row>
     <row r="172">
@@ -16847,7 +16847,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0.5496239316239316</v>
+        <v>0.5496239316239317</v>
       </c>
       <c r="E172" t="n">
         <v>24</v>
@@ -16870,13 +16870,13 @@
         <v>0.53</v>
       </c>
       <c r="K172" t="n">
-        <v>0.3345042735042738</v>
+        <v>0.3345042735042735</v>
       </c>
       <c r="L172" t="n">
-        <v>0.09922222222222224</v>
+        <v>0.09922222222222221</v>
       </c>
       <c r="M172" t="n">
-        <v>0.03780152999552609</v>
+        <v>0.03780152999552606</v>
       </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
@@ -16887,22 +16887,22 @@
         <v>44385</v>
       </c>
       <c r="T172" t="n">
-        <v>-0.04596581196581195</v>
+        <v>-0.04596581196581184</v>
       </c>
       <c r="U172" t="n">
-        <v>0.09922222222222224</v>
+        <v>0.09922222222222221</v>
       </c>
       <c r="V172" t="n">
         <v>0.06929540598290598</v>
       </c>
       <c r="W172" t="n">
-        <v>0.04596581196581195</v>
+        <v>0.04596581196581184</v>
       </c>
       <c r="X172" t="n">
-        <v>0.03780152999552609</v>
+        <v>0.03780152999552606</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.3345042735042738</v>
+        <v>0.3345042735042735</v>
       </c>
       <c r="Z172" t="n">
         <v>0.06929540598290598</v>
@@ -16923,7 +16923,7 @@
         <v>0</v>
       </c>
       <c r="AF172" t="n">
-        <v>0.4875670214485178</v>
+        <v>0.4875670214485174</v>
       </c>
     </row>
     <row r="173">
@@ -16941,7 +16941,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.4360259379342287</v>
+        <v>0.4360259379342289</v>
       </c>
       <c r="E173" t="n">
         <v>24</v>
@@ -16964,10 +16964,10 @@
         <v>0.65</v>
       </c>
       <c r="K173" t="n">
-        <v>0.05206885903967886</v>
+        <v>0.05206885903967887</v>
       </c>
       <c r="L173" t="n">
-        <v>0.3647522000926354</v>
+        <v>0.3647522000926355</v>
       </c>
       <c r="M173" t="n">
         <v>0.1311036726107905</v>
@@ -16981,7 +16981,7 @@
         <v>44385</v>
       </c>
       <c r="T173" t="n">
-        <v>-0.2328193586213386</v>
+        <v>-0.2328193586213382</v>
       </c>
       <c r="U173" t="n">
         <v>0.3238247456295003</v>
@@ -16990,13 +16990,13 @@
         <v>0.1211791241686857</v>
       </c>
       <c r="W173" t="n">
-        <v>0.2328193586213386</v>
+        <v>0.2328193586213382</v>
       </c>
       <c r="X173" t="n">
         <v>0.1311036726107905</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.05206885903967886</v>
+        <v>0.05206885903967887</v>
       </c>
       <c r="Z173" t="n">
         <v>0.1211791241686857</v>
@@ -17017,7 +17017,7 @@
         <v>0</v>
       </c>
       <c r="AF173" t="n">
-        <v>0.5371710144404936</v>
+        <v>0.5371710144404932</v>
       </c>
     </row>
     <row r="174">
@@ -17064,7 +17064,7 @@
         <v>0.163708132732826</v>
       </c>
       <c r="M174" t="n">
-        <v>0.06872597920950665</v>
+        <v>0.06872597920950672</v>
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
@@ -17075,25 +17075,25 @@
         <v>44385</v>
       </c>
       <c r="T174" t="n">
-        <v>-0.1406772798866036</v>
+        <v>-0.1406772798866034</v>
       </c>
       <c r="U174" t="n">
         <v>0.1318183940457642</v>
       </c>
       <c r="V174" t="n">
-        <v>0.06755896435225486</v>
+        <v>0.06755896435225488</v>
       </c>
       <c r="W174" t="n">
-        <v>0.1406772798866036</v>
+        <v>0.1406772798866034</v>
       </c>
       <c r="X174" t="n">
-        <v>0.06872597920950665</v>
+        <v>0.06872597920950672</v>
       </c>
       <c r="Y174" t="n">
         <v>0.2471838277165191</v>
       </c>
       <c r="Z174" t="n">
-        <v>0.06755896435225486</v>
+        <v>0.06755896435225488</v>
       </c>
       <c r="AA174" t="n">
         <v>0</v>
@@ -17152,13 +17152,13 @@
         <v>0.65</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1980057464746136</v>
+        <v>0.1980057464746134</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04118936902196515</v>
+        <v>0.04118936902196514</v>
       </c>
       <c r="M175" t="n">
-        <v>0.05438656769947388</v>
+        <v>0.05438656769947525</v>
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
@@ -17172,7 +17172,7 @@
         <v>-0.04143874393307678</v>
       </c>
       <c r="U175" t="n">
-        <v>0.003375215582811709</v>
+        <v>0.003375215582811689</v>
       </c>
       <c r="V175" t="n">
         <v>0.0394464143100977</v>
@@ -17181,10 +17181,10 @@
         <v>0.04143874393307678</v>
       </c>
       <c r="X175" t="n">
-        <v>0.05438656769947388</v>
+        <v>0.05438656769947525</v>
       </c>
       <c r="Y175" t="n">
-        <v>0.1980057464746136</v>
+        <v>0.1980057464746134</v>
       </c>
       <c r="Z175" t="n">
         <v>0.0394464143100977</v>
@@ -17205,7 +17205,7 @@
         <v>0</v>
       </c>
       <c r="AF175" t="n">
-        <v>0.333277472417262</v>
+        <v>0.3332774724172631</v>
       </c>
     </row>
     <row r="176">
@@ -17246,13 +17246,13 @@
         <v>0.478</v>
       </c>
       <c r="K176" t="n">
-        <v>0.2016294369645044</v>
+        <v>0.2016294369645043</v>
       </c>
       <c r="L176" t="n">
         <v>0.2444155446756427</v>
       </c>
       <c r="M176" t="n">
-        <v>0.00934310149178133</v>
+        <v>0.009343101491781022</v>
       </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
@@ -17263,25 +17263,25 @@
         <v>44385</v>
       </c>
       <c r="T176" t="n">
-        <v>-0.008010288243706865</v>
+        <v>-0.008010288243706809</v>
       </c>
       <c r="U176" t="n">
         <v>-0.04479185329017682</v>
       </c>
       <c r="V176" t="n">
-        <v>0.2763054470840766</v>
+        <v>0.2763054470840765</v>
       </c>
       <c r="W176" t="n">
-        <v>0.008010288243706865</v>
+        <v>0.008010288243706809</v>
       </c>
       <c r="X176" t="n">
-        <v>0.00934310149178133</v>
+        <v>0.009343101491781022</v>
       </c>
       <c r="Y176" t="n">
-        <v>0.2016294369645044</v>
+        <v>0.2016294369645043</v>
       </c>
       <c r="Z176" t="n">
-        <v>0.2763054470840766</v>
+        <v>0.2763054470840765</v>
       </c>
       <c r="AA176" t="n">
         <v>0</v>
@@ -17299,7 +17299,7 @@
         <v>0</v>
       </c>
       <c r="AF176" t="n">
-        <v>0.4952882737840691</v>
+        <v>0.4952882737840686</v>
       </c>
     </row>
     <row r="177">
@@ -17317,7 +17317,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.6030570029130942</v>
+        <v>0.6030570029130943</v>
       </c>
       <c r="E177" t="n">
         <v>25</v>
@@ -17340,13 +17340,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="K177" t="n">
-        <v>0.3786153846153847</v>
+        <v>0.3786153846153846</v>
       </c>
       <c r="L177" t="n">
-        <v>0.4403093434343434</v>
+        <v>0.4403093434343435</v>
       </c>
       <c r="M177" t="n">
-        <v>0.05923693678516626</v>
+        <v>0.05923693678516608</v>
       </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
@@ -17369,10 +17369,10 @@
         <v>-0</v>
       </c>
       <c r="X177" t="n">
-        <v>0.05923693678516626</v>
+        <v>0.05923693678516608</v>
       </c>
       <c r="Y177" t="n">
-        <v>0.3786153846153847</v>
+        <v>0.3786153846153846</v>
       </c>
       <c r="Z177" t="n">
         <v>0.2014273970629156</v>
@@ -17393,7 +17393,7 @@
         <v>0</v>
       </c>
       <c r="AF177" t="n">
-        <v>0.6392797184634665</v>
+        <v>0.6392797184634662</v>
       </c>
     </row>
     <row r="178">
@@ -17434,13 +17434,13 @@
         <v>0.47</v>
       </c>
       <c r="K178" t="n">
-        <v>0.3786153846153847</v>
+        <v>0.3786153846153846</v>
       </c>
       <c r="L178" t="n">
-        <v>0.4403093434343434</v>
+        <v>0.4403093434343435</v>
       </c>
       <c r="M178" t="n">
-        <v>0.01773646667134219</v>
+        <v>0.01773646667134209</v>
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
@@ -17457,19 +17457,19 @@
         <v>0</v>
       </c>
       <c r="V178" t="n">
-        <v>0.08027782190066229</v>
+        <v>0.08027782190066231</v>
       </c>
       <c r="W178" t="n">
         <v>-0</v>
       </c>
       <c r="X178" t="n">
-        <v>0.01773646667134219</v>
+        <v>0.01773646667134209</v>
       </c>
       <c r="Y178" t="n">
-        <v>0.3786153846153847</v>
+        <v>0.3786153846153846</v>
       </c>
       <c r="Z178" t="n">
-        <v>0.08027782190066229</v>
+        <v>0.08027782190066231</v>
       </c>
       <c r="AA178" t="n">
         <v>0</v>
@@ -17487,7 +17487,7 @@
         <v>0</v>
       </c>
       <c r="AF178" t="n">
-        <v>0.4766296731873892</v>
+        <v>0.476629673187389</v>
       </c>
     </row>
     <row r="179">
@@ -17528,13 +17528,13 @@
         <v>0.65</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1736176433757254</v>
+        <v>0.1736176433757255</v>
       </c>
       <c r="L179" t="n">
-        <v>0.03851698259367873</v>
+        <v>0.03851698259367874</v>
       </c>
       <c r="M179" t="n">
-        <v>0.145425262182011</v>
+        <v>0.1454252621820112</v>
       </c>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr"/>
@@ -17545,22 +17545,22 @@
         <v>44385</v>
       </c>
       <c r="T179" t="n">
-        <v>0.1410969414587711</v>
+        <v>0.1410969414587712</v>
       </c>
       <c r="U179" t="n">
-        <v>-0.2256878426155778</v>
+        <v>-0.2256878426155777</v>
       </c>
       <c r="V179" t="n">
         <v>0.119298651780322</v>
       </c>
       <c r="W179" t="n">
-        <v>-0.1410969414587711</v>
+        <v>-0.1410969414587712</v>
       </c>
       <c r="X179" t="n">
-        <v>0.145425262182011</v>
+        <v>0.1454252621820112</v>
       </c>
       <c r="Y179" t="n">
-        <v>0.1736176433757254</v>
+        <v>0.1736176433757255</v>
       </c>
       <c r="Z179" t="n">
         <v>0.119298651780322</v>
@@ -17581,7 +17581,7 @@
         <v>0</v>
       </c>
       <c r="AF179" t="n">
-        <v>0.2972446158792874</v>
+        <v>0.2972446158792875</v>
       </c>
     </row>
     <row r="180">
@@ -17625,10 +17625,10 @@
         <v>0.141601430976431</v>
       </c>
       <c r="L180" t="n">
-        <v>0.4403093434343434</v>
+        <v>0.4403093434343435</v>
       </c>
       <c r="M180" t="n">
-        <v>0.176738014739556</v>
+        <v>0.1767380147395562</v>
       </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
@@ -17639,25 +17639,25 @@
         <v>44385</v>
       </c>
       <c r="T180" t="n">
-        <v>-0.3675434446048284</v>
+        <v>-0.3675434446048285</v>
       </c>
       <c r="U180" t="n">
-        <v>0.3995819504192663</v>
+        <v>0.3995819504192664</v>
       </c>
       <c r="V180" t="n">
-        <v>0.1423520247208207</v>
+        <v>0.1423520247208208</v>
       </c>
       <c r="W180" t="n">
-        <v>0.3675434446048284</v>
+        <v>0.3675434446048285</v>
       </c>
       <c r="X180" t="n">
-        <v>0.176738014739556</v>
+        <v>0.1767380147395562</v>
       </c>
       <c r="Y180" t="n">
         <v>0.141601430976431</v>
       </c>
       <c r="Z180" t="n">
-        <v>0.1423520247208207</v>
+        <v>0.1423520247208208</v>
       </c>
       <c r="AA180" t="n">
         <v>0</v>
@@ -17675,7 +17675,7 @@
         <v>0</v>
       </c>
       <c r="AF180" t="n">
-        <v>0.8282349150416362</v>
+        <v>0.8282349150416364</v>
       </c>
     </row>
     <row r="181">
@@ -17716,13 +17716,13 @@
         <v>0.547</v>
       </c>
       <c r="K181" t="n">
-        <v>0.0908745247148289</v>
+        <v>0.09087452471482887</v>
       </c>
       <c r="L181" t="n">
         <v>0.1491888466413181</v>
       </c>
       <c r="M181" t="n">
-        <v>0.0314864737579868</v>
+        <v>0.03148647375798667</v>
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
@@ -17733,22 +17733,22 @@
         <v>44385</v>
       </c>
       <c r="T181" t="n">
-        <v>-0.04682572968720328</v>
+        <v>-0.04682572968720339</v>
       </c>
       <c r="U181" t="n">
-        <v>-0.0100706945685885</v>
+        <v>-0.01007069456858861</v>
       </c>
       <c r="V181" t="n">
         <v>0.1699528260681959</v>
       </c>
       <c r="W181" t="n">
-        <v>0.04682572968720328</v>
+        <v>0.04682572968720339</v>
       </c>
       <c r="X181" t="n">
-        <v>0.0314864737579868</v>
+        <v>0.03148647375798667</v>
       </c>
       <c r="Y181" t="n">
-        <v>0.0908745247148289</v>
+        <v>0.09087452471482887</v>
       </c>
       <c r="Z181" t="n">
         <v>0.1699528260681959</v>
@@ -17769,7 +17769,7 @@
         <v>0</v>
       </c>
       <c r="AF181" t="n">
-        <v>0.3391395542282149</v>
+        <v>0.3391395542282148</v>
       </c>
     </row>
     <row r="182">
@@ -17810,13 +17810,13 @@
         <v>0.53</v>
       </c>
       <c r="K182" t="n">
-        <v>0.3786153846153847</v>
+        <v>0.3786153846153846</v>
       </c>
       <c r="L182" t="n">
         <v>0.1081282051282051</v>
       </c>
       <c r="M182" t="n">
-        <v>0.04660985775525123</v>
+        <v>0.04660985775525121</v>
       </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
@@ -17827,25 +17827,25 @@
         <v>44385</v>
       </c>
       <c r="T182" t="n">
-        <v>-0.06088319088319083</v>
+        <v>-0.06088319088319094</v>
       </c>
       <c r="U182" t="n">
-        <v>0.008905982905982865</v>
+        <v>0.008905982905982893</v>
       </c>
       <c r="V182" t="n">
-        <v>0.07090811965811966</v>
+        <v>0.07090811965811965</v>
       </c>
       <c r="W182" t="n">
-        <v>0.06088319088319083</v>
+        <v>0.06088319088319094</v>
       </c>
       <c r="X182" t="n">
-        <v>0.04660985775525123</v>
+        <v>0.04660985775525121</v>
       </c>
       <c r="Y182" t="n">
-        <v>0.3786153846153847</v>
+        <v>0.3786153846153846</v>
       </c>
       <c r="Z182" t="n">
-        <v>0.07090811965811966</v>
+        <v>0.07090811965811965</v>
       </c>
       <c r="AA182" t="n">
         <v>0</v>
@@ -17863,7 +17863,7 @@
         <v>0</v>
       </c>
       <c r="AF182" t="n">
-        <v>0.5570165529119464</v>
+        <v>0.5570165529119463</v>
       </c>
     </row>
     <row r="183">
@@ -17904,13 +17904,13 @@
         <v>0.65</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1756927910052911</v>
+        <v>0.175692791005291</v>
       </c>
       <c r="L183" t="n">
         <v>0.1924140211640212</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1244302525805631</v>
+        <v>0.124430252580563</v>
       </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
@@ -17921,22 +17921,22 @@
         <v>44385</v>
       </c>
       <c r="T183" t="n">
-        <v>0.1116655303197397</v>
+        <v>0.1116655303197395</v>
       </c>
       <c r="U183" t="n">
-        <v>-0.1723381789286142</v>
+        <v>-0.1723381789286143</v>
       </c>
       <c r="V183" t="n">
         <v>0.1599621929517545</v>
       </c>
       <c r="W183" t="n">
-        <v>-0.1116655303197397</v>
+        <v>-0.1116655303197395</v>
       </c>
       <c r="X183" t="n">
-        <v>0.1244302525805631</v>
+        <v>0.124430252580563</v>
       </c>
       <c r="Y183" t="n">
-        <v>0.1756927910052911</v>
+        <v>0.175692791005291</v>
       </c>
       <c r="Z183" t="n">
         <v>0.1599621929517545</v>
@@ -18004,7 +18004,7 @@
         <v>0.123430501783952</v>
       </c>
       <c r="M184" t="n">
-        <v>0.2240815999334091</v>
+        <v>0.2240815999334093</v>
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
@@ -18027,7 +18027,7 @@
         <v>-0.01675966440376453</v>
       </c>
       <c r="X184" t="n">
-        <v>0.2240815999334091</v>
+        <v>0.2240815999334093</v>
       </c>
       <c r="Y184" t="n">
         <v>0.1923062324451529</v>
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="AF184" t="n">
-        <v>0.4786623549487188</v>
+        <v>0.478662354948719</v>
       </c>
     </row>
     <row r="185">
@@ -18069,7 +18069,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0.3866285810185185</v>
+        <v>0.3866285810185183</v>
       </c>
       <c r="E185" t="n">
         <v>25</v>
@@ -18092,13 +18092,13 @@
         <v>0.45</v>
       </c>
       <c r="K185" t="n">
-        <v>0.3542322530864196</v>
+        <v>0.3542322530864195</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04982060185185185</v>
+        <v>0.04982060185185184</v>
       </c>
       <c r="M185" t="n">
-        <v>0.04765945460964798</v>
+        <v>0.04765945460964778</v>
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
@@ -18109,22 +18109,22 @@
         <v>44385</v>
       </c>
       <c r="T185" t="n">
-        <v>-0.04873840207942093</v>
+        <v>-0.04873840207942098</v>
       </c>
       <c r="U185" t="n">
-        <v>0.03014012025889052</v>
+        <v>0.03014012025889051</v>
       </c>
       <c r="V185" t="n">
         <v>0.05518242851440312</v>
       </c>
       <c r="W185" t="n">
-        <v>0.04873840207942093</v>
+        <v>0.04873840207942098</v>
       </c>
       <c r="X185" t="n">
-        <v>0.04765945460964798</v>
+        <v>0.04765945460964778</v>
       </c>
       <c r="Y185" t="n">
-        <v>0.3542322530864196</v>
+        <v>0.3542322530864195</v>
       </c>
       <c r="Z185" t="n">
         <v>0.05518242851440312</v>
@@ -18145,7 +18145,7 @@
         <v>0</v>
       </c>
       <c r="AF185" t="n">
-        <v>0.5058125382898916</v>
+        <v>0.5058125382898914</v>
       </c>
     </row>
     <row r="186">
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0.5666512612966712</v>
+        <v>0.5666512612966713</v>
       </c>
       <c r="E186" t="n">
         <v>25</v>
@@ -18186,13 +18186,13 @@
         <v>0.65</v>
       </c>
       <c r="K186" t="n">
-        <v>0.2335527518742</v>
+        <v>0.2335527518742001</v>
       </c>
       <c r="L186" t="n">
         <v>0.01812488571950997</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1197150452352322</v>
+        <v>0.1197150452352321</v>
       </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
@@ -18203,7 +18203,7 @@
         <v>44385</v>
       </c>
       <c r="T186" t="n">
-        <v>0.1981110193031111</v>
+        <v>0.198111019303111</v>
       </c>
       <c r="U186" t="n">
         <v>-0.005534175127050879</v>
@@ -18212,13 +18212,13 @@
         <v>0.06823767398643084</v>
       </c>
       <c r="W186" t="n">
-        <v>-0.1981110193031111</v>
+        <v>-0.198111019303111</v>
       </c>
       <c r="X186" t="n">
-        <v>0.1197150452352322</v>
+        <v>0.1197150452352321</v>
       </c>
       <c r="Y186" t="n">
-        <v>0.2335527518742</v>
+        <v>0.2335527518742001</v>
       </c>
       <c r="Z186" t="n">
         <v>0.06823767398643084</v>
@@ -18257,7 +18257,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.624969637946838</v>
+        <v>0.6249696379468378</v>
       </c>
       <c r="E187" t="n">
         <v>25</v>
@@ -18286,7 +18286,7 @@
         <v>0.08452490070271926</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0911588124510239</v>
+        <v>0.09115881245102379</v>
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
@@ -18297,25 +18297,25 @@
         <v>44385</v>
       </c>
       <c r="T187" t="n">
-        <v>0.1518105225207323</v>
+        <v>0.1518105225207319</v>
       </c>
       <c r="U187" t="n">
         <v>0.02779171120253945</v>
       </c>
       <c r="V187" t="n">
-        <v>0.08462907158271959</v>
+        <v>0.08462907158271958</v>
       </c>
       <c r="W187" t="n">
-        <v>-0.1518105225207323</v>
+        <v>-0.1518105225207319</v>
       </c>
       <c r="X187" t="n">
-        <v>0.0911588124510239</v>
+        <v>0.09115881245102379</v>
       </c>
       <c r="Y187" t="n">
         <v>0.2010445310113046</v>
       </c>
       <c r="Z187" t="n">
-        <v>0.08462907158271959</v>
+        <v>0.08462907158271958</v>
       </c>
       <c r="AA187" t="n">
         <v>0</v>
@@ -18333,7 +18333,7 @@
         <v>0</v>
       </c>
       <c r="AF187" t="n">
-        <v>0.2250218925243158</v>
+        <v>0.2250218925243161</v>
       </c>
     </row>
     <row r="188">
@@ -18351,7 +18351,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0.5770598994055782</v>
+        <v>0.5770598994055781</v>
       </c>
       <c r="E188" t="n">
         <v>25</v>
@@ -18374,13 +18374,13 @@
         <v>0.58</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1459259259259259</v>
+        <v>0.145925925925926</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1736351165980795</v>
+        <v>0.1736351165980796</v>
       </c>
       <c r="M188" t="n">
-        <v>0.03279500306213014</v>
+        <v>0.03279500306213031</v>
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
@@ -18394,7 +18394,7 @@
         <v>0.02999330983248394</v>
       </c>
       <c r="U188" t="n">
-        <v>0.002970184536790099</v>
+        <v>0.002970184536790182</v>
       </c>
       <c r="V188" t="n">
         <v>0.1841568335639382</v>
@@ -18403,10 +18403,10 @@
         <v>-0.02999330983248394</v>
       </c>
       <c r="X188" t="n">
-        <v>0.03279500306213014</v>
+        <v>0.03279500306213031</v>
       </c>
       <c r="Y188" t="n">
-        <v>0.1459259259259259</v>
+        <v>0.145925925925926</v>
       </c>
       <c r="Z188" t="n">
         <v>0.1841568335639382</v>
@@ -18427,7 +18427,7 @@
         <v>0</v>
       </c>
       <c r="AF188" t="n">
-        <v>0.3328844527195103</v>
+        <v>0.3328844527195106</v>
       </c>
     </row>
     <row r="189">
@@ -18445,7 +18445,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0.5521775637806305</v>
+        <v>0.5521775637806304</v>
       </c>
       <c r="E189" t="n">
         <v>26</v>
@@ -18468,13 +18468,13 @@
         <v>0.53</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1828463948281339</v>
+        <v>0.1828463948281338</v>
       </c>
       <c r="L189" t="n">
         <v>0.04658042737651111</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09178327806102546</v>
+        <v>0.09178327806102549</v>
       </c>
       <c r="N189" t="n">
         <v>0</v>
@@ -18495,7 +18495,7 @@
         <v>44385</v>
       </c>
       <c r="T189" t="n">
-        <v>0.1777869287905237</v>
+        <v>0.1777869287905235</v>
       </c>
       <c r="U189" t="n">
         <v>-0.1171277053563149</v>
@@ -18504,13 +18504,13 @@
         <v>0.08072609959879964</v>
       </c>
       <c r="W189" t="n">
-        <v>-0.1777869287905237</v>
+        <v>-0.1777869287905235</v>
       </c>
       <c r="X189" t="n">
-        <v>0.09178327806102546</v>
+        <v>0.09178327806102549</v>
       </c>
       <c r="Y189" t="n">
-        <v>0.1828463948281339</v>
+        <v>0.1828463948281338</v>
       </c>
       <c r="Z189" t="n">
         <v>0.08072609959879964</v>
@@ -18531,7 +18531,7 @@
         <v>-0</v>
       </c>
       <c r="AF189" t="n">
-        <v>0.1775688436974353</v>
+        <v>0.1775688436974354</v>
       </c>
     </row>
     <row r="190">
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.6681096230158731</v>
+        <v>0.6681096230158734</v>
       </c>
       <c r="E190" t="n">
         <v>26</v>
@@ -18572,10 +18572,10 @@
         <v>0.65</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1492625661375661</v>
+        <v>0.1492625661375662</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07303406084656085</v>
+        <v>0.07303406084656086</v>
       </c>
       <c r="M190" t="n">
         <v>0.1116975845066596</v>
@@ -18599,22 +18599,22 @@
         <v>44385</v>
       </c>
       <c r="T190" t="n">
-        <v>0.1204181547619046</v>
+        <v>0.120418154761905</v>
       </c>
       <c r="U190" t="n">
-        <v>-0.1193799603174604</v>
+        <v>-0.1193799603174603</v>
       </c>
       <c r="V190" t="n">
         <v>0.1677819341415882</v>
       </c>
       <c r="W190" t="n">
-        <v>-0.1204181547619046</v>
+        <v>-0.120418154761905</v>
       </c>
       <c r="X190" t="n">
         <v>0.1116975845066596</v>
       </c>
       <c r="Y190" t="n">
-        <v>0.1492625661375661</v>
+        <v>0.1492625661375662</v>
       </c>
       <c r="Z190" t="n">
         <v>0.1677819341415882</v>
@@ -18635,7 +18635,7 @@
         <v>-0</v>
       </c>
       <c r="AF190" t="n">
-        <v>0.3083239300239092</v>
+        <v>0.3083239300239089</v>
       </c>
     </row>
     <row r="191">
@@ -18653,7 +18653,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.1899387350073345</v>
+        <v>0.2113287250384025</v>
       </c>
       <c r="E191" t="n">
         <v>26</v>
@@ -18676,13 +18676,13 @@
         <v>0.47</v>
       </c>
       <c r="K191" t="n">
-        <v>0.6256622659418413</v>
+        <v>0.6856518817204297</v>
       </c>
       <c r="L191" t="n">
-        <v>0.02046768487358702</v>
+        <v>0.02277265745007681</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1287040067590002</v>
+        <v>0.1180932658630452</v>
       </c>
       <c r="N191" t="n">
         <v>0</v>
@@ -18703,25 +18703,25 @@
         <v>44385</v>
       </c>
       <c r="T191" t="n">
-        <v>-0.2446273237456631</v>
+        <v>-0.2232373337145951</v>
       </c>
       <c r="U191" t="n">
         <v>0</v>
       </c>
       <c r="V191" t="n">
-        <v>0.05582891564398815</v>
+        <v>0.05659723983615143</v>
       </c>
       <c r="W191" t="n">
-        <v>0.2446273237456631</v>
+        <v>0.2232373337145951</v>
       </c>
       <c r="X191" t="n">
-        <v>0.1287040067590002</v>
+        <v>0.1180932658630452</v>
       </c>
       <c r="Y191" t="n">
-        <v>0.6256622659418413</v>
+        <v>0.6856518817204297</v>
       </c>
       <c r="Z191" t="n">
-        <v>0.05582891564398815</v>
+        <v>0.05659723983615143</v>
       </c>
       <c r="AA191" t="n">
         <v>-0</v>
@@ -18739,7 +18739,7 @@
         <v>-0</v>
       </c>
       <c r="AF191" t="n">
-        <v>1.054822512090493</v>
+        <v>1.083579721134221</v>
       </c>
     </row>
     <row r="192">
@@ -18786,7 +18786,7 @@
         <v>0.02623869098105739</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1712048946537921</v>
+        <v>0.1712048946537922</v>
       </c>
       <c r="N192" t="n">
         <v>0</v>
@@ -18810,7 +18810,7 @@
         <v>0.2830192799496237</v>
       </c>
       <c r="U192" t="n">
-        <v>-0.414070652453286</v>
+        <v>-0.4140706524532861</v>
       </c>
       <c r="V192" t="n">
         <v>0.140269584370847</v>
@@ -18819,7 +18819,7 @@
         <v>-0.2830192799496237</v>
       </c>
       <c r="X192" t="n">
-        <v>0.1712048946537921</v>
+        <v>0.1712048946537922</v>
       </c>
       <c r="Y192" t="n">
         <v>0.2117136697766469</v>
@@ -18843,7 +18843,7 @@
         <v>-0</v>
       </c>
       <c r="AF192" t="n">
-        <v>0.2401688688516623</v>
+        <v>0.2401688688516625</v>
       </c>
     </row>
     <row r="193">
@@ -18884,13 +18884,13 @@
         <v>0.5</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2666913519295647</v>
+        <v>0.2666913519295646</v>
       </c>
       <c r="L193" t="n">
         <v>0.08905208590471489</v>
       </c>
       <c r="M193" t="n">
-        <v>0.07176908883369623</v>
+        <v>0.07176908883369637</v>
       </c>
       <c r="N193" t="n">
         <v>0</v>
@@ -18923,10 +18923,10 @@
         <v>0.01423805179728199</v>
       </c>
       <c r="X193" t="n">
-        <v>0.07176908883369623</v>
+        <v>0.07176908883369637</v>
       </c>
       <c r="Y193" t="n">
-        <v>0.2666913519295647</v>
+        <v>0.2666913519295646</v>
       </c>
       <c r="Z193" t="n">
         <v>0.0790749862278778</v>
@@ -18988,13 +18988,13 @@
         <v>0.45</v>
       </c>
       <c r="K194" t="n">
-        <v>0.3265431245102108</v>
+        <v>0.396381321163509</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1456783294150187</v>
+        <v>0.07584013276172036</v>
       </c>
       <c r="M194" t="n">
-        <v>0.05239248312513231</v>
+        <v>0.05239248312513217</v>
       </c>
       <c r="N194" t="n">
         <v>0</v>
@@ -19015,25 +19015,25 @@
         <v>44385</v>
       </c>
       <c r="T194" t="n">
-        <v>-0.07829843949821247</v>
+        <v>-0.0782984394982123</v>
       </c>
       <c r="U194" t="n">
-        <v>0.09585772756316685</v>
+        <v>0.02601953090986852</v>
       </c>
       <c r="V194" t="n">
-        <v>0.07127214975704668</v>
+        <v>0.05381260059372209</v>
       </c>
       <c r="W194" t="n">
-        <v>0.07829843949821247</v>
+        <v>0.0782984394982123</v>
       </c>
       <c r="X194" t="n">
-        <v>0.05239248312513231</v>
+        <v>0.05239248312513217</v>
       </c>
       <c r="Y194" t="n">
-        <v>0.3265431245102108</v>
+        <v>0.396381321163509</v>
       </c>
       <c r="Z194" t="n">
-        <v>0.07127214975704668</v>
+        <v>0.05381260059372209</v>
       </c>
       <c r="AA194" t="n">
         <v>-0</v>
@@ -19051,7 +19051,7 @@
         <v>-0</v>
       </c>
       <c r="AF194" t="n">
-        <v>0.5285061968906022</v>
+        <v>0.5808848443805755</v>
       </c>
     </row>
     <row r="195">
@@ -19092,13 +19092,13 @@
         <v>0.65</v>
       </c>
       <c r="K195" t="n">
-        <v>0.6256622659418413</v>
+        <v>0.6856518817204297</v>
       </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
       <c r="M195" t="n">
-        <v>0.06731587338757558</v>
+        <v>0.06731587338757565</v>
       </c>
       <c r="N195" t="n">
         <v>0</v>
@@ -19131,10 +19131,10 @@
         <v>-0</v>
       </c>
       <c r="X195" t="n">
-        <v>0.06731587338757558</v>
+        <v>0.06731587338757565</v>
       </c>
       <c r="Y195" t="n">
-        <v>0.6256622659418413</v>
+        <v>0.6856518817204297</v>
       </c>
       <c r="Z195" t="n">
         <v>0.139872397880745</v>
@@ -19155,7 +19155,7 @@
         <v>-0</v>
       </c>
       <c r="AF195" t="n">
-        <v>0.8328505372101619</v>
+        <v>0.8928401529887503</v>
       </c>
     </row>
     <row r="196">
@@ -19196,13 +19196,13 @@
         <v>0.65</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2762376973073351</v>
+        <v>0.2762376973073352</v>
       </c>
       <c r="L196" t="n">
         <v>0.05758960074280405</v>
       </c>
       <c r="M196" t="n">
-        <v>0.06743044736413417</v>
+        <v>0.06743044736413403</v>
       </c>
       <c r="N196" t="n">
         <v>0</v>
@@ -19223,7 +19223,7 @@
         <v>44385</v>
       </c>
       <c r="T196" t="n">
-        <v>-0.09272729811396896</v>
+        <v>-0.09272729811396874</v>
       </c>
       <c r="U196" t="n">
         <v>-0.02693529995991521</v>
@@ -19232,13 +19232,13 @@
         <v>0.0703514576201467</v>
       </c>
       <c r="W196" t="n">
-        <v>0.09272729811396896</v>
+        <v>0.09272729811396874</v>
       </c>
       <c r="X196" t="n">
-        <v>0.06743044736413417</v>
+        <v>0.06743044736413403</v>
       </c>
       <c r="Y196" t="n">
-        <v>0.2762376973073351</v>
+        <v>0.2762376973073352</v>
       </c>
       <c r="Z196" t="n">
         <v>0.0703514576201467</v>
@@ -19259,7 +19259,7 @@
         <v>-0</v>
       </c>
       <c r="AF196" t="n">
-        <v>0.5067469004055849</v>
+        <v>0.5067469004055847</v>
       </c>
     </row>
     <row r="197">
@@ -19327,7 +19327,7 @@
         <v>44385</v>
       </c>
       <c r="T197" t="n">
-        <v>-0.2826150436098166</v>
+        <v>-0.2826150436098167</v>
       </c>
       <c r="U197" t="n">
         <v>0.07637910292630806</v>
@@ -19336,7 +19336,7 @@
         <v>0.0404048897858782</v>
       </c>
       <c r="W197" t="n">
-        <v>0.2826150436098166</v>
+        <v>0.2826150436098167</v>
       </c>
       <c r="X197" t="n">
         <v>0.1310772369803295</v>
@@ -19381,7 +19381,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.4756892822025565</v>
+        <v>0.4804512771620387</v>
       </c>
       <c r="E198" t="n">
         <v>26</v>
@@ -19404,13 +19404,13 @@
         <v>0.58</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1917551622418878</v>
+        <v>0.1936747705875342</v>
       </c>
       <c r="L198" t="n">
-        <v>0.2328053097345132</v>
+        <v>0.2249523298772494</v>
       </c>
       <c r="M198" t="n">
-        <v>0.04346318267326644</v>
+        <v>0.04154778667054846</v>
       </c>
       <c r="N198" t="n">
         <v>0</v>
@@ -19431,25 +19431,25 @@
         <v>44385</v>
       </c>
       <c r="T198" t="n">
-        <v>-0.1013706172030217</v>
+        <v>-0.09660862224353939</v>
       </c>
       <c r="U198" t="n">
-        <v>0.05917019313643368</v>
+        <v>0.0513172132791698</v>
       </c>
       <c r="V198" t="n">
-        <v>0.2017643664183939</v>
+        <v>0.1998011214540779</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1013706172030217</v>
+        <v>0.09660862224353939</v>
       </c>
       <c r="X198" t="n">
-        <v>0.04346318267326644</v>
+        <v>0.04154778667054846</v>
       </c>
       <c r="Y198" t="n">
-        <v>0.1917551622418878</v>
+        <v>0.1936747705875342</v>
       </c>
       <c r="Z198" t="n">
-        <v>0.2017643664183939</v>
+        <v>0.1998011214540779</v>
       </c>
       <c r="AA198" t="n">
         <v>-0</v>
@@ -19467,7 +19467,7 @@
         <v>-0</v>
       </c>
       <c r="AF198" t="n">
-        <v>0.5383533285365698</v>
+        <v>0.5316323009557</v>
       </c>
     </row>
     <row r="199">
@@ -19511,10 +19511,10 @@
         <v>0.1433391812865497</v>
       </c>
       <c r="L199" t="n">
-        <v>0.2782514619883041</v>
+        <v>0.278251461988304</v>
       </c>
       <c r="M199" t="n">
-        <v>0.05508582274285943</v>
+        <v>0.05508582274285916</v>
       </c>
       <c r="N199" t="n">
         <v>0</v>
@@ -19535,7 +19535,7 @@
         <v>44385</v>
       </c>
       <c r="T199" t="n">
-        <v>-0.1111717780515303</v>
+        <v>-0.1111717780515304</v>
       </c>
       <c r="U199" t="n">
         <v>0</v>
@@ -19544,10 +19544,10 @@
         <v>0.219199379101345</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1111717780515303</v>
+        <v>0.1111717780515304</v>
       </c>
       <c r="X199" t="n">
-        <v>0.05508582274285943</v>
+        <v>0.05508582274285916</v>
       </c>
       <c r="Y199" t="n">
         <v>0.1433391812865497</v>
@@ -19571,7 +19571,7 @@
         <v>-0</v>
       </c>
       <c r="AF199" t="n">
-        <v>0.5287961611822845</v>
+        <v>0.5287961611822842</v>
       </c>
     </row>
     <row r="200">
@@ -19589,7 +19589,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0.4066229221347332</v>
+        <v>0.4066229221347331</v>
       </c>
       <c r="E200" t="n">
         <v>26</v>
@@ -19618,7 +19618,7 @@
         <v>0.0505161854768154</v>
       </c>
       <c r="M200" t="n">
-        <v>0.08171975111622352</v>
+        <v>0.08171975111622354</v>
       </c>
       <c r="N200" t="n">
         <v>0</v>
@@ -19639,25 +19639,25 @@
         <v>44385</v>
       </c>
       <c r="T200" t="n">
-        <v>-0.08211781860600759</v>
+        <v>-0.0821178186060077</v>
       </c>
       <c r="U200" t="n">
         <v>-0.05761201965138971</v>
       </c>
       <c r="V200" t="n">
-        <v>0.06446665320681069</v>
+        <v>0.06446665320681068</v>
       </c>
       <c r="W200" t="n">
-        <v>0.08211781860600759</v>
+        <v>0.0821178186060077</v>
       </c>
       <c r="X200" t="n">
-        <v>0.08171975111622352</v>
+        <v>0.08171975111622354</v>
       </c>
       <c r="Y200" t="n">
         <v>0.4529483814523184</v>
       </c>
       <c r="Z200" t="n">
-        <v>0.06446665320681069</v>
+        <v>0.06446665320681068</v>
       </c>
       <c r="AA200" t="n">
         <v>-0</v>
@@ -19675,7 +19675,7 @@
         <v>-0</v>
       </c>
       <c r="AF200" t="n">
-        <v>0.6812526043813601</v>
+        <v>0.6812526043813604</v>
       </c>
     </row>
     <row r="201">
@@ -19693,7 +19693,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.4088427640051513</v>
+        <v>0.4114257654300987</v>
       </c>
       <c r="E201" t="n">
         <v>26</v>
@@ -19716,13 +19716,13 @@
         <v>0.547</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1844548186306074</v>
+        <v>0.1856201738754793</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1857641124704873</v>
+        <v>0.1869377396187699</v>
       </c>
       <c r="M201" t="n">
-        <v>0.05469150899667946</v>
+        <v>0.05362332460795219</v>
       </c>
       <c r="N201" t="n">
         <v>0</v>
@@ -19743,25 +19743,25 @@
         <v>44385</v>
       </c>
       <c r="T201" t="n">
-        <v>-0.08421331964503881</v>
+        <v>-0.08163031822009142</v>
       </c>
       <c r="U201" t="n">
-        <v>0.0365752658291692</v>
+        <v>0.03774889297745179</v>
       </c>
       <c r="V201" t="n">
-        <v>0.1827579995405353</v>
+        <v>0.1830514063276059</v>
       </c>
       <c r="W201" t="n">
-        <v>0.08421331964503881</v>
+        <v>0.08163031822009142</v>
       </c>
       <c r="X201" t="n">
-        <v>0.05469150899667946</v>
+        <v>0.05362332460795219</v>
       </c>
       <c r="Y201" t="n">
-        <v>0.1844548186306074</v>
+        <v>0.1856201738754793</v>
       </c>
       <c r="Z201" t="n">
-        <v>0.1827579995405353</v>
+        <v>0.1830514063276059</v>
       </c>
       <c r="AA201" t="n">
         <v>-0</v>
@@ -19779,7 +19779,7 @@
         <v>-0</v>
       </c>
       <c r="AF201" t="n">
-        <v>0.506117646812861</v>
+        <v>0.5039252230311289</v>
       </c>
     </row>
     <row r="202">
@@ -19797,7 +19797,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.3812733333333334</v>
+        <v>0.3812733333333333</v>
       </c>
       <c r="E202" t="n">
         <v>26</v>
@@ -19820,13 +19820,13 @@
         <v>0.478</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1920977777777778</v>
+        <v>0.1920977777777777</v>
       </c>
       <c r="L202" t="n">
         <v>0.2133362962962963</v>
       </c>
       <c r="M202" t="n">
-        <v>0.01991578924074066</v>
+        <v>0.01991578924074055</v>
       </c>
       <c r="N202" t="n">
         <v>0</v>
@@ -19847,7 +19847,7 @@
         <v>44385</v>
       </c>
       <c r="T202" t="n">
-        <v>0.03661968431252549</v>
+        <v>0.03661968431252538</v>
       </c>
       <c r="U202" t="n">
         <v>-0.03107924837934639</v>
@@ -19856,13 +19856,13 @@
         <v>0.2524058342778186</v>
       </c>
       <c r="W202" t="n">
-        <v>-0.03661968431252549</v>
+        <v>-0.03661968431252538</v>
       </c>
       <c r="X202" t="n">
-        <v>0.01991578924074066</v>
+        <v>0.01991578924074055</v>
       </c>
       <c r="Y202" t="n">
-        <v>0.1920977777777778</v>
+        <v>0.1920977777777777</v>
       </c>
       <c r="Z202" t="n">
         <v>0.2524058342778186</v>
@@ -19883,7 +19883,7 @@
         <v>-0</v>
       </c>
       <c r="AF202" t="n">
-        <v>0.4277997169838116</v>
+        <v>0.4277997169838115</v>
       </c>
     </row>
     <row r="203">
